--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/PC TEMPLATES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EAE42E-FAB8-4540-8E58-868639E0436D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96026DB5-7DD3-4E47-A6BA-5E64CF0B8B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="224">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>LESS ADVANCE PAYMENT REFUND</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
   <si>
     <t xml:space="preserve">Duration of Contract:              </t>
@@ -566,9 +563,6 @@
     <t>Elements of work covered</t>
   </si>
   <si>
-    <t>Bill of Quantities (BOQ).</t>
-  </si>
-  <si>
     <t>Full Folio reference</t>
   </si>
   <si>
@@ -617,9 +611,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Lagos.</t>
-  </si>
-  <si>
     <t>PRE-PAYMENT CERTIFICATION:</t>
   </si>
   <si>
@@ -707,9 +698,6 @@
     <t>Delivery notes</t>
   </si>
   <si>
-    <t>7th January, 2025</t>
-  </si>
-  <si>
     <t>Delivery note(s)</t>
   </si>
   <si>
@@ -728,9 +716,6 @@
     <t>Date of upward review</t>
   </si>
   <si>
-    <t>30th October, 2024</t>
-  </si>
-  <si>
     <t>HOU (Sign)</t>
   </si>
   <si>
@@ -761,25 +746,10 @@
     <t>Client Ministry</t>
   </si>
   <si>
-    <t>Lagos State Real Estate Regulatory Authority</t>
-  </si>
-  <si>
-    <t>Engr. Osisami A. Bankole</t>
-  </si>
-  <si>
     <t>Contractor name:</t>
   </si>
   <si>
-    <t>Messrs. FAB Investment Limited</t>
-  </si>
-  <si>
     <t>Payment stage:</t>
-  </si>
-  <si>
-    <t>Rehabilitation of Water Supply and Wastewater Facilities at Shasha Housing Estate, Shasha</t>
-  </si>
-  <si>
-    <t>Egbeda LCDA / Alimosho LGA</t>
   </si>
   <si>
     <t>What is the Contract sum?</t>
@@ -819,93 +789,24 @@
     <t>Write out Amount due in words</t>
   </si>
   <si>
-    <t>Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo</t>
-  </si>
-  <si>
     <t>PROJECT DETAILS</t>
   </si>
   <si>
-    <t>construction of sedimentation tank, and the provision of pressure filter tank / treatment plant.</t>
-  </si>
-  <si>
-    <t>To provide water supply and wastewater facilities at Shasha Housing Estate, Shasha</t>
-  </si>
-  <si>
-    <t>31st August, 2021</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Four (4) Months</t>
-  </si>
-  <si>
-    <t>30th January, 2025</t>
-  </si>
-  <si>
-    <t>40%.</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>13th February, 2025</t>
-  </si>
-  <si>
     <t>Is the scope specified in the BOQ OR BEME or Award letter ?</t>
   </si>
   <si>
     <t>FOLIO REFERENCES</t>
   </si>
   <si>
-    <t>folio 1</t>
-  </si>
-  <si>
-    <t>folio 2 - 2d</t>
-  </si>
-  <si>
     <t>Letter of award / upward review</t>
   </si>
   <si>
-    <t>folios 3 - 4</t>
-  </si>
-  <si>
-    <t>folio 5</t>
-  </si>
-  <si>
-    <t>MEPB/MED/25/162/I/6</t>
-  </si>
-  <si>
-    <t>folio 8</t>
-  </si>
-  <si>
-    <t>folio 12</t>
-  </si>
-  <si>
     <t>Folio reference for memo</t>
   </si>
   <si>
-    <t>MEPB/MED/25/162/I/14</t>
-  </si>
-  <si>
     <t>ADDRESS LINE &amp; DATE FOR APPROVAL</t>
   </si>
   <si>
-    <t xml:space="preserve">The Special Adviser, </t>
-  </si>
-  <si>
-    <t>Block 21, The Secretariat.</t>
-  </si>
-  <si>
-    <t>Alausa - Ikeja,</t>
-  </si>
-  <si>
-    <t>SAH/LASRERA/A.51/3B/145</t>
-  </si>
-  <si>
-    <t>14th January, 2025</t>
-  </si>
-  <si>
     <t>SIGNATORIES</t>
   </si>
   <si>
@@ -919,21 +820,6 @@
   </si>
   <si>
     <t>PROJECT 2</t>
-  </si>
-  <si>
-    <t>Final Payment</t>
-  </si>
-  <si>
-    <t>Rehabilitation of Water Supply and Wastewater Facilities at Ibeshe Housing Estate</t>
-  </si>
-  <si>
-    <t>Ikorodu LGA</t>
-  </si>
-  <si>
-    <t>Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo</t>
-  </si>
-  <si>
-    <t>MEPB/MED/25/162/I/7</t>
   </si>
   <si>
     <r>
@@ -982,34 +868,10 @@
     </r>
   </si>
   <si>
-    <t>construction of sedimentation tank, and the provision of pressure filter tank / treatment plant</t>
-  </si>
-  <si>
     <t>Consequent upon this, kindly recommend to the Permanent Secretary (MEPB) to seek the approval of the Honorable Commissioner (MEPB) to certify the Original Pre-Payment Certificate and Inspection Report for the following amounts:</t>
   </si>
   <si>
     <t>Name of Contractors:</t>
-  </si>
-  <si>
-    <t>folio 6 - 7</t>
-  </si>
-  <si>
-    <t>folio 9</t>
-  </si>
-  <si>
-    <t>folios 10 - 10b</t>
-  </si>
-  <si>
-    <t>folios 11 - 11c</t>
-  </si>
-  <si>
-    <t>folio 13</t>
-  </si>
-  <si>
-    <t>Folios 1 - 13</t>
-  </si>
-  <si>
-    <t>MEPB/MED/25/162/I/15</t>
   </si>
   <si>
     <r>
@@ -1028,15 +890,6 @@
     </r>
   </si>
   <si>
-    <t>Special Committee On Rehabilitation of Public Schools</t>
-  </si>
-  <si>
-    <t>Engr. F.O Badejo</t>
-  </si>
-  <si>
-    <t>Messrs. Kinghorse International Limited</t>
-  </si>
-  <si>
     <t>PROJECT 1</t>
   </si>
 </sst>
@@ -1045,10 +898,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$₦-466]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$₦-46A]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$₦-468]\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$₦-466]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$₦-46A]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$₦-468]\ #,##0.00"/>
   </numFmts>
   <fonts count="62" x14ac:knownFonts="1">
     <font>
@@ -1914,7 +1767,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1961,7 +1814,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1983,44 +1836,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2035,7 +1888,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2043,14 +1896,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2080,13 +1933,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
@@ -2149,32 +2002,32 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="39" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="39" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="165" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2195,21 +2048,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="43" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2291,7 +2144,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="60" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="60" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2304,68 +2157,119 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2376,9 +2280,33 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2388,99 +2316,30 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2492,12 +2351,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4842,685 +4695,519 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="BP51" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65:E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.48046875" customWidth="1"/>
-    <col min="2" max="2" width="39.4140625" customWidth="1"/>
-    <col min="3" max="3" width="2.82421875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.47265625" customWidth="1"/>
-    <col min="5" max="5" width="39.4140625" customWidth="1"/>
-    <col min="6" max="6" width="8.609375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="54.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="2.77734375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="173" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="157" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B2" s="158"/>
       <c r="D2" s="159"/>
       <c r="E2" s="160"/>
     </row>
-    <row r="3" spans="1:5" s="167" customFormat="1" ht="27.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="167" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="165" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="166" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="166" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="B3" s="166"/>
+      <c r="E3" s="166"/>
+    </row>
+    <row r="4" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>270</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="68"/>
+      <c r="E4" s="68"/>
+    </row>
+    <row r="5" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="E5" s="68"/>
+    </row>
+    <row r="6" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="66" customFormat="1" ht="27.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="E6" s="68"/>
+    </row>
+    <row r="7" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="66" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="70"/>
+      <c r="E7" s="70"/>
+    </row>
+    <row r="8" spans="1:5" s="66" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="66" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="72"/>
+      <c r="E8" s="72"/>
+    </row>
+    <row r="9" spans="1:5" s="66" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="154"/>
       <c r="B9" s="155"/>
       <c r="C9" s="156"/>
       <c r="D9" s="156"/>
       <c r="E9" s="155"/>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="74">
-        <v>88073488.209999993</v>
-      </c>
-      <c r="E10" s="74">
-        <v>64559134.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="E10" s="74"/>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="76">
-        <v>205880977.44999999</v>
-      </c>
-      <c r="E11" s="76">
-        <v>208395819.68000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="E11" s="76"/>
+    </row>
+    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="77">
-        <v>0.4</v>
-      </c>
-      <c r="E12" s="77">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="E12" s="77"/>
+    </row>
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="76">
-        <v>102940488.73</v>
-      </c>
-      <c r="E13" s="76">
-        <v>108940488.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="B13" s="76"/>
+      <c r="E13" s="76"/>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="77">
-        <v>0.05</v>
-      </c>
-      <c r="E14" s="77">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="E14" s="77"/>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="80">
-        <v>1</v>
-      </c>
-      <c r="E16" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="E16" s="80"/>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="163"/>
       <c r="B17" s="162"/>
       <c r="D17" s="159"/>
       <c r="E17" s="161"/>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="19.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="168" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="B18" s="169">
         <f>'PC 1'!B12</f>
-        <v>69898578.831512511</v>
+        <v>0</v>
       </c>
       <c r="E18" s="169">
         <f>'PC 2'!B12</f>
-        <v>85431820.387512505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="42.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="C19" t="str">
-        <f>"(" &amp;B19&amp;")"</f>
-        <v>(Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo)</v>
-      </c>
-      <c r="E19" s="82" t="s">
-        <v>254</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B19" s="82"/>
+      <c r="E19" s="82"/>
       <c r="F19" t="str">
         <f>"(" &amp;E19&amp;")"</f>
-        <v>(Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>()</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="157" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B23" s="158"/>
       <c r="D23" s="159"/>
       <c r="E23" s="160"/>
     </row>
-    <row r="24" spans="1:6" ht="27.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="84" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27.75" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="E24" s="84"/>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="B25" s="86"/>
+      <c r="E25" s="86"/>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A26" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="88" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="88"/>
+      <c r="E26" s="88"/>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="88" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="B27" s="88"/>
+      <c r="E27" s="88"/>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A28" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="88"/>
+      <c r="E28" s="88"/>
+    </row>
+    <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="E29" s="88"/>
+    </row>
+    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A30" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="88"/>
+      <c r="E30" s="88"/>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A31" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="88"/>
+      <c r="E31" s="88"/>
+    </row>
+    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A32" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="88" t="s">
-        <v>224</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="88"/>
+      <c r="E32" s="88"/>
+    </row>
+    <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="88" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="88"/>
+      <c r="E33" s="88"/>
+    </row>
+    <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="88"/>
+      <c r="E34" s="95"/>
+    </row>
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="88" t="s">
-        <v>227</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B35" s="88"/>
       <c r="E35" s="96"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" s="90" t="s">
-        <v>137</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B36" s="90"/>
       <c r="E36" s="94"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="157" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B39" s="158"/>
       <c r="D39" s="159"/>
       <c r="E39" s="160"/>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="92"/>
+      <c r="E40" s="94"/>
+    </row>
+    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="88"/>
+      <c r="E41" s="94"/>
+    </row>
+    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="87" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="88"/>
+      <c r="E42" s="94"/>
+    </row>
+    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="94"/>
-    </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="87" t="s">
+      <c r="B43" s="88"/>
+      <c r="E43" s="94"/>
+    </row>
+    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="88"/>
+      <c r="E44" s="94"/>
+    </row>
+    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="88"/>
+      <c r="E45" s="88"/>
+    </row>
+    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="88" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="94"/>
-    </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="E42" s="94"/>
-    </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="E43" s="94"/>
-    </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="87" t="s">
+      <c r="B46" s="88"/>
+      <c r="E46" s="94"/>
+    </row>
+    <row r="47" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="88"/>
+      <c r="E47" s="94"/>
+    </row>
+    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="88"/>
+      <c r="E48" s="94"/>
+    </row>
+    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="E44" s="94"/>
-    </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="E45" s="88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="87" t="s">
+      <c r="B49" s="88"/>
+      <c r="E49" s="94"/>
+    </row>
+    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="E46" s="94"/>
-    </row>
-    <row r="47" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="94"/>
-    </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="94"/>
-    </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="94"/>
-    </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="88" t="s">
-        <v>65</v>
-      </c>
+      <c r="B50" s="88"/>
       <c r="E50" s="94"/>
     </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A51" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="88" t="s">
-        <v>263</v>
-      </c>
+      <c r="B51" s="88"/>
       <c r="E51" s="94"/>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="88" t="s">
-        <v>65</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B52" s="88"/>
       <c r="E52" s="94"/>
     </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="88" t="s">
-        <v>264</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B53" s="88"/>
       <c r="E53" s="94"/>
     </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A54" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="88" t="s">
-        <v>237</v>
-      </c>
+      <c r="B54" s="88"/>
       <c r="E54" s="94"/>
     </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="88" t="s">
-        <v>265</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B55" s="88"/>
       <c r="E55" s="94"/>
     </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="B56" s="88" t="s">
-        <v>266</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B56" s="88"/>
       <c r="E56" s="94"/>
     </row>
-    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="88" t="s">
-        <v>239</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B57" s="88"/>
       <c r="E57" s="94"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>267</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B58" s="90"/>
       <c r="E58" s="94"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="157" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B61" s="158"/>
       <c r="D61" s="159"/>
       <c r="E61" s="161"/>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="92"/>
+      <c r="D62" s="164"/>
+    </row>
+    <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="88"/>
+      <c r="D63" s="164"/>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="153">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="164"/>
+    </row>
+    <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="164"/>
-    </row>
-    <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="87" t="s">
+      <c r="B65" s="88"/>
+      <c r="D65" s="164"/>
+    </row>
+    <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="88" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="164"/>
-    </row>
-    <row r="64" spans="1:5" ht="27.75" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="87" t="s">
+      <c r="B66" s="88"/>
+      <c r="D66" s="164"/>
+    </row>
+    <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="153" t="str">
-        <f>B3</f>
-        <v>Special Committee On Rehabilitation of Public Schools</v>
-      </c>
-      <c r="D64" s="164"/>
-    </row>
-    <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="87" t="s">
+      <c r="B67" s="88"/>
+      <c r="D67" s="164"/>
+    </row>
+    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="B65" s="88" t="s">
-        <v>242</v>
-      </c>
-      <c r="D65" s="164"/>
-    </row>
-    <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="87" t="s">
+      <c r="B68" s="88"/>
+      <c r="D68" s="164"/>
+      <c r="E68" s="88"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="B66" s="88" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="164"/>
-    </row>
-    <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="164"/>
-    </row>
-    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" s="164"/>
-      <c r="E68" s="88" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="90" t="s">
-        <v>245</v>
-      </c>
+      <c r="B69" s="90"/>
       <c r="D69" s="164"/>
-      <c r="E69" s="90" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="90"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="157" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B72" s="158"/>
       <c r="D72" s="159"/>
       <c r="E72" s="161"/>
     </row>
-    <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="91" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B73" s="92" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D73" s="164"/>
     </row>
-    <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="87" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B74" s="88" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D74" s="164"/>
     </row>
-    <row r="75" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="87" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="B75" s="88" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="D75" s="164"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D76" s="164"/>
     </row>
@@ -5557,251 +5244,251 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.37890625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55.15234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.55859375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="239"/>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="239"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="239"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="240" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="233"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="233"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="233"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="234" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
-        <v>MEPB/MED/25/162/I/15                                                                             7th January, 2025</v>
-      </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="234"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="240" t="str">
+        <v>0                                                                             0</v>
+      </c>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="235"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="234">
         <f>'PC 1'!B59</f>
-        <v xml:space="preserve">The Special Adviser, </v>
-      </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="232">
         <f>'PC 1'!B60</f>
-        <v>Special Committee On Rehabilitation of Public Schools</v>
-      </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A11" s="232">
         <f>'PC 1'!B61</f>
-        <v>Block 21, The Secretariat.</v>
-      </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="232">
         <f>'PC 1'!B62</f>
-        <v>Alausa - Ikeja,</v>
-      </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A13" s="232">
         <f>'PC 1'!B63</f>
-        <v>Lagos.</v>
-      </c>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="233"/>
-      <c r="B14" s="233"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="235" t="str">
+        <v>0</v>
+      </c>
+      <c r="B13" s="232"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="232"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="235" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="237" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
-        <v>REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT SHASHA HOUSING ESTATE, SHASHA &amp; REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT IBESHE HOUSING ESTATE.</v>
-      </c>
-      <c r="B16" s="235"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+        <v>0 &amp; 0.</v>
+      </c>
+      <c r="B16" s="237"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="236" t="str">
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="238" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
-        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. SAH/LASRERA/A.51/3B/145 &amp; SAH/LASRERA/A.51/3B/145 dated 14th January, 2025 &amp; 14th January, 2025 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
-      </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="237"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
+      </c>
+      <c r="B18" s="238"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="239"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="52">
         <v>1</v>
       </c>
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="53">
         <f>'PC 1'!B22</f>
-        <v>Messrs. Kinghorse International Limited</v>
+        <v>0</v>
       </c>
       <c r="C21" s="57">
         <f>'PC 1'!B12</f>
-        <v>69898578.831512511</v>
+        <v>0</v>
       </c>
       <c r="D21" s="55" t="str">
         <f>'PC 1'!B1</f>
-        <v>Final Payment</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="52">
         <v>2</v>
       </c>
-      <c r="B22" s="53" t="str">
+      <c r="B22" s="53">
         <f>'PC 2'!B22</f>
-        <v>Messrs. FAB Investment Limited</v>
+        <v>0</v>
       </c>
       <c r="C22" s="57">
         <f>'PC 2'!B12</f>
-        <v>85431820.387512505</v>
+        <v>0</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>'PC 2'!B1</f>
-        <v>Final Payment</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="29"/>
       <c r="B23" s="7"/>
       <c r="C23" s="51"/>
     </row>
-    <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="238" t="s">
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="240" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
+    </row>
+    <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A25" s="232"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="232"/>
+    </row>
+    <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="232" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="232"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A28" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="238"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="238"/>
-    </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="233"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-    </row>
-    <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="233" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="233"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="232" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="232"/>
-      <c r="C28" s="232"/>
-      <c r="D28" s="232"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A29" s="232" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="232"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="232"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="236" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5813,17 +5500,29 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" s="27"/>
     </row>
-    <row r="33" spans="1:1" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5836,18 +5535,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5865,251 +5552,251 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.37890625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55.15234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.55859375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="55.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="239"/>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="239"/>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-    </row>
-    <row r="3" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="239"/>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-    </row>
-    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-    </row>
-    <row r="5" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="239"/>
-      <c r="B5" s="239"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-    </row>
-    <row r="6" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="239"/>
-      <c r="B6" s="239"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="240" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="233"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="233"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+    </row>
+    <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+    </row>
+    <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+    </row>
+    <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+    </row>
+    <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A6" s="233"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="234" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
-        <v>MEPB/MED/25/162/I/15                                                                             7th January, 2025</v>
-      </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-    </row>
-    <row r="8" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="234"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-    </row>
-    <row r="9" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="240" t="str">
+        <v>0                                                                             0</v>
+      </c>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+    </row>
+    <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A8" s="235"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+    </row>
+    <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A9" s="234">
         <f>'PC 1'!B59</f>
-        <v xml:space="preserve">The Special Adviser, </v>
-      </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-    </row>
-    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+    </row>
+    <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="232">
         <f>'PC 1'!B60</f>
-        <v>Special Committee On Rehabilitation of Public Schools</v>
-      </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-    </row>
-    <row r="11" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A11" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B10" s="232"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+    </row>
+    <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A11" s="232">
         <f>'PC 1'!B61</f>
-        <v>Block 21, The Secretariat.</v>
-      </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-    </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+    </row>
+    <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="232">
         <f>'PC 1'!B62</f>
-        <v>Alausa - Ikeja,</v>
-      </c>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="233"/>
-    </row>
-    <row r="13" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A13" s="233" t="str">
+        <v>0</v>
+      </c>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A13" s="232">
         <f>'PC 1'!B63</f>
-        <v>Lagos.</v>
-      </c>
-      <c r="B13" s="233"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="233"/>
-    </row>
-    <row r="14" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="233"/>
-      <c r="B14" s="233"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-    </row>
-    <row r="15" spans="1:4" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A15" s="234" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-    </row>
-    <row r="16" spans="1:4" s="28" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="235" t="str">
+        <v>0</v>
+      </c>
+      <c r="B13" s="232"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A14" s="232"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+    </row>
+    <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A15" s="235" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="235"/>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+    </row>
+    <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="237" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
-        <v>REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT SHASHA HOUSING ESTATE, SHASHA &amp; REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT IBESHE HOUSING ESTATE.</v>
-      </c>
-      <c r="B16" s="235"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-    </row>
-    <row r="17" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+        <v>0 &amp; 0.</v>
+      </c>
+      <c r="B16" s="237"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
+    </row>
+    <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="236" t="str">
+    <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="238" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
-        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. SAH/LASRERA/A.51/3B/145 dated 14th January, 2025, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
-      </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-    </row>
-    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="237"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
-    </row>
-    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
+      </c>
+      <c r="B18" s="238"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+    </row>
+    <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="239"/>
+      <c r="B19" s="239"/>
+      <c r="C19" s="239"/>
+      <c r="D19" s="239"/>
+    </row>
+    <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="52">
         <v>1</v>
       </c>
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="53">
         <f>'PC 1'!B22</f>
-        <v>Messrs. Kinghorse International Limited</v>
+        <v>0</v>
       </c>
       <c r="C21" s="57">
         <f>'PC 1'!B12</f>
-        <v>69898578.831512511</v>
+        <v>0</v>
       </c>
       <c r="D21" s="55" t="str">
         <f>'PC 1'!B1</f>
-        <v>Final Payment</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A22" s="52">
         <v>2</v>
       </c>
-      <c r="B22" s="53" t="str">
+      <c r="B22" s="53">
         <f>'PC 2'!B22</f>
-        <v>Messrs. FAB Investment Limited</v>
+        <v>0</v>
       </c>
       <c r="C22" s="57">
         <f>'PC 2'!B12</f>
-        <v>85431820.387512505</v>
+        <v>0</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>'PC 2'!B1</f>
-        <v>Final Payment</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="29"/>
       <c r="B23" s="7"/>
       <c r="C23" s="51"/>
     </row>
-    <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="238" t="s">
+    <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="240" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="240"/>
+      <c r="C24" s="240"/>
+      <c r="D24" s="240"/>
+    </row>
+    <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A25" s="232"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="232"/>
+    </row>
+    <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="232" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="232"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+    </row>
+    <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A28" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="238"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="238"/>
-    </row>
-    <row r="25" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A25" s="233"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-    </row>
-    <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="233" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="233"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-    </row>
-    <row r="28" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A28" s="232" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="232"/>
-      <c r="C28" s="232"/>
-      <c r="D28" s="232"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A29" s="232" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="232"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="232"/>
-    </row>
-    <row r="30" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="236" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+    </row>
+    <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -6121,17 +5808,29 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A31" s="27"/>
     </row>
-    <row r="32" spans="1:10" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A32" s="27"/>
     </row>
-    <row r="33" spans="1:1" s="28" customFormat="1" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6144,18 +5843,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -6173,808 +5860,808 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.9765625" customWidth="1"/>
-    <col min="2" max="2" width="171.24609375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25.2890625" customWidth="1"/>
-    <col min="4" max="4" width="25.15234375" customWidth="1"/>
-    <col min="5" max="5" width="11.56640625" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="171.21875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="str">
         <f>"Particulars of Contract: " &amp;DETAILS!B6</f>
-        <v>Particulars of Contract: Final Payment</v>
+        <v xml:space="preserve">Particulars of Contract: </v>
       </c>
       <c r="B1" s="34" t="str">
         <f>TRIM(SUBSTITUTE(A1,"Particulars of Contract: ",""))</f>
-        <v>Final Payment</v>
+        <v/>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="121" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="122">
         <f>DETAILS!B10</f>
-        <v>88073488.209999993</v>
+        <v>0</v>
       </c>
       <c r="C2" s="123"/>
       <c r="D2" s="123"/>
       <c r="E2" s="123"/>
     </row>
-    <row r="3" spans="1:9" s="128" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="128" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="125" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" s="126">
         <f>DETAILS!B11</f>
-        <v>205880977.44999999</v>
+        <v>0</v>
       </c>
       <c r="C3" s="127"/>
       <c r="D3" s="127"/>
       <c r="E3" s="127"/>
     </row>
-    <row r="4" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="129">
         <f>D4*B2</f>
-        <v>35229395.284000002</v>
+        <v>0</v>
       </c>
       <c r="C4" s="123"/>
       <c r="D4" s="130">
         <f>DETAILS!B12</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="123"/>
     </row>
-    <row r="5" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="121" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="122">
         <f>DETAILS!B13</f>
-        <v>102940488.73</v>
+        <v>0</v>
       </c>
       <c r="C5" s="123"/>
       <c r="D5" s="123"/>
       <c r="E5" s="123"/>
     </row>
-    <row r="6" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="121" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="129">
         <f>B5*D6</f>
-        <v>5147024.4365000008</v>
+        <v>0</v>
       </c>
       <c r="C6" s="123"/>
       <c r="D6" s="130">
         <f>DETAILS!B14</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E6" s="123"/>
       <c r="I6" s="131"/>
     </row>
-    <row r="7" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="121" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="129">
         <f>B5-B6</f>
-        <v>97793464.293500006</v>
+        <v>0</v>
       </c>
       <c r="C7" s="123"/>
       <c r="D7" s="123"/>
       <c r="E7" s="123"/>
     </row>
-    <row r="8" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="121" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="129">
         <f>7.5%*B7</f>
-        <v>7334509.8220124999</v>
+        <v>0</v>
       </c>
       <c r="C8" s="123"/>
       <c r="D8" s="123"/>
       <c r="E8" s="123"/>
     </row>
-    <row r="9" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="121" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="129">
         <f>B7+B8</f>
-        <v>105127974.11551251</v>
+        <v>0</v>
       </c>
       <c r="C9" s="123"/>
       <c r="D9" s="123"/>
       <c r="E9" s="123"/>
     </row>
-    <row r="10" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="121" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="129">
         <f>B4*D10</f>
-        <v>35229395.284000002</v>
+        <v>0</v>
       </c>
       <c r="C10" s="123"/>
       <c r="D10" s="130">
         <f>DETAILS!B16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="123"/>
     </row>
-    <row r="11" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="132" t="str">
+      <c r="B11" s="132">
         <f>DETAILS!B15</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="C11" s="123"/>
       <c r="D11" s="123"/>
       <c r="E11" s="123"/>
     </row>
-    <row r="12" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="133" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="134">
         <f>IF(B11="Nil", B9-B10-0,B9-B10-B11)</f>
-        <v>69898578.831512511</v>
+        <v>0</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="123"/>
       <c r="E12" s="123"/>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="22.5" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
-      <c r="B13" s="41" t="str">
+      <c r="B13" s="41">
         <f>DETAILS!C19</f>
-        <v>(Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo)</v>
+        <v>0</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="97" t="str">
         <f>"₦"&amp;TEXT(DETAILS!B18, "#,##0.00")</f>
-        <v>₦69,898,578.83</v>
+        <v>₦0.00</v>
       </c>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" s="43">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
-        <v>105127974.11551252</v>
+        <v>0</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B15" s="35"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="str">
         <f>"Certification of the sum of " &amp; D13 &amp; " " &amp; B13 &amp; " only, in favour of " &amp; B22 &amp; " is recommended, please."</f>
-        <v>Certification of the sum of ₦69,898,578.83 (Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only, in favour of Messrs. Kinghorse International Limited is recommended, please.</v>
+        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="str">
         <f>SUBSTITUTE(A16, "Certification of the ", "")</f>
-        <v>sum of ₦69,898,578.83 (Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only, in favour of Messrs. Kinghorse International Limited is recommended, please.</v>
+        <v>sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="16.149999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="str">
         <f>LEFT(SUBSTITUTE(A16,"Certification of the ",""),SEARCH("only",SUBSTITUTE(A16,"Certification of the ",""))+3)</f>
-        <v>sum of ₦69,898,578.83 (Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only</v>
+        <v>sum of ₦0.00 0 only</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="37"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="44">
         <f>DETAILS!B3</f>
-        <v>Special Committee On Rehabilitation of Public Schools</v>
+        <v>0</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="44">
         <f>DETAILS!B4</f>
-        <v>Engr. F.O Badejo</v>
+        <v>0</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="44" t="str">
+      <c r="B22" s="44">
         <f>DETAILS!B5</f>
-        <v>Messrs. Kinghorse International Limited</v>
+        <v>0</v>
       </c>
       <c r="C22" s="19" t="str">
         <f>UPPER(B22)</f>
-        <v>MESSRS. KINGHORSE INTERNATIONAL LIMITED</v>
+        <v>0</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="44" t="str">
+      <c r="B23" s="44">
         <f>DETAILS!B7</f>
-        <v>Rehabilitation of Water Supply and Wastewater Facilities at Shasha Housing Estate, Shasha</v>
+        <v>0</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="47" t="str">
         <f>UPPER(B23)</f>
-        <v>REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT SHASHA HOUSING ESTATE, SHASHA</v>
+        <v>0</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="44" t="str">
+        <v>128</v>
+      </c>
+      <c r="B25" s="44">
         <f>DETAILS!B25</f>
-        <v>To provide water supply and wastewater facilities at Shasha Housing Estate, Shasha</v>
+        <v>0</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="44">
         <f>DETAILS!B8</f>
-        <v>Egbeda LCDA / Alimosho LGA</v>
+        <v>0</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61" t="str">
+      <c r="B27" s="61">
         <f>DETAILS!B26</f>
-        <v>31st August, 2021</v>
+        <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="59" t="str">
+        <v>186</v>
+      </c>
+      <c r="D27" s="59">
         <f>DETAILS!B27</f>
-        <v>30th October, 2024</v>
+        <v>0</v>
       </c>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="46" t="str">
+      <c r="B28" s="46">
         <f>DETAILS!B28</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="44" t="str">
+      <c r="B29" s="44">
         <f>DETAILS!B29</f>
-        <v>Four (4) Months</v>
+        <v>0</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="44" t="str">
+        <v>127</v>
+      </c>
+      <c r="B30" s="44">
         <f>DETAILS!B29</f>
-        <v>Four (4) Months</v>
+        <v>0</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="44" t="str">
+      <c r="B31" s="44">
         <f>DETAILS!B30</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44" t="str">
+      <c r="B32" s="44">
         <f>DETAILS!B31</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="44" t="str">
+      <c r="B33" s="44">
         <f>DETAILS!B32</f>
-        <v>30th January, 2025</v>
+        <v>0</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="44" t="str">
+      <c r="B34" s="44">
         <f>DETAILS!B33</f>
-        <v>40%.</v>
+        <v>0</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="44" t="str">
+      <c r="B35" s="44">
         <f>DETAILS!B34</f>
-        <v>Ongoing</v>
+        <v>0</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="44" t="str">
+        <v>168</v>
+      </c>
+      <c r="B36" s="44">
         <f>DETAILS!B35</f>
-        <v>13th February, 2025</v>
+        <v>0</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="44" t="str">
+        <v>129</v>
+      </c>
+      <c r="B37" s="44">
         <f>DETAILS!B36</f>
-        <v>Bill of Quantities (BOQ).</v>
+        <v>0</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="48" t="str">
+        <v>135</v>
+      </c>
+      <c r="B38" s="48">
         <f>DETAILS!B24</f>
-        <v>construction of sedimentation tank, and the provision of pressure filter tank / treatment plant</v>
+        <v>0</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="49" t="str">
+        <v>136</v>
+      </c>
+      <c r="B39" s="49">
         <f>DETAILS!B56</f>
-        <v>Folios 1 - 13</v>
+        <v>0</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="44" t="str">
+        <v>139</v>
+      </c>
+      <c r="B40" s="44">
         <f>DETAILS!B40</f>
-        <v>folio 1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="44" t="str">
+        <v>142</v>
+      </c>
+      <c r="B41" s="44">
         <f>DETAILS!B41</f>
-        <v>folio 2 - 2d</v>
+        <v>0</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="44" t="str">
+        <v>140</v>
+      </c>
+      <c r="B42" s="44">
         <f>DETAILS!B42</f>
-        <v>folios 3 - 4</v>
+        <v>0</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="44" t="str">
+        <v>141</v>
+      </c>
+      <c r="B43" s="44">
         <f>DETAILS!B43</f>
-        <v>folio 5</v>
+        <v>0</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="44" t="str">
+        <v>143</v>
+      </c>
+      <c r="B44" s="44">
         <f>DETAILS!B44</f>
-        <v>folio 6 - 7</v>
+        <v>0</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" s="44" t="str">
+        <v>144</v>
+      </c>
+      <c r="B45" s="44">
         <f>DETAILS!B46</f>
-        <v>folio 8</v>
+        <v>0</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="44" t="str">
+        <v>179</v>
+      </c>
+      <c r="B46" s="44">
         <f>DETAILS!B47</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="44" t="str">
+        <v>180</v>
+      </c>
+      <c r="B47" s="44">
         <f>DETAILS!B48</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="44" t="str">
+        <v>145</v>
+      </c>
+      <c r="B48" s="44">
         <f>DETAILS!B49</f>
-        <v>folio 9</v>
+        <v>0</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="44" t="str">
+        <v>146</v>
+      </c>
+      <c r="B49" s="44">
         <f>DETAILS!B50</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="44" t="str">
+      <c r="B50" s="44">
         <f>DETAILS!B51</f>
-        <v>folios 10 - 10b</v>
+        <v>0</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="44" t="str">
+        <v>147</v>
+      </c>
+      <c r="B51" s="44">
         <f>DETAILS!B52</f>
-        <v>N/A</v>
+        <v>0</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="44" t="str">
+        <v>148</v>
+      </c>
+      <c r="B52" s="44">
         <f>DETAILS!B53</f>
-        <v>folios 11 - 11c</v>
+        <v>0</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="44" t="str">
+      <c r="B53" s="44">
         <f>DETAILS!B54</f>
-        <v>folio 12</v>
+        <v>0</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="44" t="str">
+        <v>149</v>
+      </c>
+      <c r="B54" s="44">
         <f>DETAILS!B55</f>
-        <v>folio 13</v>
+        <v>0</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="50" t="str">
+        <v>137</v>
+      </c>
+      <c r="B55" s="50">
         <f>DETAILS!B45</f>
-        <v>MEPB/MED/25/162/I/6</v>
+        <v>0</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="50" t="str">
+        <v>138</v>
+      </c>
+      <c r="B56" s="50">
         <f>DETAILS!B57</f>
-        <v>MEPB/MED/25/162/I/14</v>
+        <v>0</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="50">
+        <f>DETAILS!B58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="45">
+        <f>DETAILS!B62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="44">
+        <f>DETAILS!B63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B57" s="50" t="str">
-        <f>DETAILS!B58</f>
-        <v>MEPB/MED/25/162/I/15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
+      <c r="B60" s="44">
+        <f>DETAILS!B64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="45" t="str">
-        <f>DETAILS!B62</f>
-        <v>7th January, 2025</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="B61" s="44">
+        <f>DETAILS!B65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="44" t="str">
-        <f>DETAILS!B63</f>
-        <v xml:space="preserve">The Special Adviser, </v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="26" t="s">
+      <c r="B62" s="44">
+        <f>DETAILS!B66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="44" t="str">
-        <f>DETAILS!B64</f>
-        <v>Special Committee On Rehabilitation of Public Schools</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="B63" s="44">
+        <f>DETAILS!B67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B61" s="44" t="str">
-        <f>DETAILS!B65</f>
-        <v>Block 21, The Secretariat.</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
+      <c r="B64" s="44">
+        <f>DETAILS!B68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B62" s="44" t="str">
-        <f>DETAILS!B66</f>
-        <v>Alausa - Ikeja,</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="44" t="str">
-        <f>DETAILS!B67</f>
-        <v>Lagos.</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="44" t="str">
-        <f>DETAILS!B68</f>
-        <v>SAH/LASRERA/A.51/3B/145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="44" t="str">
+      <c r="B65" s="44">
         <f>DETAILS!B69</f>
-        <v>14th January, 2025</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" s="62"/>
       <c r="B67" s="63"/>
     </row>
-    <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B68" s="64" t="str">
         <f>DETAILS!B73</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B69" s="64" t="str">
         <f>DETAILS!B74</f>
         <v>PPO (MED)</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B70" s="64" t="str">
         <f>DETAILS!B75</f>
         <v xml:space="preserve">Adekunle-Famuyon, F.A </v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B71" s="64" t="str">
         <f>DETAILS!B76</f>
         <v>PPO (MED)</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:2" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="L3hn8FObHmQFIs6cEXrIBX4W0OzLi9ahphi7Lbrz1R/V9XeSWXt8U1IUKxabFsVDW/Xu+yrm3aLq4aKjQHcXVA==" saltValue="0rL8wSsEfXMnM/sjUQ417A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -6994,435 +6681,435 @@
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.05859375" customWidth="1"/>
-    <col min="2" max="2" width="142.0546875" customWidth="1"/>
-    <col min="4" max="4" width="21.92578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.62109375" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="2" max="2" width="142" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="4.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="str">
         <f>"Particulars of Contract: " &amp;DETAILS!E6</f>
-        <v>Particulars of Contract: Final Payment</v>
+        <v xml:space="preserve">Particulars of Contract: </v>
       </c>
       <c r="B1" s="24" t="str">
         <f>TRIM(SUBSTITUTE(A1,"Particulars of Contract: ",""))</f>
-        <v>Final Payment</v>
+        <v/>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="98" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="99">
         <f>DETAILS!E10</f>
-        <v>64559134.32</v>
+        <v>0</v>
       </c>
       <c r="C2" s="100"/>
       <c r="D2" s="100"/>
       <c r="E2" s="100"/>
     </row>
-    <row r="3" spans="1:9" s="105" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="105" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="102" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" s="103">
         <f>DETAILS!E11</f>
-        <v>208395819.68000001</v>
+        <v>0</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
     </row>
-    <row r="4" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="106">
         <f>D4*B2</f>
-        <v>25823653.728</v>
+        <v>0</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="107">
         <f>DETAILS!E12</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="100"/>
     </row>
-    <row r="5" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="98" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="99">
         <f>DETAILS!E13</f>
-        <v>108940488.73</v>
+        <v>0</v>
       </c>
       <c r="C5" s="100"/>
       <c r="D5" s="100"/>
       <c r="E5" s="100"/>
     </row>
-    <row r="6" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="98" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="106">
         <f>B5*D6</f>
-        <v>5447024.4365000008</v>
+        <v>0</v>
       </c>
       <c r="C6" s="100"/>
       <c r="D6" s="107">
         <f>DETAILS!E14</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E6" s="100"/>
       <c r="I6" s="108"/>
     </row>
-    <row r="7" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="106">
         <f>B5-B6</f>
-        <v>103493464.29350001</v>
+        <v>0</v>
       </c>
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
     </row>
-    <row r="8" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="98" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="106">
         <f>7.5%*B7</f>
-        <v>7762009.8220124999</v>
+        <v>0</v>
       </c>
       <c r="C8" s="100"/>
       <c r="D8" s="100"/>
       <c r="E8" s="100"/>
     </row>
-    <row r="9" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="98" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="106">
         <f>B7+B8</f>
-        <v>111255474.11551251</v>
+        <v>0</v>
       </c>
       <c r="C9" s="100"/>
       <c r="D9" s="100"/>
       <c r="E9" s="100"/>
     </row>
-    <row r="10" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="98" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="106">
         <f>B4*D10</f>
-        <v>25823653.728</v>
+        <v>0</v>
       </c>
       <c r="C10" s="100"/>
       <c r="D10" s="107">
         <f>DETAILS!E16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="100"/>
     </row>
-    <row r="11" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="109" t="str">
+      <c r="B11" s="109">
         <f>DETAILS!E15</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
       <c r="E11" s="100"/>
     </row>
-    <row r="12" spans="1:9" s="101" customFormat="1" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="110" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="111">
         <f>IF(B11="Nil", B9-B10-0,B9-B10-B11)</f>
-        <v>85431820.387512505</v>
+        <v>0</v>
       </c>
       <c r="C12" s="100"/>
       <c r="D12" s="100"/>
       <c r="E12" s="100"/>
     </row>
-    <row r="13" spans="1:9" s="101" customFormat="1" ht="46.9" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="101" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A13" s="98"/>
       <c r="B13" s="112" t="str">
         <f>DETAILS!F19</f>
-        <v>(Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo)</v>
+        <v>()</v>
       </c>
       <c r="C13" s="113"/>
       <c r="D13" s="114" t="str">
         <f>"₦"&amp;TEXT(DETAILS!E18, "#,##0.00")</f>
-        <v>₦85,431,820.39</v>
+        <v>₦0.00</v>
       </c>
       <c r="E13" s="100"/>
     </row>
-    <row r="14" spans="1:9" s="101" customFormat="1" ht="46.9" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="101" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" s="98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" s="115">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
-        <v>111255474.11551251</v>
+        <v>0</v>
       </c>
       <c r="C14" s="113"/>
       <c r="D14" s="113"/>
       <c r="E14" s="100"/>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B15" s="35"/>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="str">
         <f>"Certification of the sum of " &amp; D13 &amp; " " &amp; B13 &amp; " only, in favour of " &amp; B22 &amp; " is recommended, please."</f>
-        <v>Certification of the sum of ₦85,431,820.39 (Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only, in favour of Messrs. FAB Investment Limited is recommended, please.</v>
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="str">
         <f>SUBSTITUTE(A16, "Certification of the ", "")</f>
-        <v>sum of ₦85,431,820.39 (Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only, in favour of Messrs. FAB Investment Limited is recommended, please.</v>
+        <v>sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="16.149999999999999" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="str">
         <f>LEFT(SUBSTITUTE(A16,"Certification of the ",""),SEARCH("only",SUBSTITUTE(A16,"Certification of the ",""))+3)</f>
-        <v>sum of ₦85,431,820.39 (Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only</v>
+        <v>sum of ₦0.00 () only</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="44">
         <f>DETAILS!E3</f>
-        <v>Lagos State Real Estate Regulatory Authority</v>
+        <v>0</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="44">
         <f>DETAILS!E4</f>
-        <v>Engr. Osisami A. Bankole</v>
+        <v>0</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="44" t="str">
+      <c r="B22" s="44">
         <f>DETAILS!E5</f>
-        <v>Messrs. FAB Investment Limited</v>
+        <v>0</v>
       </c>
       <c r="C22" s="19" t="str">
         <f>UPPER(B22)</f>
-        <v>MESSRS. FAB INVESTMENT LIMITED</v>
+        <v>0</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="44" t="str">
+      <c r="B23" s="44">
         <f>DETAILS!E7</f>
-        <v>Rehabilitation of Water Supply and Wastewater Facilities at Ibeshe Housing Estate</v>
+        <v>0</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
       <c r="B24" s="47" t="str">
         <f>UPPER(B23)</f>
-        <v>REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT IBESHE HOUSING ESTATE</v>
+        <v>0</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="44" t="str">
+        <v>128</v>
+      </c>
+      <c r="B25" s="44">
         <f>DETAILS!E25</f>
-        <v>To provide water supply and wastewater facilities at Shasha Housing Estate, Shasha</v>
+        <v>0</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="44">
         <f>DETAILS!E8</f>
-        <v>Ikorodu LGA</v>
+        <v>0</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61" t="str">
+      <c r="B27" s="61">
         <f>DETAILS!E26</f>
-        <v>31st August, 2021</v>
+        <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="59" t="str">
+        <v>186</v>
+      </c>
+      <c r="D27" s="59">
         <f>DETAILS!E27</f>
-        <v>30th October, 2024</v>
+        <v>0</v>
       </c>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="46" t="str">
+      <c r="B28" s="46">
         <f>DETAILS!E28</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="44" t="str">
+      <c r="B29" s="44">
         <f>DETAILS!E29</f>
-        <v>Four (4) Months</v>
+        <v>0</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="44" t="str">
+        <v>127</v>
+      </c>
+      <c r="B30" s="44">
         <f>DETAILS!E29</f>
-        <v>Four (4) Months</v>
+        <v>0</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="44" t="str">
+      <c r="B31" s="44">
         <f>DETAILS!E30</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44" t="str">
+      <c r="B32" s="44">
         <f>DETAILS!E31</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="44" t="str">
+      <c r="B33" s="44">
         <f>DETAILS!E32</f>
-        <v>30th January, 2025</v>
+        <v>0</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="44" t="str">
+      <c r="B34" s="44">
         <f>DETAILS!E33</f>
-        <v>40%.</v>
+        <v>0</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="44" t="str">
+      <c r="B35" s="44">
         <f>DETAILS!E34</f>
-        <v>Ongoing</v>
+        <v>0</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B36" s="116">
         <f>DETAILS!E35</f>
@@ -7432,9 +7119,9 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="116">
         <f>DETAILS!E36</f>
@@ -7444,21 +7131,21 @@
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="117" t="str">
+        <v>135</v>
+      </c>
+      <c r="B38" s="117">
         <f>DETAILS!E24</f>
-        <v>construction of sedimentation tank, and the provision of pressure filter tank / treatment plant.</v>
+        <v>0</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B39" s="118">
         <f>DETAILS!E56</f>
@@ -7468,9 +7155,9 @@
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" s="116">
         <f>DETAILS!E40</f>
@@ -7480,9 +7167,9 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="116">
         <f>DETAILS!E41</f>
@@ -7492,9 +7179,9 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B42" s="116">
         <f>DETAILS!E42</f>
@@ -7504,9 +7191,9 @@
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" s="116">
         <f>DETAILS!E43</f>
@@ -7516,9 +7203,9 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44" s="116">
         <f>DETAILS!E44</f>
@@ -7528,9 +7215,9 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" s="116">
         <f>DETAILS!E46</f>
@@ -7540,9 +7227,9 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B46" s="116">
         <f>DETAILS!E47</f>
@@ -7552,9 +7239,9 @@
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B47" s="116">
         <f>DETAILS!E48</f>
@@ -7564,9 +7251,9 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48" s="116">
         <f>DETAILS!E49</f>
@@ -7576,9 +7263,9 @@
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B49" s="116">
         <f>DETAILS!E50</f>
@@ -7588,7 +7275,7 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
@@ -7600,9 +7287,9 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="116">
         <f>DETAILS!E52</f>
@@ -7612,9 +7299,9 @@
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52" s="116">
         <f>DETAILS!E53</f>
@@ -7624,7 +7311,7 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>74</v>
       </c>
@@ -7636,9 +7323,9 @@
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B54" s="116">
         <f>DETAILS!E55</f>
@@ -7648,21 +7335,21 @@
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="119" t="str">
+        <v>137</v>
+      </c>
+      <c r="B55" s="119">
         <f>DETAILS!E45</f>
-        <v>MEPB/MED/25/162/I/7</v>
+        <v>0</v>
       </c>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="18.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B56" s="119">
         <f>DETAILS!E57</f>
@@ -7672,131 +7359,131 @@
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B57" s="119">
         <f>DETAILS!E58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B58" s="120">
         <f>DETAILS!E62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B59" s="116">
         <f>DETAILS!E63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B60" s="116">
         <f>DETAILS!E64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B61" s="116">
         <f>DETAILS!E65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B62" s="116">
         <f>DETAILS!E66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B63" s="116">
         <f>DETAILS!E67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="116" t="str">
+        <v>164</v>
+      </c>
+      <c r="B64" s="116">
         <f>DETAILS!E68</f>
-        <v>SAH/LASRERA/A.51/3B/145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="116" t="str">
+        <v>165</v>
+      </c>
+      <c r="B65" s="116">
         <f>DETAILS!E69</f>
-        <v>14th January, 2025</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B66" s="38"/>
     </row>
-    <row r="67" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A67" s="62"/>
       <c r="B67" s="63"/>
     </row>
-    <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B68" s="152">
         <f>DETAILS!E73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="65" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B69" s="152">
         <f>DETAILS!E74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B70" s="152">
         <f>DETAILS!E75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="65" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B71" s="152">
         <f>DETAILS!E76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B72" s="38"/>
     </row>
   </sheetData>
@@ -7818,298 +7505,298 @@
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.37890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="6" customWidth="1"/>
     <col min="3" max="3" width="23" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.828125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.97265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.33984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.703125" style="6" customWidth="1"/>
-    <col min="8" max="9" width="7.26171875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="6"/>
+    <col min="4" max="4" width="25.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="7.21875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="str">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="184">
         <f>'PC 1'!B55</f>
-        <v>MEPB/MED/25/162/I/6</v>
-      </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
-        <v>Particulars of Contract: Final Payment</v>
-      </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Particulars of Contract: </v>
+      </c>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="178" t="str">
+      <c r="C8" s="188">
         <f>'PC 1'!B20</f>
-        <v>Special Committee On Rehabilitation of Public Schools</v>
-      </c>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="175" t="str">
+      <c r="C9" s="189">
         <f>'PC 1'!B21</f>
-        <v>Engr. F.O Badejo</v>
-      </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="175" t="str">
+      <c r="C10" s="189">
         <f>'PC 1'!B22</f>
-        <v>Messrs. Kinghorse International Limited</v>
-      </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="180" t="str">
+      <c r="C11" s="196">
         <f>'PC 1'!B23</f>
-        <v>Rehabilitation of Water Supply and Wastewater Facilities at Shasha Housing Estate, Shasha</v>
-      </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="175" t="str">
+      <c r="C12" s="189">
         <f>'PC 1'!B26</f>
-        <v>Egbeda LCDA / Alimosho LGA</v>
-      </c>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="175" t="str">
+      <c r="C13" s="189">
         <f>'PC 1'!B27</f>
-        <v>31st August, 2021</v>
-      </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="175" t="str">
+        <v>192</v>
+      </c>
+      <c r="C14" s="189">
         <f>'PC 1'!D27</f>
-        <v>30th October, 2024</v>
-      </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="175" t="str">
+      <c r="C15" s="189">
         <f>'PC 1'!B29</f>
-        <v>Four (4) Months</v>
-      </c>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="175" t="str">
+      <c r="C16" s="189">
         <f>'PC 1'!B31</f>
-        <v>Nil</v>
-      </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="175" t="str">
+      <c r="C17" s="189">
         <f>'PC 1'!B32</f>
-        <v>Nil</v>
-      </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="175" t="str">
+      <c r="C18" s="189">
         <f>'PC 1'!B33</f>
-        <v>30th January, 2025</v>
-      </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
@@ -8118,7 +7805,7 @@
       </c>
       <c r="C19" s="174">
         <f>'PC 1'!B2</f>
-        <v>88073488.209999993</v>
+        <v>0</v>
       </c>
       <c r="D19" s="174"/>
       <c r="E19" s="174"/>
@@ -8127,16 +7814,16 @@
       <c r="H19" s="174"/>
       <c r="I19" s="174"/>
     </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" s="174">
         <f>'PC 1'!B3</f>
-        <v>205880977.44999999</v>
+        <v>0</v>
       </c>
       <c r="D20" s="174"/>
       <c r="E20" s="174"/>
@@ -8145,7 +7832,7 @@
       <c r="H20" s="174"/>
       <c r="I20" s="174"/>
     </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -8154,7 +7841,7 @@
       </c>
       <c r="C21" s="174">
         <f>'PC 1'!B4</f>
-        <v>35229395.284000002</v>
+        <v>0</v>
       </c>
       <c r="D21" s="174"/>
       <c r="E21" s="174"/>
@@ -8163,7 +7850,7 @@
       <c r="H21" s="174"/>
       <c r="I21" s="174"/>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
@@ -8172,7 +7859,7 @@
       </c>
       <c r="C22" s="174">
         <f>'PC 1'!B10</f>
-        <v>35229395.284000002</v>
+        <v>0</v>
       </c>
       <c r="D22" s="174"/>
       <c r="E22" s="174"/>
@@ -8181,7 +7868,7 @@
       <c r="H22" s="174"/>
       <c r="I22" s="174"/>
     </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
@@ -8190,7 +7877,7 @@
       </c>
       <c r="C23" s="174">
         <f>'PC 1'!B5</f>
-        <v>102940488.73</v>
+        <v>0</v>
       </c>
       <c r="D23" s="174"/>
       <c r="E23" s="174"/>
@@ -8199,52 +7886,52 @@
       <c r="H23" s="174"/>
       <c r="I23" s="174"/>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="189" t="str">
+      <c r="C24" s="187">
         <f>'PC 1'!B34</f>
-        <v>40%.</v>
-      </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="175" t="str">
+      <c r="C25" s="189">
         <f>'PC 1'!B35</f>
-        <v>Ongoing</v>
-      </c>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+    </row>
+    <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="174" t="str">
+      <c r="C26" s="174">
         <f>'PC 1'!B11</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="D26" s="174"/>
       <c r="E26" s="174"/>
@@ -8253,7 +7940,7 @@
       <c r="H26" s="174"/>
       <c r="I26" s="174"/>
     </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
@@ -8262,7 +7949,7 @@
       </c>
       <c r="C27" s="174">
         <f>'PC 1'!B6</f>
-        <v>5147024.4365000008</v>
+        <v>0</v>
       </c>
       <c r="D27" s="174"/>
       <c r="E27" s="174"/>
@@ -8271,16 +7958,16 @@
       <c r="H27" s="174"/>
       <c r="I27" s="174"/>
     </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="174">
         <f>'PC 1'!B12</f>
-        <v>69898578.831512511</v>
+        <v>0</v>
       </c>
       <c r="D28" s="174"/>
       <c r="E28" s="174"/>
@@ -8289,48 +7976,48 @@
       <c r="H28" s="174"/>
       <c r="I28" s="174"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="185" t="s">
         <v>43</v>
       </c>
@@ -8343,67 +8030,67 @@
       <c r="H32" s="185"/>
       <c r="I32" s="185"/>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-    </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-    </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+    </row>
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-    </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-    </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="185" t="s">
         <v>92</v>
       </c>
@@ -8416,216 +8103,256 @@
       <c r="H37" s="185"/>
       <c r="I37" s="185"/>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="182" t="str">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="191" t="str">
         <f>'PC 1'!A16</f>
-        <v>Certification of the sum of ₦69,898,578.83 (Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only, in favour of Messrs. Kinghorse International Limited is recommended, please.</v>
-      </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-    </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="182"/>
-      <c r="I39" s="182"/>
-    </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="182"/>
-    </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="186"/>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-    </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="186"/>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-    </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="187" t="s">
+        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+      </c>
+      <c r="B38" s="191"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="191"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="191"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="194"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="194"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="194"/>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="184" t="s">
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="184"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-    </row>
-    <row r="44" spans="1:10" s="9" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183" t="s">
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="181" t="str">
+      <c r="B44" s="192"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="190" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="181"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="181"/>
-      <c r="I44" s="181"/>
-    </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="183" t="s">
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="181" t="str">
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="190" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-    </row>
-    <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="192"/>
-      <c r="B46" s="192"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="195" t="str">
+      <c r="E45" s="190"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="190"/>
+      <c r="I45" s="190"/>
+    </row>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="177"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="182">
         <f>'PC 1'!B36</f>
-        <v>13th February, 2025</v>
-      </c>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="182"/>
+      <c r="I46" s="182"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="193" t="s">
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="178" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="193"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="193"/>
-      <c r="F47" s="193"/>
-      <c r="G47" s="193"/>
-      <c r="H47" s="193"/>
-    </row>
-    <row r="48" spans="1:10" s="9" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="193"/>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="193"/>
-      <c r="G48" s="193"/>
-      <c r="H48" s="193"/>
-    </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="193"/>
-      <c r="B49" s="193"/>
-      <c r="C49" s="193"/>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="187" t="s">
+      <c r="B47" s="178"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+    </row>
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="178"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="178"/>
+      <c r="B49" s="178"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="178"/>
+    </row>
+    <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="188"/>
-      <c r="C50" s="194" t="s">
+      <c r="B50" s="180"/>
+      <c r="C50" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="193"/>
-      <c r="E50" s="196" t="s">
+      <c r="D50" s="178"/>
+      <c r="E50" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="196"/>
-    </row>
-    <row r="51" spans="1:9" s="10" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="190" t="s">
+      <c r="F50" s="183"/>
+      <c r="G50" s="183"/>
+      <c r="H50" s="183"/>
+      <c r="I50" s="183"/>
+    </row>
+    <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="190"/>
-      <c r="C51" s="191" t="s">
+      <c r="B51" s="175"/>
+      <c r="C51" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="191"/>
-      <c r="E51" s="176" t="s">
+      <c r="D51" s="176"/>
+      <c r="E51" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-    </row>
-    <row r="52" spans="1:9" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="190" t="s">
+      <c r="F51" s="184"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="184"/>
+      <c r="I51" s="184"/>
+    </row>
+    <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="190"/>
-      <c r="C52" s="191" t="s">
+      <c r="B52" s="175"/>
+      <c r="C52" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="176" t="s">
+      <c r="D52" s="176"/>
+      <c r="E52" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-    </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:9" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="184"/>
+      <c r="I52" s="184"/>
+    </row>
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T45iWvNsr1hGkYSAl60cPBBGEmTqPHx7n0KlTBgAQMIMqWHejcg1l6z16ijGNlfOp0B0e97qSW8giO8aPp12sA==" saltValue="ZO+Z89g6yR6WPkMr+p99cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -8642,46 +8369,6 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8702,298 +8389,298 @@
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.37890625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.77734375" style="6" customWidth="1"/>
     <col min="3" max="3" width="23" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.828125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.97265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.33984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.703125" style="6" customWidth="1"/>
-    <col min="8" max="9" width="7.26171875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="6"/>
+    <col min="4" max="4" width="25.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="7.21875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="str">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="184">
         <f>'PC 2'!B55</f>
-        <v>MEPB/MED/25/162/I/7</v>
-      </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-    </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="177" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="195" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-    </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="177"/>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="179"/>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="195"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
-        <v>Particulars of Contract: Final Payment</v>
-      </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">Particulars of Contract: </v>
+      </c>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="178" t="str">
+      <c r="C8" s="188">
         <f>'PC 2'!B20</f>
-        <v>Lagos State Real Estate Regulatory Authority</v>
-      </c>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="188"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="188"/>
+    </row>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="175" t="str">
+      <c r="C9" s="189">
         <f>'PC 2'!B21</f>
-        <v>Engr. Osisami A. Bankole</v>
-      </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+    </row>
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="175" t="str">
+      <c r="C10" s="189">
         <f>'PC 2'!B22</f>
-        <v>Messrs. FAB Investment Limited</v>
-      </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+    </row>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="180" t="str">
+      <c r="C11" s="196">
         <f>'PC 2'!B23</f>
-        <v>Rehabilitation of Water Supply and Wastewater Facilities at Ibeshe Housing Estate</v>
-      </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+    </row>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="175" t="str">
+      <c r="C12" s="189">
         <f>'PC 2'!B26</f>
-        <v>Ikorodu LGA</v>
-      </c>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="175" t="str">
+      <c r="C13" s="189">
         <f>'PC 2'!B27</f>
-        <v>31st August, 2021</v>
-      </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="175" t="str">
+      <c r="C14" s="189">
         <f>'PC 2'!D27</f>
-        <v>30th October, 2024</v>
-      </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+    </row>
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="175" t="str">
+      <c r="C15" s="189">
         <f>'PC 2'!B29</f>
-        <v>Four (4) Months</v>
-      </c>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="175" t="str">
+      <c r="C16" s="189">
         <f>'PC 2'!B31</f>
-        <v>Nil</v>
-      </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="175" t="str">
+      <c r="C17" s="189">
         <f>'PC 2'!B32</f>
-        <v>Nil</v>
-      </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="175" t="str">
+      <c r="C18" s="189">
         <f>'PC 2'!B33</f>
-        <v>30th January, 2025</v>
-      </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>24</v>
       </c>
@@ -9002,7 +8689,7 @@
       </c>
       <c r="C19" s="174">
         <f>'PC 2'!B2</f>
-        <v>64559134.32</v>
+        <v>0</v>
       </c>
       <c r="D19" s="174"/>
       <c r="E19" s="174"/>
@@ -9011,16 +8698,16 @@
       <c r="H19" s="174"/>
       <c r="I19" s="174"/>
     </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C20" s="174">
         <f>'PC 2'!B3</f>
-        <v>208395819.68000001</v>
+        <v>0</v>
       </c>
       <c r="D20" s="174"/>
       <c r="E20" s="174"/>
@@ -9029,7 +8716,7 @@
       <c r="H20" s="174"/>
       <c r="I20" s="174"/>
     </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -9038,7 +8725,7 @@
       </c>
       <c r="C21" s="174">
         <f>'PC 2'!B4</f>
-        <v>25823653.728</v>
+        <v>0</v>
       </c>
       <c r="D21" s="174"/>
       <c r="E21" s="174"/>
@@ -9047,7 +8734,7 @@
       <c r="H21" s="174"/>
       <c r="I21" s="174"/>
     </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>30</v>
       </c>
@@ -9056,7 +8743,7 @@
       </c>
       <c r="C22" s="174">
         <f>'PC 2'!B10</f>
-        <v>25823653.728</v>
+        <v>0</v>
       </c>
       <c r="D22" s="174"/>
       <c r="E22" s="174"/>
@@ -9065,7 +8752,7 @@
       <c r="H22" s="174"/>
       <c r="I22" s="174"/>
     </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
@@ -9074,7 +8761,7 @@
       </c>
       <c r="C23" s="174">
         <f>'PC 2'!B5</f>
-        <v>108940488.73</v>
+        <v>0</v>
       </c>
       <c r="D23" s="174"/>
       <c r="E23" s="174"/>
@@ -9083,52 +8770,52 @@
       <c r="H23" s="174"/>
       <c r="I23" s="174"/>
     </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="189" t="str">
+      <c r="C24" s="187">
         <f>'PC 2'!B34</f>
-        <v>40%.</v>
-      </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="188"/>
+      <c r="E24" s="188"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="188"/>
+    </row>
+    <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="175" t="str">
+      <c r="C25" s="189">
         <f>'PC 2'!B35</f>
-        <v>Ongoing</v>
-      </c>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+    </row>
+    <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="174" t="str">
+      <c r="C26" s="174">
         <f>'PC 2'!B11</f>
-        <v>Nil</v>
+        <v>0</v>
       </c>
       <c r="D26" s="174"/>
       <c r="E26" s="174"/>
@@ -9137,7 +8824,7 @@
       <c r="H26" s="174"/>
       <c r="I26" s="174"/>
     </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
@@ -9146,7 +8833,7 @@
       </c>
       <c r="C27" s="174">
         <f>'PC 2'!B6</f>
-        <v>5447024.4365000008</v>
+        <v>0</v>
       </c>
       <c r="D27" s="174"/>
       <c r="E27" s="174"/>
@@ -9155,16 +8842,16 @@
       <c r="H27" s="174"/>
       <c r="I27" s="174"/>
     </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="174">
         <f>'PC 2'!B12</f>
-        <v>85431820.387512505</v>
+        <v>0</v>
       </c>
       <c r="D28" s="174"/>
       <c r="E28" s="174"/>
@@ -9173,48 +8860,48 @@
       <c r="H28" s="174"/>
       <c r="I28" s="174"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="B31" s="179"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+    </row>
+    <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="185" t="s">
         <v>43</v>
       </c>
@@ -9227,67 +8914,67 @@
       <c r="H32" s="185"/>
       <c r="I32" s="185"/>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="179"/>
-      <c r="I33" s="179"/>
-    </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-    </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+    </row>
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-    </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-    </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="186"/>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="185" t="s">
         <v>92</v>
       </c>
@@ -9300,244 +8987,204 @@
       <c r="H37" s="185"/>
       <c r="I37" s="185"/>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="182" t="str">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="191" t="str">
         <f>'PC 2'!A16</f>
-        <v>Certification of the sum of ₦85,431,820.39 (Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only, in favour of Messrs. FAB Investment Limited is recommended, please.</v>
-      </c>
-      <c r="B38" s="182"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="182"/>
-      <c r="I38" s="182"/>
-    </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="182"/>
-      <c r="B39" s="182"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="182"/>
-      <c r="I39" s="182"/>
-    </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="182"/>
-      <c r="I40" s="182"/>
-    </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="186"/>
-      <c r="B41" s="186"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-    </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="186"/>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-    </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="187" t="s">
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
+      </c>
+      <c r="B38" s="191"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A39" s="191"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A40" s="191"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="194"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="194"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="194"/>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="184" t="s">
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="184"/>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-    </row>
-    <row r="44" spans="1:10" s="9" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183" t="s">
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="181" t="str">
+      <c r="B44" s="192"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="190" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="181"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="181"/>
-      <c r="H44" s="181"/>
-      <c r="I44" s="181"/>
-    </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="183" t="s">
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+    </row>
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="181" t="str">
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="190" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-    </row>
-    <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="192"/>
-      <c r="B46" s="192"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="195" t="str">
+      <c r="E45" s="190"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="190"/>
+      <c r="I45" s="190"/>
+    </row>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="177"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="182">
         <f>'PC 1'!B36</f>
-        <v>13th February, 2025</v>
-      </c>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="182"/>
+      <c r="F46" s="182"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="182"/>
+      <c r="I46" s="182"/>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" s="9" customFormat="1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="193"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="193"/>
-      <c r="D47" s="193"/>
-      <c r="E47" s="193"/>
-      <c r="F47" s="193"/>
-      <c r="G47" s="193"/>
-      <c r="H47" s="193"/>
-    </row>
-    <row r="48" spans="1:10" s="9" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="193"/>
-      <c r="B48" s="193"/>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="193"/>
-      <c r="G48" s="193"/>
-      <c r="H48" s="193"/>
-    </row>
-    <row r="49" spans="1:9" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="187" t="s">
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="178"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="178"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+    </row>
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="178"/>
+      <c r="B48" s="178"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="188"/>
-      <c r="C49" s="194" t="s">
+      <c r="B49" s="180"/>
+      <c r="C49" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="193"/>
-      <c r="E49" s="196" t="s">
+      <c r="D49" s="178"/>
+      <c r="E49" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-    </row>
-    <row r="50" spans="1:9" s="10" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="190" t="s">
+      <c r="F49" s="183"/>
+      <c r="G49" s="183"/>
+      <c r="H49" s="183"/>
+      <c r="I49" s="183"/>
+    </row>
+    <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="190"/>
-      <c r="C50" s="191" t="s">
+      <c r="B50" s="175"/>
+      <c r="C50" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="191"/>
-      <c r="E50" s="176" t="s">
+      <c r="D50" s="176"/>
+      <c r="E50" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-    </row>
-    <row r="51" spans="1:9" s="10" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="190" t="s">
+      <c r="F50" s="184"/>
+      <c r="G50" s="184"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="184"/>
+    </row>
+    <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="175" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="190"/>
-      <c r="C51" s="191" t="s">
+      <c r="B51" s="175"/>
+      <c r="C51" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="191"/>
-      <c r="E51" s="176" t="s">
+      <c r="D51" s="176"/>
+      <c r="E51" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-    </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:9" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="184"/>
+      <c r="I51" s="184"/>
+    </row>
+    <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wSi01L1jKFu+/KQxITGp8tiq0szckHTaxzJLu072ahrMN6+Ye2bpNLJt+by28nnvUGN3JJff6DAJRDUOkK4L2A==" saltValue="nV0vD9TDN1ZfxYMKAhZBXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -9554,6 +9201,46 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9573,421 +9260,421 @@
       <selection activeCell="A5" sqref="A5:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="39" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="39" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="101.96875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="11.703125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="39"/>
-    <col min="4" max="4" width="98.19921875" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.8359375" style="39" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="52.59765625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="77.34765625" style="39" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="39"/>
+    <col min="1" max="1" width="102" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="39"/>
+    <col min="4" max="4" width="98.21875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="52.5546875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="77.33203125" style="39" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="136" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="200" t="s">
+    <row r="1" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-    </row>
-    <row r="2" spans="1:8" s="136" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="200" t="s">
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+    </row>
+    <row r="2" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-    </row>
-    <row r="3" spans="1:8" s="136" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="200" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+    </row>
+    <row r="3" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-    </row>
-    <row r="4" spans="1:8" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="210"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="210"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-    </row>
-    <row r="5" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+    </row>
+    <row r="4" spans="1:8" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+    </row>
+    <row r="5" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="138" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="211" t="str">
+        <v>173</v>
+      </c>
+      <c r="B5" s="225">
         <f>'PC 1'!B23</f>
-        <v>Rehabilitation of Water Supply and Wastewater Facilities at Shasha Housing Estate, Shasha</v>
-      </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
+        <v>0</v>
+      </c>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
       <c r="G5" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="170" t="str">
+      <c r="H5" s="170">
         <f>'PC 1'!B36</f>
-        <v>13th February, 2025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="211" t="str">
+        <v>175</v>
+      </c>
+      <c r="B6" s="225">
         <f>'PC 2'!B23</f>
-        <v>Rehabilitation of Water Supply and Wastewater Facilities at Ibeshe Housing Estate</v>
-      </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
       <c r="G6" s="138"/>
       <c r="H6" s="170"/>
     </row>
-    <row r="7" spans="1:8" s="137" customFormat="1" ht="84.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" s="137" customFormat="1" ht="97.2" x14ac:dyDescent="0.85">
       <c r="A7" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="211" t="str">
+        <v>174</v>
+      </c>
+      <c r="B7" s="225">
         <f>'PC 1'!B20</f>
-        <v>Special Committee On Rehabilitation of Public Schools</v>
-      </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
       <c r="G7" s="139" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7" s="140" t="str">
         <f>'PC 1'!B27 &amp; "/" &amp; 'PC 2'!B27</f>
-        <v>31st August, 2021/31st August, 2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="137" customFormat="1" ht="93" x14ac:dyDescent="0.55000000000000004">
+        <v>0/0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="137" customFormat="1" ht="97.2" x14ac:dyDescent="0.85">
       <c r="A8" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="201" t="str">
+      <c r="B8" s="226" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
-        <v>- /-</v>
-      </c>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="201"/>
+        <v>0 /0</v>
+      </c>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
       <c r="G8" s="139" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="H8" s="140" t="str">
         <f>'PC 1'!B30 &amp; "/" &amp; 'PC 2'!B30</f>
-        <v>Four (4) Months/Four (4) Months</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="137" customFormat="1" ht="84.75" x14ac:dyDescent="0.55000000000000004">
+        <v>0/0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A9" s="138" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="202" t="str">
+        <v>221</v>
+      </c>
+      <c r="B9" s="227" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
-        <v>Messrs. Kinghorse International Limited/Messrs. FAB Investment Limited</v>
-      </c>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
+        <v>0/0</v>
+      </c>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
       <c r="G9" s="139" t="s">
         <v>113</v>
       </c>
       <c r="H9" s="171" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="137" customFormat="1" ht="84.75" x14ac:dyDescent="0.55000000000000004">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="137" customFormat="1" ht="97.2" x14ac:dyDescent="0.85">
       <c r="A10" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="201" t="str">
+      <c r="B10" s="226">
         <f>'PC 1'!B21</f>
-        <v>Engr. F.O Badejo</v>
-      </c>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
+        <v>0</v>
+      </c>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
       <c r="G10" s="139" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H10" s="140" t="str">
         <f>'PC 1'!B1 &amp; "/" &amp; 'PC 2'!B1</f>
-        <v>Final Payment/Final Payment</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="137" customFormat="1" ht="47.25" x14ac:dyDescent="0.55000000000000004">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="137" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
       <c r="A11" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="226" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
       <c r="G11" s="172"/>
       <c r="H11" s="172"/>
     </row>
-    <row r="12" spans="1:8" s="137" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="200"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-    </row>
-    <row r="13" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="203" t="s">
+    <row r="12" spans="1:8" s="137" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A12" s="223"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+    </row>
+    <row r="13" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A13" s="228" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="229"/>
       <c r="E13" s="135" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="135" t="s">
-        <v>153</v>
-      </c>
-      <c r="G13" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="207"/>
-    </row>
-    <row r="14" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="197" t="s">
+      <c r="H13" s="198"/>
+    </row>
+    <row r="14" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A14" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="199"/>
+      <c r="B14" s="215"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="216"/>
       <c r="E14" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="142"/>
       <c r="G14" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B48</f>
-        <v>See folio 9</v>
+        <v>See 0</v>
       </c>
       <c r="H14" s="209"/>
     </row>
-    <row r="15" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="197" t="s">
+    <row r="15" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A15" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="216"/>
       <c r="E15" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="142"/>
       <c r="G15" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B42</f>
-        <v>See folios 3 - 4</v>
+        <v>See 0</v>
       </c>
       <c r="H15" s="209"/>
     </row>
-    <row r="16" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="197" t="s">
+    <row r="16" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A16" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="199"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="216"/>
       <c r="E16" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="142"/>
       <c r="G16" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B43</f>
-        <v>See folio 5</v>
+        <v>See 0</v>
       </c>
       <c r="H16" s="209"/>
     </row>
-    <row r="17" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="197" t="s">
+    <row r="17" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A17" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="199"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="216"/>
       <c r="E17" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="142"/>
       <c r="G17" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
-        <v>See folio 6 - 7</v>
+        <v>See 0</v>
       </c>
       <c r="H17" s="209"/>
     </row>
-    <row r="18" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="197" t="str">
+    <row r="18" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A18" s="214">
         <f>'PC 1'!B37</f>
-        <v>Bill of Quantities (BOQ).</v>
-      </c>
-      <c r="B18" s="198"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="199"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="216"/>
       <c r="E18" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="142"/>
       <c r="G18" s="208" t="str">
         <f>"See " &amp;'PC 1'!B45</f>
-        <v>See folio 8</v>
+        <v>See 0</v>
       </c>
       <c r="H18" s="209"/>
     </row>
-    <row r="19" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="197" t="s">
+    <row r="19" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A19" s="214" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="199"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="216"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141" t="s">
         <v>122</v>
       </c>
       <c r="G19" s="208" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
-        <v>N/A</v>
+        <v>See 0</v>
       </c>
       <c r="H19" s="209"/>
     </row>
-    <row r="20" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="197" t="s">
+    <row r="20" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A20" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="199"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="216"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141" t="s">
         <v>122</v>
       </c>
       <c r="G20" s="208" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
-        <v>See folios 10 - 10b</v>
+        <v>See 0</v>
       </c>
       <c r="H20" s="209"/>
     </row>
-    <row r="21" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="197" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="198"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="199"/>
+    <row r="21" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A21" s="214" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="216"/>
       <c r="E21" s="141"/>
       <c r="F21" s="141"/>
       <c r="G21" s="208" t="str">
         <f>IF('PC 1'!B47="N/A","N/A","See " &amp; 'PC 1'!B47)</f>
-        <v>N/A</v>
+        <v>See 0</v>
       </c>
       <c r="H21" s="209"/>
     </row>
-    <row r="22" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="197" t="s">
+    <row r="22" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A22" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="198"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="199"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="216"/>
       <c r="E22" s="142"/>
       <c r="F22" s="141" t="s">
         <v>122</v>
       </c>
       <c r="G22" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
-        <v>See N/A</v>
+        <v>See 0</v>
       </c>
       <c r="H22" s="209"/>
     </row>
-    <row r="23" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="197" t="s">
+    <row r="23" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A23" s="214" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="218"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="199"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="216"/>
       <c r="E23" s="144"/>
       <c r="F23" s="144"/>
       <c r="G23" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
-        <v>See folio 6 - 7</v>
+        <v>See 0</v>
       </c>
       <c r="H23" s="209"/>
     </row>
-    <row r="24" spans="1:8" s="137" customFormat="1" ht="98.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" s="137" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A24" s="143" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="213" t="str">
+        <v>128</v>
+      </c>
+      <c r="B24" s="217" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
-        <v>To provide water supply and wastewater facilities at Shasha Housing Estate, Shasha/To provide water supply and wastewater facilities at Shasha Housing Estate, Shasha</v>
-      </c>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="214"/>
-    </row>
-    <row r="25" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="206" t="s">
+        <v>0/0</v>
+      </c>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="218"/>
+    </row>
+    <row r="25" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A25" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="215"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="217"/>
-    </row>
-    <row r="26" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G25" s="220"/>
+      <c r="H25" s="221"/>
+    </row>
+    <row r="26" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A26" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="212"/>
-      <c r="C26" s="212"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="210"/>
       <c r="D26" s="209"/>
       <c r="E26" s="145"/>
       <c r="F26" s="145"/>
@@ -9996,12 +9683,12 @@
       </c>
       <c r="H26" s="209"/>
     </row>
-    <row r="27" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="212"/>
-      <c r="C27" s="212"/>
+      <c r="B27" s="210"/>
+      <c r="C27" s="210"/>
       <c r="D27" s="209"/>
       <c r="E27" s="145"/>
       <c r="F27" s="145"/>
@@ -10010,12 +9697,12 @@
       </c>
       <c r="H27" s="209"/>
     </row>
-    <row r="28" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A28" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="210"/>
       <c r="D28" s="209"/>
       <c r="E28" s="145"/>
       <c r="F28" s="145"/>
@@ -10024,12 +9711,12 @@
       </c>
       <c r="H28" s="209"/>
     </row>
-    <row r="29" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A29" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="212"/>
-      <c r="C29" s="212"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="210"/>
       <c r="D29" s="209"/>
       <c r="E29" s="145"/>
       <c r="F29" s="145"/>
@@ -10038,67 +9725,67 @@
       </c>
       <c r="H29" s="209"/>
     </row>
-    <row r="30" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="208" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="212"/>
-      <c r="C30" s="212"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
       <c r="D30" s="209"/>
       <c r="E30" s="145"/>
       <c r="F30" s="145"/>
       <c r="G30" s="208"/>
       <c r="H30" s="209"/>
     </row>
-    <row r="31" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A31" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="212"/>
-      <c r="C31" s="212"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
       <c r="D31" s="209"/>
       <c r="E31" s="145"/>
       <c r="F31" s="145"/>
       <c r="G31" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B52</f>
-        <v>See folios 11 - 11c</v>
+        <v>See 0</v>
       </c>
       <c r="H31" s="209"/>
     </row>
-    <row r="32" spans="1:8" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A32" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="212"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="210"/>
       <c r="D32" s="209"/>
       <c r="E32" s="145"/>
       <c r="F32" s="145"/>
       <c r="G32" s="208" t="str">
         <f>"See " &amp; 'PC 1'!B53</f>
-        <v>See folio 12</v>
+        <v>See 0</v>
       </c>
       <c r="H32" s="209"/>
     </row>
-    <row r="33" spans="1:10" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="219" t="s">
+    <row r="33" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A33" s="211" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="221"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
       <c r="E33" s="145"/>
       <c r="F33" s="145"/>
       <c r="G33" s="208"/>
       <c r="H33" s="209"/>
     </row>
-    <row r="34" spans="1:10" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="222" t="s">
+    <row r="34" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A34" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="222"/>
-      <c r="C34" s="222"/>
-      <c r="D34" s="222"/>
+      <c r="B34" s="206"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
       <c r="E34" s="146" t="s">
         <v>122</v>
       </c>
@@ -10106,51 +9793,51 @@
       <c r="G34" s="208"/>
       <c r="H34" s="209"/>
     </row>
-    <row r="35" spans="1:10" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="222" t="s">
+    <row r="35" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A35" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="222"/>
-      <c r="C35" s="222"/>
-      <c r="D35" s="222"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
       <c r="E35" s="146"/>
       <c r="F35" s="145"/>
       <c r="G35" s="208"/>
       <c r="H35" s="209"/>
     </row>
-    <row r="36" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="223" t="s">
+    <row r="36" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A36" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="223"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="223"/>
+      <c r="B36" s="205"/>
+      <c r="C36" s="205"/>
+      <c r="D36" s="205"/>
       <c r="E36" s="146"/>
       <c r="F36" s="145"/>
       <c r="G36" s="208"/>
       <c r="H36" s="209"/>
     </row>
-    <row r="37" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="222" t="s">
+    <row r="37" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A37" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="222"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="222"/>
+      <c r="B37" s="206"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
       <c r="E37" s="146" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="147"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="207"/>
-    </row>
-    <row r="38" spans="1:10" s="137" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="224" t="s">
+      <c r="G37" s="197"/>
+      <c r="H37" s="198"/>
+    </row>
+    <row r="38" spans="1:10" s="137" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A38" s="207" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="222"/>
-      <c r="C38" s="222"/>
-      <c r="D38" s="222"/>
+      <c r="B38" s="206"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
       <c r="E38" s="146" t="s">
         <v>122</v>
       </c>
@@ -10158,57 +9845,57 @@
       <c r="G38" s="208"/>
       <c r="H38" s="209"/>
     </row>
-    <row r="39" spans="1:10" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="229" t="s">
+    <row r="39" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A39" s="204" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="229"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="227" t="str">
+      <c r="B39" s="204"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="202" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
-        <v>Project 1: 30th January, 2025 / Project 2: 30th January, 2025</v>
-      </c>
-      <c r="E39" s="227"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="227"/>
-      <c r="H39" s="228"/>
-    </row>
-    <row r="40" spans="1:10" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="204" t="s">
+        <v>Project 1: 0 / Project 2: 0</v>
+      </c>
+      <c r="E39" s="202"/>
+      <c r="F39" s="202"/>
+      <c r="G39" s="202"/>
+      <c r="H39" s="203"/>
+    </row>
+    <row r="40" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A40" s="201" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="227" t="str">
+      <c r="B40" s="201"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="202" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
-        <v>Project 1: 40%. (satisfactory) / Project 2: 40%. (satisfactory)</v>
-      </c>
-      <c r="E40" s="227"/>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="228"/>
-    </row>
-    <row r="41" spans="1:10" s="137" customFormat="1" ht="55.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="225" t="s">
+        <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
+      </c>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="203"/>
+    </row>
+    <row r="41" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A41" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="225"/>
-      <c r="C41" s="225"/>
-      <c r="D41" s="226"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="200"/>
       <c r="E41" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="142"/>
-      <c r="G41" s="206"/>
-      <c r="H41" s="207"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="198"/>
       <c r="J41" s="148"/>
     </row>
-    <row r="42" spans="1:10" s="137" customFormat="1" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" s="137" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A42" s="149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="137" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" s="137" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A43" s="150" t="s">
         <v>119</v>
       </c>
@@ -10218,7 +9905,7 @@
       <c r="E43" s="149"/>
       <c r="F43" s="149"/>
     </row>
-    <row r="44" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A44" s="149" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
@@ -10228,7 +9915,7 @@
         <v xml:space="preserve">Adekunle-Famuyon, F.A </v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A45" s="149" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
@@ -10240,20 +9927,61 @@
       <c r="E45" s="149"/>
       <c r="F45" s="149"/>
     </row>
-    <row r="46" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="151" t="str">
+    <row r="46" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A46" s="151">
         <f>'PC 1'!B36</f>
-        <v>13th February, 2025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -10270,53 +9998,12 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10334,118 +10021,118 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="95.78125" style="13" customWidth="1"/>
-    <col min="2" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="95.77734375" style="13" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="str">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15">
         <f>'PC 1'!B56</f>
-        <v>MEPB/MED/25/162/I/14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="8.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="str">
         <f>"REPORT OF SITE INSPECTION ON THE " &amp; 'PC 1'!B24 &amp; " AND " &amp; 'PC 2'!B24</f>
-        <v>REPORT OF SITE INSPECTION ON THE REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT SHASHA HOUSING ESTATE, SHASHA AND REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT IBESHE HOUSING ESTATE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>REPORT OF SITE INSPECTION ON THE 0 AND 0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="str">
         <f>'PC 1'!B39 &amp; " of file, refer please."</f>
-        <v>Folios 1 - 13 of file, refer please.</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>0 of file, refer please.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="str">
         <f>"2.   The " &amp; 'PC 1'!B20 &amp; " forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes " &amp; 'PC 1'!B38 &amp; " and Project 2 includes " &amp; 'PC 2'!B38</f>
-        <v>2.   The Special Committee On Rehabilitation of Public Schools forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes construction of sedimentation tank, and the provision of pressure filter tank / treatment plant and Project 2 includes construction of sedimentation tank, and the provision of pressure filter tank / treatment plant.</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2.   The 0 forwarded Pre-Payment Certificate in respect of the above Projects. Elements of work covered in Project 1 includes 0 and Project 2 includes 0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="str">
         <f>"•    The Projects had been " &amp; 'PC 1'!B35&amp;" at the time of this inspection in line with the specification of the " &amp; 'PC 1'!B37</f>
-        <v>•    The Projects had been Ongoing at the time of this inspection in line with the specification of the Bill of Quantities (BOQ).</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="str">
         <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
-        <v>•     Please see folio 13 of file for relevant documents pages on MED Checklist.</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="str">
         <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 1: sum of ₦69,898,578.83 (Sixty-Nine Million, Eight Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only in favour of Messrs. Kinghorse International Limited. This represents Final Payment due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+        <v>•    Project 1: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="str">
         <f>"•     Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
-        <v>•     Project 2: sum of ₦85,431,820.39 (Sixty-Nine Million, Eighty Hundred and Ninety-Eight Thousand, Five Hundred and Seventy-Eight Naira, Eighty-Three Kobo) only in favour of Messrs. FAB Investment Limited. This represents Final Payment due to the Contractor.</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>•     Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="str">
         <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
         <v xml:space="preserve">Alawiye, K.T (Ms)                                                                 Adekunle-Famuyon, F.A </v>
@@ -10454,7 +10141,7 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
@@ -10462,7 +10149,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="str">
         <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
         <v>PPO (MED)                                                                                                           PPO (MED)</v>
@@ -10473,7 +10160,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>52</v>
@@ -10487,10 +10174,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="str">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
         <f>'PC 1'!B36</f>
-        <v>13th February, 2025</v>
+        <v>0</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -10520,36 +10207,36 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7890625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.3203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.9375" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="8"/>
+    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="231" t="str">
         <f>'PC 1'!B24 &amp; " BY " &amp; 'PC 1'!C22</f>
-        <v>REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT SHASHA HOUSING ESTATE, SHASHA BY MESSRS. KINGHORSE INTERNATIONAL LIMITED</v>
+        <v>0 BY 0</v>
       </c>
       <c r="B2" s="231"/>
       <c r="C2" s="231"/>
     </row>
-    <row r="3" spans="1:3" ht="1.1499999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="230"/>
       <c r="B3" s="230"/>
     </row>
-    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="230"/>
       <c r="B4" s="230"/>
     </row>
-    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="230"/>
       <c r="B5" s="230"/>
     </row>
@@ -10561,7 +10248,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10578,36 +10265,36 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7890625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.3203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.9375" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="8"/>
+    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="231" t="str">
         <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
-        <v>REHABILITATION OF WATER SUPPLY AND WASTEWATER FACILITIES AT IBESHE HOUSING ESTATE BY MESSRS. FAB INVESTMENT LIMITED</v>
+        <v>0 BY 0</v>
       </c>
       <c r="B2" s="231"/>
       <c r="C2" s="231"/>
     </row>
-    <row r="3" spans="1:3" ht="1.1499999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="230"/>
       <c r="B3" s="230"/>
     </row>
-    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="230"/>
       <c r="B4" s="230"/>
     </row>
-    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="230"/>
       <c r="B5" s="230"/>
     </row>
@@ -10619,7 +10306,7 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96026DB5-7DD3-4E47-A6BA-5E64CF0B8B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C7EDD-22E7-40CE-B545-96499B6C3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="225">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -892,16 +892,20 @@
   <si>
     <t>PROJECT 1</t>
   </si>
+  <si>
+    <t>VAT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$₦-466]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$₦-46A]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$₦-468]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="62" x14ac:knownFonts="1">
     <font>
@@ -1769,7 +1773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2129,8 +2133,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -2160,6 +2162,45 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2173,12 +2214,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2187,38 +2222,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2226,15 +2255,63 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2244,114 +2321,45 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4695,10 +4703,10 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="BP51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65:E70"/>
+      <selection pane="bottomRight" activeCell="BQ12" sqref="BQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4715,7 +4723,7 @@
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="171" t="s">
         <v>223</v>
       </c>
       <c r="E1" s="93" t="s">
@@ -4730,12 +4738,12 @@
       <c r="D2" s="159"/>
       <c r="E2" s="160"/>
     </row>
-    <row r="3" spans="1:5" s="167" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:5" s="165" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="E3" s="166"/>
+      <c r="B3" s="164"/>
+      <c r="E3" s="164"/>
     </row>
     <row r="4" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
@@ -4828,21 +4836,27 @@
       <c r="B16" s="80"/>
       <c r="E16" s="80"/>
     </row>
-    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="163"/>
-      <c r="B17" s="162"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="161"/>
+    <row r="17" spans="1:6" s="240" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="157" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="239">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="169">
+      <c r="B18" s="167">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="E18" s="169">
+      <c r="E18" s="167">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
@@ -5111,16 +5125,16 @@
         <v>158</v>
       </c>
       <c r="B62" s="92"/>
-      <c r="D62" s="164"/>
+      <c r="D62" s="162"/>
     </row>
     <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="87" t="s">
         <v>159</v>
       </c>
       <c r="B63" s="88"/>
-      <c r="D63" s="164"/>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="162"/>
+    </row>
+    <row r="64" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="87" t="s">
         <v>160</v>
       </c>
@@ -5128,35 +5142,35 @@
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="D64" s="164"/>
+      <c r="D64" s="162"/>
     </row>
     <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="87" t="s">
         <v>161</v>
       </c>
       <c r="B65" s="88"/>
-      <c r="D65" s="164"/>
+      <c r="D65" s="162"/>
     </row>
     <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="87" t="s">
         <v>162</v>
       </c>
       <c r="B66" s="88"/>
-      <c r="D66" s="164"/>
+      <c r="D66" s="162"/>
     </row>
     <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="87" t="s">
         <v>163</v>
       </c>
       <c r="B67" s="88"/>
-      <c r="D67" s="164"/>
+      <c r="D67" s="162"/>
     </row>
     <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="87" t="s">
         <v>164</v>
       </c>
       <c r="B68" s="88"/>
-      <c r="D68" s="164"/>
+      <c r="D68" s="162"/>
       <c r="E68" s="88"/>
     </row>
     <row r="69" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5164,7 +5178,7 @@
         <v>165</v>
       </c>
       <c r="B69" s="90"/>
-      <c r="D69" s="164"/>
+      <c r="D69" s="162"/>
       <c r="E69" s="90"/>
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5182,7 +5196,7 @@
       <c r="B73" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="164"/>
+      <c r="D73" s="162"/>
     </row>
     <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="87" t="s">
@@ -5191,7 +5205,7 @@
       <c r="B74" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="164"/>
+      <c r="D74" s="162"/>
     </row>
     <row r="75" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="87" t="s">
@@ -5200,7 +5214,7 @@
       <c r="B75" s="88" t="s">
         <v>216</v>
       </c>
-      <c r="D75" s="164"/>
+      <c r="D75" s="162"/>
     </row>
     <row r="76" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="89" t="s">
@@ -5209,7 +5223,7 @@
       <c r="B76" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="164"/>
+      <c r="D76" s="162"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -5254,142 +5268,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="233"/>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
+      <c r="A1" s="237"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="233"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="233"/>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="234" t="str">
+      <c r="A7" s="238" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="235"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="234">
+      <c r="A9" s="238">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="232">
+      <c r="A10" s="231">
         <f>'PC 1'!B60</f>
         <v>0</v>
       </c>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="232">
+      <c r="A11" s="231">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="232">
+      <c r="A12" s="231">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="231"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="232">
+      <c r="A13" s="231">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="232"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="231"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="232"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="235" t="s">
+      <c r="A15" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="237" t="str">
+      <c r="A16" s="233" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="237"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="238" t="str">
+      <c r="A18" s="234" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="B18" s="234"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="239"/>
-      <c r="B19" s="239"/>
-      <c r="C19" s="239"/>
-      <c r="D19" s="239"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -5445,48 +5459,48 @@
       <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="240" t="s">
+      <c r="A24" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="240"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="232"/>
-      <c r="B25" s="232"/>
-      <c r="C25" s="232"/>
-      <c r="D25" s="232"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="231"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="232" t="s">
+      <c r="A26" s="231" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="232"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="231"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="232"/>
-      <c r="B27" s="232"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="232"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="236" t="s">
+      <c r="A28" s="230" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5511,6 +5525,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5523,18 +5549,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5562,142 +5576,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="233"/>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
+      <c r="A1" s="237"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="233"/>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="233"/>
-      <c r="B6" s="233"/>
-      <c r="C6" s="233"/>
-      <c r="D6" s="233"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="234" t="str">
+      <c r="A7" s="238" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="235"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="235"/>
-      <c r="D8" s="235"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="234">
+      <c r="A9" s="238">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="232">
+      <c r="A10" s="231">
         <f>'PC 1'!B60</f>
         <v>0</v>
       </c>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="232">
+      <c r="A11" s="231">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="231"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="232">
+      <c r="A12" s="231">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="231"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="232">
+      <c r="A13" s="231">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="232"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="231"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="232"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="235" t="s">
+      <c r="A15" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="237" t="str">
+      <c r="A16" s="233" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="237"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="238" t="str">
+      <c r="A18" s="234" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
+      <c r="B18" s="234"/>
+      <c r="C18" s="234"/>
+      <c r="D18" s="234"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="239"/>
-      <c r="B19" s="239"/>
-      <c r="C19" s="239"/>
-      <c r="D19" s="239"/>
+      <c r="A19" s="235"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -5753,48 +5767,48 @@
       <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="240" t="s">
+      <c r="A24" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="240"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="232"/>
-      <c r="B25" s="232"/>
-      <c r="C25" s="232"/>
-      <c r="D25" s="232"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="231"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="232" t="s">
+      <c r="A26" s="231" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="232"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="231"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="232"/>
-      <c r="B27" s="232"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="232"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="231"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="236" t="s">
+      <c r="A28" s="230" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="230" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5819,6 +5833,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5831,18 +5857,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5856,7 +5870,7 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5966,11 +5980,14 @@
         <v>108</v>
       </c>
       <c r="B8" s="129">
-        <f>7.5%*B7</f>
+        <f>D8*B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
+      <c r="D8" s="243">
+        <f>DETAILS!B17</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="E8" s="123"/>
     </row>
     <row r="9" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
@@ -6663,7 +6680,7 @@
     </row>
     <row r="72" spans="1:2" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L3hn8FObHmQFIs6cEXrIBX4W0OzLi9ahphi7Lbrz1R/V9XeSWXt8U1IUKxabFsVDW/Xu+yrm3aLq4aKjQHcXVA==" saltValue="0rL8wSsEfXMnM/sjUQ417A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="m+AGpPsL0XQwe9RNC47s4O1NwJ3lO91ZNEbMzGemHT46kcNCyDQH9LCg65Yuv1tLt7jeXV9YqwtdgY30ZQgc4w==" saltValue="cVnrl15wUZg8nY0GayYv6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6678,7 +6695,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -6786,11 +6803,14 @@
         <v>108</v>
       </c>
       <c r="B8" s="106">
-        <f>7.5%*B7</f>
+        <f>D8*B7</f>
         <v>0</v>
       </c>
       <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
+      <c r="D8" s="244">
+        <f>DETAILS!E17</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="E8" s="100"/>
     </row>
     <row r="9" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7487,7 +7507,7 @@
       <c r="B72" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IqkaiQxsriANnwYakFb/ml+Gxvy9XeN7dmWkTu4xAN6jwKvToagTrka15hfhnJuH2mbnp277BSAdaYGjQwSRYQ==" saltValue="6MXviQwdsaZ43RWH8ipq8A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uBaknAghFtvxbdGfbISKG8fis1oZpqc53dCFcBVvSswSIRDC6v0D8HISRRnuN5SnyuRkhihgxUoq8JSGwlKgvw==" saltValue="B6l53YC8/BCHHi/5Lvsu3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7524,79 +7544,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="184">
+      <c r="A2" s="174">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7605,16 +7625,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="176">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -7623,16 +7643,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="189">
+      <c r="C9" s="173">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -7641,16 +7661,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="189">
+      <c r="C10" s="173">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -7659,16 +7679,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="196">
+      <c r="C11" s="178">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -7677,16 +7697,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="189">
+      <c r="C12" s="173">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -7695,16 +7715,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="189">
+      <c r="C13" s="173">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -7713,16 +7733,16 @@
       <c r="B14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="189">
+      <c r="C14" s="173">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -7731,16 +7751,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="189">
+      <c r="C15" s="173">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -7749,16 +7769,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="189">
+      <c r="C16" s="173">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -7767,16 +7787,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="189">
+      <c r="C17" s="173">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -7785,16 +7805,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="189">
+      <c r="C18" s="173">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -7803,16 +7823,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="172">
         <f>'PC 1'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -7821,16 +7841,16 @@
       <c r="B20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="174">
+      <c r="C20" s="172">
         <f>'PC 1'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -7839,16 +7859,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="174">
+      <c r="C21" s="172">
         <f>'PC 1'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -7857,16 +7877,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="172">
         <f>'PC 1'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -7875,16 +7895,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="172">
         <f>'PC 1'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -7897,12 +7917,12 @@
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -7911,16 +7931,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="189">
+      <c r="C25" s="173">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -7929,16 +7949,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="174">
+      <c r="C26" s="172">
         <f>'PC 1'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -7947,16 +7967,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="174">
+      <c r="C27" s="172">
         <f>'PC 1'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -7965,16 +7985,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="174">
+      <c r="C28" s="172">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -7983,328 +8003,328 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="189" t="s">
+      <c r="C29" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="189"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="185" t="s">
+      <c r="A37" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="185"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="191" t="str">
+      <c r="A38" s="180" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="180"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="191"/>
-      <c r="B39" s="191"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="180"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="191"/>
-      <c r="B40" s="191"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="191"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="194"/>
-      <c r="B41" s="194"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="184"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="194"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
+      <c r="A42" s="184"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="193" t="s">
+      <c r="B43" s="186"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="193"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="190" t="str">
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="179" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="190" t="str">
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="179" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="190"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="190"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="177"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="182">
+      <c r="A46" s="190"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="193">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="182"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="193"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="178" t="s">
+      <c r="A47" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="178"/>
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
+      <c r="A48" s="191"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="178"/>
-      <c r="B49" s="178"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="178"/>
+      <c r="A49" s="191"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="180"/>
-      <c r="C50" s="181" t="s">
+      <c r="B50" s="186"/>
+      <c r="C50" s="192" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="178"/>
-      <c r="E50" s="183" t="s">
+      <c r="D50" s="191"/>
+      <c r="E50" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
+      <c r="F50" s="194"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
+      <c r="I50" s="194"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="175"/>
-      <c r="C51" s="176" t="s">
+      <c r="B51" s="188"/>
+      <c r="C51" s="189" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="184" t="s">
+      <c r="D51" s="189"/>
+      <c r="E51" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="184"/>
-      <c r="G51" s="184"/>
-      <c r="H51" s="184"/>
-      <c r="I51" s="184"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="174"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="175" t="s">
+      <c r="A52" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="175"/>
-      <c r="C52" s="176" t="s">
+      <c r="B52" s="188"/>
+      <c r="C52" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="176"/>
-      <c r="E52" s="184" t="s">
+      <c r="D52" s="189"/>
+      <c r="E52" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="184"/>
-      <c r="G52" s="184"/>
-      <c r="H52" s="184"/>
-      <c r="I52" s="184"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="174"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8313,46 +8333,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T45iWvNsr1hGkYSAl60cPBBGEmTqPHx7n0KlTBgAQMIMqWHejcg1l6z16ijGNlfOp0B0e97qSW8giO8aPp12sA==" saltValue="ZO+Z89g6yR6WPkMr+p99cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -8369,6 +8349,46 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8408,79 +8428,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="184">
+      <c r="A2" s="174">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8489,16 +8509,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="188">
+      <c r="C8" s="176">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -8507,16 +8527,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="189">
+      <c r="C9" s="173">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -8525,16 +8545,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="189">
+      <c r="C10" s="173">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -8543,16 +8563,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="196">
+      <c r="C11" s="178">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -8561,16 +8581,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="189">
+      <c r="C12" s="173">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -8579,16 +8599,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="189">
+      <c r="C13" s="173">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="189"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -8597,16 +8617,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="189">
+      <c r="C14" s="173">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -8615,16 +8635,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="189">
+      <c r="C15" s="173">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="189"/>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="173"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -8633,16 +8653,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="189">
+      <c r="C16" s="173">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -8651,16 +8671,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="189">
+      <c r="C17" s="173">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="189"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="173"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -8669,16 +8689,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="189">
+      <c r="C18" s="173">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -8687,16 +8707,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="172">
         <f>'PC 2'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -8705,16 +8725,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="174">
+      <c r="C20" s="172">
         <f>'PC 2'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -8723,16 +8743,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="174">
+      <c r="C21" s="172">
         <f>'PC 2'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -8741,16 +8761,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="174">
+      <c r="C22" s="172">
         <f>'PC 2'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -8759,16 +8779,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="172">
         <f>'PC 2'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -8781,12 +8801,12 @@
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -8795,16 +8815,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="189">
+      <c r="C25" s="173">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8813,16 +8833,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="174">
+      <c r="C26" s="172">
         <f>'PC 2'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -8831,16 +8851,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="174">
+      <c r="C27" s="172">
         <f>'PC 2'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -8849,16 +8869,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="174">
+      <c r="C28" s="172">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -8867,316 +8887,316 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="189" t="s">
+      <c r="C29" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="189"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="173"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
+      <c r="A31" s="177"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="186" t="s">
+      <c r="B36" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="185" t="s">
+      <c r="A37" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="185"/>
-      <c r="C37" s="185"/>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="183"/>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="191" t="str">
+      <c r="A38" s="180" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="180"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="191"/>
-      <c r="B39" s="191"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="180"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="191"/>
-      <c r="B40" s="191"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="191"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="194"/>
-      <c r="B41" s="194"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="184"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="194"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
+      <c r="A42" s="184"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="184"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="193" t="s">
+      <c r="B43" s="186"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="193"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="182"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="190" t="str">
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="179" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="179"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="190" t="str">
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="179" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="190"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="190"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="179"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="177"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="182">
+      <c r="A46" s="190"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="193">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="182"/>
-      <c r="I46" s="182"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
+      <c r="I46" s="193"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="178"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
+      <c r="A47" s="191"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="178"/>
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
+      <c r="A48" s="191"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="179" t="s">
+      <c r="A49" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="180"/>
-      <c r="C49" s="181" t="s">
+      <c r="B49" s="186"/>
+      <c r="C49" s="192" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="178"/>
-      <c r="E49" s="183" t="s">
+      <c r="D49" s="191"/>
+      <c r="E49" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="183"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="194"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="175" t="s">
+      <c r="A50" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="175"/>
-      <c r="C50" s="176" t="s">
+      <c r="B50" s="188"/>
+      <c r="C50" s="189" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="176"/>
-      <c r="E50" s="184" t="s">
+      <c r="D50" s="189"/>
+      <c r="E50" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="184"/>
-      <c r="G50" s="184"/>
-      <c r="H50" s="184"/>
-      <c r="I50" s="184"/>
+      <c r="F50" s="174"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="174"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="175"/>
-      <c r="C51" s="176" t="s">
+      <c r="B51" s="188"/>
+      <c r="C51" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="184" t="s">
+      <c r="D51" s="189"/>
+      <c r="E51" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="184"/>
-      <c r="G51" s="184"/>
-      <c r="H51" s="184"/>
-      <c r="I51" s="184"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="174"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="174"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9185,6 +9205,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wSi01L1jKFu+/KQxITGp8tiq0szckHTaxzJLu072ahrMN6+Ye2bpNLJt+by28nnvUGN3JJff6DAJRDUOkK4L2A==" saltValue="nV0vD9TDN1ZfxYMKAhZBXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -9201,46 +9261,6 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9274,67 +9294,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
     </row>
     <row r="2" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
     </row>
     <row r="3" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="223"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
     </row>
     <row r="4" spans="1:8" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="224"/>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
     </row>
     <row r="5" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="225">
+      <c r="B5" s="209">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
       <c r="G5" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="170">
+      <c r="H5" s="168">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
@@ -9343,29 +9363,29 @@
       <c r="A6" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="225">
+      <c r="B6" s="209">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
       <c r="G6" s="138"/>
-      <c r="H6" s="170"/>
-    </row>
-    <row r="7" spans="1:8" s="137" customFormat="1" ht="97.2" x14ac:dyDescent="0.85">
+      <c r="H6" s="168"/>
+    </row>
+    <row r="7" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A7" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="225">
+      <c r="B7" s="209">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
       <c r="G7" s="139" t="s">
         <v>176</v>
       </c>
@@ -9374,18 +9394,18 @@
         <v>0/0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="137" customFormat="1" ht="97.2" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A8" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="226" t="str">
+      <c r="B8" s="199" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
       <c r="G8" s="139" t="s">
         <v>218</v>
       </c>
@@ -9398,33 +9418,33 @@
       <c r="A9" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="227" t="str">
+      <c r="B9" s="200" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
         <v>0/0</v>
       </c>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
       <c r="G9" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="171" t="s">
+      <c r="H9" s="169" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="137" customFormat="1" ht="97.2" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A10" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="226">
+      <c r="B10" s="199">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
       <c r="G10" s="139" t="s">
         <v>177</v>
       </c>
@@ -9437,457 +9457,457 @@
       <c r="A11" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="226" t="s">
+      <c r="B11" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
     </row>
     <row r="12" spans="1:8" s="137" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="223"/>
-      <c r="B12" s="223"/>
-      <c r="C12" s="223"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198"/>
     </row>
     <row r="13" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="201" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="229"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="203"/>
       <c r="E13" s="135" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="197" t="s">
+      <c r="G13" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="198"/>
+      <c r="H13" s="205"/>
     </row>
     <row r="14" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="216"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="142"/>
-      <c r="G14" s="208" t="str">
+      <c r="G14" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B48</f>
         <v>See 0</v>
       </c>
-      <c r="H14" s="209"/>
+      <c r="H14" s="207"/>
     </row>
     <row r="15" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="214" t="s">
+      <c r="A15" s="195" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="216"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
       <c r="E15" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="142"/>
-      <c r="G15" s="208" t="str">
+      <c r="G15" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B42</f>
         <v>See 0</v>
       </c>
-      <c r="H15" s="209"/>
+      <c r="H15" s="207"/>
     </row>
     <row r="16" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="216"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
       <c r="E16" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="142"/>
-      <c r="G16" s="208" t="str">
+      <c r="G16" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B43</f>
         <v>See 0</v>
       </c>
-      <c r="H16" s="209"/>
+      <c r="H16" s="207"/>
     </row>
     <row r="17" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="214" t="s">
+      <c r="A17" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="215"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="216"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
       <c r="E17" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="142"/>
-      <c r="G17" s="208" t="str">
+      <c r="G17" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H17" s="209"/>
+      <c r="H17" s="207"/>
     </row>
     <row r="18" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="214">
+      <c r="A18" s="195">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B18" s="215"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="216"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
       <c r="E18" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="142"/>
-      <c r="G18" s="208" t="str">
+      <c r="G18" s="206" t="str">
         <f>"See " &amp;'PC 1'!B45</f>
         <v>See 0</v>
       </c>
-      <c r="H18" s="209"/>
+      <c r="H18" s="207"/>
     </row>
     <row r="19" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="214" t="s">
+      <c r="A19" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="216"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="208" t="str">
+      <c r="G19" s="206" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
         <v>See 0</v>
       </c>
-      <c r="H19" s="209"/>
+      <c r="H19" s="207"/>
     </row>
     <row r="20" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="215"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="216"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="208" t="str">
+      <c r="G20" s="206" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
         <v>See 0</v>
       </c>
-      <c r="H20" s="209"/>
+      <c r="H20" s="207"/>
     </row>
     <row r="21" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="214" t="s">
+      <c r="A21" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="216"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
       <c r="E21" s="141"/>
       <c r="F21" s="141"/>
-      <c r="G21" s="208" t="str">
+      <c r="G21" s="206" t="str">
         <f>IF('PC 1'!B47="N/A","N/A","See " &amp; 'PC 1'!B47)</f>
         <v>See 0</v>
       </c>
-      <c r="H21" s="209"/>
+      <c r="H21" s="207"/>
     </row>
     <row r="22" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="214" t="s">
+      <c r="A22" s="195" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="215"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="216"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
       <c r="E22" s="142"/>
       <c r="F22" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="208" t="str">
+      <c r="G22" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
         <v>See 0</v>
       </c>
-      <c r="H22" s="209"/>
+      <c r="H22" s="207"/>
     </row>
     <row r="23" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="214" t="s">
+      <c r="A23" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="222"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="216"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
       <c r="E23" s="144"/>
       <c r="F23" s="144"/>
-      <c r="G23" s="208" t="str">
+      <c r="G23" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H23" s="209"/>
+      <c r="H23" s="207"/>
     </row>
     <row r="24" spans="1:8" s="137" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A24" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="217" t="str">
+      <c r="B24" s="211" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
         <v>0/0</v>
       </c>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="218"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="212"/>
     </row>
     <row r="25" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="219"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="213"/>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="221"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="215"/>
     </row>
     <row r="26" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="208" t="s">
+      <c r="A26" s="206" t="s">
         <v>124</v>
       </c>
       <c r="B26" s="210"/>
       <c r="C26" s="210"/>
-      <c r="D26" s="209"/>
+      <c r="D26" s="207"/>
       <c r="E26" s="145"/>
       <c r="F26" s="145"/>
-      <c r="G26" s="208" t="s">
+      <c r="G26" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="209"/>
+      <c r="H26" s="207"/>
     </row>
     <row r="27" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="208" t="s">
+      <c r="A27" s="206" t="s">
         <v>123</v>
       </c>
       <c r="B27" s="210"/>
       <c r="C27" s="210"/>
-      <c r="D27" s="209"/>
+      <c r="D27" s="207"/>
       <c r="E27" s="145"/>
       <c r="F27" s="145"/>
-      <c r="G27" s="208" t="s">
+      <c r="G27" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="209"/>
+      <c r="H27" s="207"/>
     </row>
     <row r="28" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A28" s="208" t="s">
+      <c r="A28" s="206" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="210"/>
       <c r="C28" s="210"/>
-      <c r="D28" s="209"/>
+      <c r="D28" s="207"/>
       <c r="E28" s="145"/>
       <c r="F28" s="145"/>
-      <c r="G28" s="208" t="s">
+      <c r="G28" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="209"/>
+      <c r="H28" s="207"/>
     </row>
     <row r="29" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="208" t="s">
+      <c r="A29" s="206" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="210"/>
       <c r="C29" s="210"/>
-      <c r="D29" s="209"/>
+      <c r="D29" s="207"/>
       <c r="E29" s="145"/>
       <c r="F29" s="145"/>
-      <c r="G29" s="208" t="s">
+      <c r="G29" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="209"/>
+      <c r="H29" s="207"/>
     </row>
     <row r="30" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="208" t="s">
+      <c r="A30" s="206" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="210"/>
       <c r="C30" s="210"/>
-      <c r="D30" s="209"/>
+      <c r="D30" s="207"/>
       <c r="E30" s="145"/>
       <c r="F30" s="145"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="209"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="207"/>
     </row>
     <row r="31" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="206" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="210"/>
       <c r="C31" s="210"/>
-      <c r="D31" s="209"/>
+      <c r="D31" s="207"/>
       <c r="E31" s="145"/>
       <c r="F31" s="145"/>
-      <c r="G31" s="208" t="str">
+      <c r="G31" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B52</f>
         <v>See 0</v>
       </c>
-      <c r="H31" s="209"/>
+      <c r="H31" s="207"/>
     </row>
     <row r="32" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="208" t="s">
+      <c r="A32" s="206" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="210"/>
       <c r="C32" s="210"/>
-      <c r="D32" s="209"/>
+      <c r="D32" s="207"/>
       <c r="E32" s="145"/>
       <c r="F32" s="145"/>
-      <c r="G32" s="208" t="str">
+      <c r="G32" s="206" t="str">
         <f>"See " &amp; 'PC 1'!B53</f>
         <v>See 0</v>
       </c>
-      <c r="H32" s="209"/>
+      <c r="H32" s="207"/>
     </row>
     <row r="33" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="211" t="s">
+      <c r="A33" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="212"/>
-      <c r="C33" s="212"/>
-      <c r="D33" s="213"/>
+      <c r="B33" s="218"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="219"/>
       <c r="E33" s="145"/>
       <c r="F33" s="145"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="209"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="207"/>
     </row>
     <row r="34" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="206" t="s">
+      <c r="A34" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
       <c r="E34" s="146" t="s">
         <v>122</v>
       </c>
       <c r="F34" s="145"/>
-      <c r="G34" s="208"/>
-      <c r="H34" s="209"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="207"/>
     </row>
     <row r="35" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="206" t="s">
+      <c r="A35" s="220" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="206"/>
-      <c r="C35" s="206"/>
-      <c r="D35" s="206"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="146"/>
       <c r="F35" s="145"/>
-      <c r="G35" s="208"/>
-      <c r="H35" s="209"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="207"/>
     </row>
     <row r="36" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="205" t="s">
+      <c r="A36" s="221" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
-      <c r="D36" s="205"/>
+      <c r="B36" s="221"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
       <c r="E36" s="146"/>
       <c r="F36" s="145"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="209"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="207"/>
     </row>
     <row r="37" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="206" t="s">
+      <c r="A37" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="206"/>
-      <c r="C37" s="206"/>
-      <c r="D37" s="206"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="146" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="147"/>
-      <c r="G37" s="197"/>
-      <c r="H37" s="198"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="205"/>
     </row>
     <row r="38" spans="1:10" s="137" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="222" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="206"/>
-      <c r="C38" s="206"/>
-      <c r="D38" s="206"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
       <c r="E38" s="146" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="145"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="209"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="207"/>
     </row>
     <row r="39" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="204" t="s">
+      <c r="A39" s="227" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="202" t="str">
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="225" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
         <v>Project 1: 0 / Project 2: 0</v>
       </c>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="203"/>
+      <c r="E39" s="225"/>
+      <c r="F39" s="225"/>
+      <c r="G39" s="225"/>
+      <c r="H39" s="226"/>
     </row>
     <row r="40" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="201" t="s">
+      <c r="A40" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="201"/>
-      <c r="C40" s="201"/>
-      <c r="D40" s="202" t="str">
+      <c r="B40" s="202"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="225" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
       </c>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="203"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="225"/>
+      <c r="G40" s="225"/>
+      <c r="H40" s="226"/>
     </row>
     <row r="41" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="199" t="s">
+      <c r="A41" s="223" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="199"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="200"/>
+      <c r="B41" s="223"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="224"/>
       <c r="E41" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="142"/>
-      <c r="G41" s="197"/>
-      <c r="H41" s="198"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="205"/>
       <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:10" s="137" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
@@ -9935,53 +9955,12 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -9998,12 +9977,53 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10121,7 +10141,7 @@
         <v>•    Project 1: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="str">
         <f>"•     Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
         <v>•     Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
@@ -10221,24 +10241,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="str">
+      <c r="A2" s="229" t="str">
         <f>'PC 1'!B24 &amp; " BY " &amp; 'PC 1'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="230"/>
-      <c r="B3" s="230"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="230"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="228"/>
+      <c r="B4" s="228"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="230"/>
-      <c r="B5" s="230"/>
+      <c r="A5" s="228"/>
+      <c r="B5" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10279,24 +10299,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="231" t="str">
+      <c r="A2" s="229" t="str">
         <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="230"/>
-      <c r="B3" s="230"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="230"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="228"/>
+      <c r="B4" s="228"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="230"/>
-      <c r="B5" s="230"/>
+      <c r="A5" s="228"/>
+      <c r="B5" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C7EDD-22E7-40CE-B545-96499B6C3450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C91CC3-CB2E-40A4-9ECE-A3111FC7820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -2159,207 +2159,207 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="30" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4706,7 +4706,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BQ12" sqref="BQ12"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4836,15 +4836,15 @@
       <c r="B16" s="80"/>
       <c r="E16" s="80"/>
     </row>
-    <row r="17" spans="1:6" s="240" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="173" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="157" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="239">
+      <c r="B17" s="172">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D17" s="241"/>
-      <c r="E17" s="242">
+      <c r="D17" s="174"/>
+      <c r="E17" s="175">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -5229,15 +5229,15 @@
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 E34" xr:uid="{29FAB2DA-5437-4761-BCEB-780AAE988412}">
       <formula1>"Ongoing,Completed"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 B6" xr:uid="{7FCEC9A8-7612-436F-8C45-D94A33942BB8}">
-      <formula1>"Stage Payment, Final Payment, Retention"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 E16" xr:uid="{1B668855-F496-4B63-BDBC-A03C323075D2}">
       <formula1>"10%,20%,30%,40%,50%,60%,70%,80%,90%,100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 E14" xr:uid="{67EBB52A-3CFD-417F-8FEB-5F739450143A}">
       <formula1>"5%,0%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 E6" xr:uid="{87F5AF62-3C9F-45D7-BD67-8AC2F382680B}">
+      <formula1>"Stage Payment, Final Payment, Retention Payment"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5313,10 +5313,10 @@
       <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="238">
@@ -5328,82 +5328,82 @@
       <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="231">
+      <c r="A10" s="236">
         <f>'PC 1'!B60</f>
         <v>0</v>
       </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="231">
+      <c r="A11" s="236">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="231">
+      <c r="A12" s="236">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="231"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="231">
+      <c r="A13" s="236">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="231"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
+      <c r="A14" s="236"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="232" t="s">
+      <c r="A15" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="232"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="233" t="str">
+      <c r="A16" s="241" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="233"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="234" t="str">
+      <c r="A18" s="242" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="235"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -5459,48 +5459,48 @@
       <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="236"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="231"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="231" t="s">
+      <c r="A26" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="231"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
+      <c r="A27" s="236"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="230" t="s">
+      <c r="A28" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="230" t="s">
+      <c r="A29" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="230"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5525,6 +5525,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5537,18 +5549,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5621,10 +5621,10 @@
       <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A9" s="238">
@@ -5636,82 +5636,82 @@
       <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="231">
+      <c r="A10" s="236">
         <f>'PC 1'!B60</f>
         <v>0</v>
       </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="231">
+      <c r="A11" s="236">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="231"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="231"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="231">
+      <c r="A12" s="236">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="231"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="231"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="231">
+      <c r="A13" s="236">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="231"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="231"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
+      <c r="A14" s="236"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="232" t="s">
+      <c r="A15" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="232"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="233" t="str">
+      <c r="A16" s="241" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="233"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="234" t="str">
+      <c r="A18" s="242" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="234"/>
-      <c r="D18" s="234"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="235"/>
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="54" t="s">
@@ -5767,48 +5767,48 @@
       <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="236"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="231"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="231" t="s">
+      <c r="A26" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="231"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
+      <c r="A27" s="236"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="230" t="s">
+      <c r="A28" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="230"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="230" t="s">
+      <c r="A29" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="230"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="230"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5833,6 +5833,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5845,18 +5857,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="123"/>
-      <c r="D8" s="243">
+      <c r="D8" s="176">
         <f>DETAILS!B17</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="100"/>
-      <c r="D8" s="244">
+      <c r="D8" s="177">
         <f>DETAILS!E17</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7544,79 +7544,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="174">
+      <c r="A2" s="188">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7625,16 +7625,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="176">
+      <c r="C8" s="192">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -7643,16 +7643,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="173">
+      <c r="C9" s="193">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -7661,16 +7661,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="193">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -7679,16 +7679,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="178">
+      <c r="C11" s="200">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -7697,16 +7697,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="173">
+      <c r="C12" s="193">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -7715,16 +7715,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="173">
+      <c r="C13" s="193">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -7733,16 +7733,16 @@
       <c r="B14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="193">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -7751,16 +7751,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="193">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -7769,16 +7769,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="193">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -7787,16 +7787,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="173">
+      <c r="C17" s="193">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -7805,16 +7805,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="193">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -7823,16 +7823,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="172">
+      <c r="C19" s="178">
         <f>'PC 1'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -7841,16 +7841,16 @@
       <c r="B20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="178">
         <f>'PC 1'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -7859,16 +7859,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="178">
         <f>'PC 1'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -7877,16 +7877,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="178">
         <f>'PC 1'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -7895,16 +7895,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="178">
         <f>'PC 1'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -7913,16 +7913,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="187">
+      <c r="C24" s="191">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -7931,16 +7931,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="173">
+      <c r="C25" s="193">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -7949,16 +7949,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="178">
         <f>'PC 1'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -7967,16 +7967,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="172">
+      <c r="C27" s="178">
         <f>'PC 1'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -7985,16 +7985,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="172">
+      <c r="C28" s="178">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -8003,328 +8003,328 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="177"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="177"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="183" t="s">
+      <c r="A37" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="180" t="str">
+      <c r="A38" s="195" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="180"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="180"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="184"/>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="184"/>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="182" t="s">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="181" t="s">
+      <c r="A44" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="179" t="str">
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="194" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="181" t="s">
+      <c r="A45" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="179" t="str">
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="194" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="179"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="179"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="194"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="190"/>
-      <c r="B46" s="190"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="193">
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="186">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="193"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="191" t="s">
+      <c r="A47" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="191"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="191"/>
-      <c r="B48" s="191"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="191"/>
-      <c r="H48" s="191"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="191"/>
-      <c r="B49" s="191"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="191"/>
-      <c r="H49" s="191"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="182"/>
+      <c r="F49" s="182"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="182"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="185" t="s">
+      <c r="A50" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="186"/>
-      <c r="C50" s="192" t="s">
+      <c r="B50" s="184"/>
+      <c r="C50" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="191"/>
-      <c r="E50" s="194" t="s">
+      <c r="D50" s="182"/>
+      <c r="E50" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="194"/>
-      <c r="G50" s="194"/>
-      <c r="H50" s="194"/>
-      <c r="I50" s="194"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="188" t="s">
+      <c r="A51" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="188"/>
-      <c r="C51" s="189" t="s">
+      <c r="B51" s="179"/>
+      <c r="C51" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="189"/>
-      <c r="E51" s="174" t="s">
+      <c r="D51" s="180"/>
+      <c r="E51" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="174"/>
-      <c r="G51" s="174"/>
-      <c r="H51" s="174"/>
-      <c r="I51" s="174"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="188" t="s">
+      <c r="A52" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="188"/>
-      <c r="C52" s="189" t="s">
+      <c r="B52" s="179"/>
+      <c r="C52" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="189"/>
-      <c r="E52" s="174" t="s">
+      <c r="D52" s="180"/>
+      <c r="E52" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="174"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8333,6 +8333,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T45iWvNsr1hGkYSAl60cPBBGEmTqPHx7n0KlTBgAQMIMqWHejcg1l6z16ijGNlfOp0B0e97qSW8giO8aPp12sA==" saltValue="ZO+Z89g6yR6WPkMr+p99cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -8349,46 +8389,6 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8428,79 +8428,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="174">
+      <c r="A2" s="188">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8509,16 +8509,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="176">
+      <c r="C8" s="192">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -8527,16 +8527,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="173">
+      <c r="C9" s="193">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -8545,16 +8545,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="193">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -8563,16 +8563,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="178">
+      <c r="C11" s="200">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -8581,16 +8581,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="173">
+      <c r="C12" s="193">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -8599,16 +8599,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="173">
+      <c r="C13" s="193">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -8617,16 +8617,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="193">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -8635,16 +8635,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="193">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -8653,16 +8653,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="193">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -8671,16 +8671,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="173">
+      <c r="C17" s="193">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -8689,16 +8689,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="173">
+      <c r="C18" s="193">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -8707,16 +8707,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="172">
+      <c r="C19" s="178">
         <f>'PC 2'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -8725,16 +8725,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="178">
         <f>'PC 2'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -8743,16 +8743,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="178">
         <f>'PC 2'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -8761,16 +8761,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="178">
         <f>'PC 2'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -8779,16 +8779,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="178">
         <f>'PC 2'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -8797,16 +8797,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="187">
+      <c r="C24" s="191">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -8815,16 +8815,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="173">
+      <c r="C25" s="193">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8833,16 +8833,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="178">
         <f>'PC 2'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -8851,16 +8851,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="172">
+      <c r="C27" s="178">
         <f>'PC 2'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -8869,16 +8869,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="172">
+      <c r="C28" s="178">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -8887,316 +8887,316 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="177"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="183" t="s">
+      <c r="A32" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="177"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="177"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="183" t="s">
+      <c r="A37" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="180" t="str">
+      <c r="A38" s="195" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="180"/>
-      <c r="C38" s="180"/>
-      <c r="D38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="180"/>
-      <c r="B39" s="180"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="180"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="180"/>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="184"/>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="184"/>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="184"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="184"/>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="185" t="s">
+      <c r="A43" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="182" t="s">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="181" t="s">
+      <c r="A44" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="179" t="str">
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="194" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="181" t="s">
+      <c r="A45" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="179" t="str">
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="194" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="179"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="179"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="194"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="190"/>
-      <c r="B46" s="190"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="193">
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="186">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="193"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="191"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="191"/>
-      <c r="B48" s="191"/>
-      <c r="C48" s="191"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="191"/>
-      <c r="H48" s="191"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="185" t="s">
+      <c r="A49" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="186"/>
-      <c r="C49" s="192" t="s">
+      <c r="B49" s="184"/>
+      <c r="C49" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="194" t="s">
+      <c r="D49" s="182"/>
+      <c r="E49" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="194"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="188" t="s">
+      <c r="A50" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="188"/>
-      <c r="C50" s="189" t="s">
+      <c r="B50" s="179"/>
+      <c r="C50" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="189"/>
-      <c r="E50" s="174" t="s">
+      <c r="D50" s="180"/>
+      <c r="E50" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="174"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="188" t="s">
+      <c r="A51" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="188"/>
-      <c r="C51" s="189" t="s">
+      <c r="B51" s="179"/>
+      <c r="C51" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="189"/>
-      <c r="E51" s="174" t="s">
+      <c r="D51" s="180"/>
+      <c r="E51" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="174"/>
-      <c r="G51" s="174"/>
-      <c r="H51" s="174"/>
-      <c r="I51" s="174"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9205,46 +9205,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wSi01L1jKFu+/KQxITGp8tiq0szckHTaxzJLu072ahrMN6+Ye2bpNLJt+by28nnvUGN3JJff6DAJRDUOkK4L2A==" saltValue="nV0vD9TDN1ZfxYMKAhZBXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -9261,6 +9221,46 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9294,63 +9294,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
     </row>
     <row r="3" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="1:8" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="208"/>
-      <c r="B4" s="208"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
+      <c r="A4" s="228"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
     </row>
     <row r="5" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="229">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="138" t="s">
         <v>118</v>
       </c>
@@ -9363,14 +9363,14 @@
       <c r="A6" s="138" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="209">
+      <c r="B6" s="229">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
       <c r="G6" s="138"/>
       <c r="H6" s="168"/>
     </row>
@@ -9378,14 +9378,14 @@
       <c r="A7" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="209">
+      <c r="B7" s="229">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="139" t="s">
         <v>176</v>
       </c>
@@ -9398,14 +9398,14 @@
       <c r="A8" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="199" t="str">
+      <c r="B8" s="230" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
-      <c r="E8" s="199"/>
-      <c r="F8" s="199"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="139" t="s">
         <v>218</v>
       </c>
@@ -9418,14 +9418,14 @@
       <c r="A9" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="200" t="str">
+      <c r="B9" s="231" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
         <v>0/0</v>
       </c>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="139" t="s">
         <v>113</v>
       </c>
@@ -9437,14 +9437,14 @@
       <c r="A10" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="199">
+      <c r="B10" s="230">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="199"/>
-      <c r="F10" s="199"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="139" t="s">
         <v>177</v>
       </c>
@@ -9457,457 +9457,457 @@
       <c r="A11" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="199"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
       <c r="G11" s="170"/>
       <c r="H11" s="170"/>
     </row>
     <row r="12" spans="1:8" s="137" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="198"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="198"/>
+      <c r="A12" s="227"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
     </row>
     <row r="13" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="203"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="135" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="204" t="s">
+      <c r="G13" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="205"/>
+      <c r="H13" s="202"/>
     </row>
     <row r="14" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="142"/>
-      <c r="G14" s="206" t="str">
+      <c r="G14" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B48</f>
         <v>See 0</v>
       </c>
-      <c r="H14" s="207"/>
+      <c r="H14" s="213"/>
     </row>
     <row r="15" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="197"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="142"/>
-      <c r="G15" s="206" t="str">
+      <c r="G15" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B42</f>
         <v>See 0</v>
       </c>
-      <c r="H15" s="207"/>
+      <c r="H15" s="213"/>
     </row>
     <row r="16" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="197"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="142"/>
-      <c r="G16" s="206" t="str">
+      <c r="G16" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B43</f>
         <v>See 0</v>
       </c>
-      <c r="H16" s="207"/>
+      <c r="H16" s="213"/>
     </row>
     <row r="17" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="196"/>
-      <c r="C17" s="196"/>
-      <c r="D17" s="197"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="220"/>
       <c r="E17" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="142"/>
-      <c r="G17" s="206" t="str">
+      <c r="G17" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H17" s="207"/>
+      <c r="H17" s="213"/>
     </row>
     <row r="18" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="195">
+      <c r="A18" s="218">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="142"/>
-      <c r="G18" s="206" t="str">
+      <c r="G18" s="212" t="str">
         <f>"See " &amp;'PC 1'!B45</f>
         <v>See 0</v>
       </c>
-      <c r="H18" s="207"/>
+      <c r="H18" s="213"/>
     </row>
     <row r="19" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="195" t="s">
+      <c r="A19" s="218" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="197"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="220"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="206" t="str">
+      <c r="G19" s="212" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
         <v>See 0</v>
       </c>
-      <c r="H19" s="207"/>
+      <c r="H19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="197"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="206" t="str">
+      <c r="G20" s="212" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
         <v>See 0</v>
       </c>
-      <c r="H20" s="207"/>
+      <c r="H20" s="213"/>
     </row>
     <row r="21" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="196"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="197"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="141"/>
       <c r="F21" s="141"/>
-      <c r="G21" s="206" t="str">
+      <c r="G21" s="212" t="str">
         <f>IF('PC 1'!B47="N/A","N/A","See " &amp; 'PC 1'!B47)</f>
         <v>See 0</v>
       </c>
-      <c r="H21" s="207"/>
+      <c r="H21" s="213"/>
     </row>
     <row r="22" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="195" t="s">
+      <c r="A22" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="196"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="197"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="142"/>
       <c r="F22" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="206" t="str">
+      <c r="G22" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
         <v>See 0</v>
       </c>
-      <c r="H22" s="207"/>
+      <c r="H22" s="213"/>
     </row>
     <row r="23" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="218" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="216"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="197"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="144"/>
       <c r="F23" s="144"/>
-      <c r="G23" s="206" t="str">
+      <c r="G23" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H23" s="207"/>
+      <c r="H23" s="213"/>
     </row>
     <row r="24" spans="1:8" s="137" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A24" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="211" t="str">
+      <c r="B24" s="221" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
         <v>0/0</v>
       </c>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="212"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="222"/>
     </row>
     <row r="25" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="213"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="147"/>
       <c r="F25" s="147"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="215"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="225"/>
     </row>
     <row r="26" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="206" t="s">
+      <c r="A26" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="210"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="207"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="213"/>
       <c r="E26" s="145"/>
       <c r="F26" s="145"/>
-      <c r="G26" s="206" t="s">
+      <c r="G26" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="207"/>
+      <c r="H26" s="213"/>
     </row>
     <row r="27" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="206" t="s">
+      <c r="A27" s="212" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="207"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="213"/>
       <c r="E27" s="145"/>
       <c r="F27" s="145"/>
-      <c r="G27" s="206" t="s">
+      <c r="G27" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="207"/>
+      <c r="H27" s="213"/>
     </row>
     <row r="28" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A28" s="206" t="s">
+      <c r="A28" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="210"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="207"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="213"/>
       <c r="E28" s="145"/>
       <c r="F28" s="145"/>
-      <c r="G28" s="206" t="s">
+      <c r="G28" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="207"/>
+      <c r="H28" s="213"/>
     </row>
     <row r="29" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="206" t="s">
+      <c r="A29" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="207"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="213"/>
       <c r="E29" s="145"/>
       <c r="F29" s="145"/>
-      <c r="G29" s="206" t="s">
+      <c r="G29" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="207"/>
+      <c r="H29" s="213"/>
     </row>
     <row r="30" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="206" t="s">
+      <c r="A30" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="207"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="213"/>
       <c r="E30" s="145"/>
       <c r="F30" s="145"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="207"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="213"/>
     </row>
     <row r="31" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="210"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="207"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="213"/>
       <c r="E31" s="145"/>
       <c r="F31" s="145"/>
-      <c r="G31" s="206" t="str">
+      <c r="G31" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B52</f>
         <v>See 0</v>
       </c>
-      <c r="H31" s="207"/>
+      <c r="H31" s="213"/>
     </row>
     <row r="32" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="206" t="s">
+      <c r="A32" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="210"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="207"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="213"/>
       <c r="E32" s="145"/>
       <c r="F32" s="145"/>
-      <c r="G32" s="206" t="str">
+      <c r="G32" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B53</f>
         <v>See 0</v>
       </c>
-      <c r="H32" s="207"/>
+      <c r="H32" s="213"/>
     </row>
     <row r="33" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="217" t="s">
+      <c r="A33" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="218"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="219"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
       <c r="E33" s="145"/>
       <c r="F33" s="145"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="207"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="213"/>
     </row>
     <row r="34" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="220" t="s">
+      <c r="A34" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="220"/>
-      <c r="C34" s="220"/>
-      <c r="D34" s="220"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
       <c r="E34" s="146" t="s">
         <v>122</v>
       </c>
       <c r="F34" s="145"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="207"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="213"/>
     </row>
     <row r="35" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="220" t="s">
+      <c r="A35" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="220"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="220"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
       <c r="E35" s="146"/>
       <c r="F35" s="145"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="207"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="213"/>
     </row>
     <row r="36" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="221" t="s">
+      <c r="A36" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="221"/>
-      <c r="C36" s="221"/>
-      <c r="D36" s="221"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
       <c r="E36" s="146"/>
       <c r="F36" s="145"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="207"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="213"/>
     </row>
     <row r="37" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="220" t="s">
+      <c r="A37" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="220"/>
-      <c r="C37" s="220"/>
-      <c r="D37" s="220"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
       <c r="E37" s="146" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="147"/>
-      <c r="G37" s="204"/>
-      <c r="H37" s="205"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="202"/>
     </row>
     <row r="38" spans="1:10" s="137" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="222" t="s">
+      <c r="A38" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="220"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="146" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="145"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="207"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="213"/>
     </row>
     <row r="39" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="227" t="s">
+      <c r="A39" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="225" t="str">
+      <c r="B39" s="208"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="206" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
         <v>Project 1: 0 / Project 2: 0</v>
       </c>
-      <c r="E39" s="225"/>
-      <c r="F39" s="225"/>
-      <c r="G39" s="225"/>
-      <c r="H39" s="226"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="207"/>
     </row>
     <row r="40" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="202" t="s">
+      <c r="A40" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="225" t="str">
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="206" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
       </c>
-      <c r="E40" s="225"/>
-      <c r="F40" s="225"/>
-      <c r="G40" s="225"/>
-      <c r="H40" s="226"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207"/>
     </row>
     <row r="41" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="223" t="s">
+      <c r="A41" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="223"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="224"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="204"/>
       <c r="E41" s="141" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="142"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="205"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="202"/>
       <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:10" s="137" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
@@ -9955,12 +9955,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -9977,53 +10018,12 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10241,24 +10241,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="229" t="str">
+      <c r="A2" s="235" t="str">
         <f>'PC 1'!B24 &amp; " BY " &amp; 'PC 1'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="228"/>
-      <c r="B4" s="228"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="228"/>
-      <c r="B5" s="228"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10299,24 +10299,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="229" t="str">
+      <c r="A2" s="235" t="str">
         <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="228"/>
-      <c r="B4" s="228"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="228"/>
-      <c r="B5" s="228"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C91CC3-CB2E-40A4-9ECE-A3111FC7820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5082EB57-07E9-4310-9010-E3196B060AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -1849,10 +1849,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2168,6 +2164,45 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2181,12 +2216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2195,38 +2224,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2234,15 +2257,63 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2252,113 +2323,42 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4703,527 +4703,531 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.44140625" customWidth="1"/>
     <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="1.88671875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="92" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
-    </row>
-    <row r="3" spans="1:5" s="165" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="B2" s="157"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159"/>
+    </row>
+    <row r="3" spans="1:5" s="164" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="E3" s="164"/>
-    </row>
-    <row r="4" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="B3" s="163"/>
+      <c r="E3" s="163"/>
+    </row>
+    <row r="4" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="E4" s="68"/>
-    </row>
-    <row r="5" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="B4" s="67"/>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="B5" s="67"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="E6" s="68"/>
-    </row>
-    <row r="7" spans="1:5" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="B6" s="67"/>
+      <c r="E6" s="67"/>
+    </row>
+    <row r="7" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="E7" s="70"/>
-    </row>
-    <row r="8" spans="1:5" s="66" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
+      <c r="B7" s="69"/>
+      <c r="E7" s="69"/>
+    </row>
+    <row r="8" spans="1:5" s="65" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="E8" s="72"/>
-    </row>
-    <row r="9" spans="1:5" s="66" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="154"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="155"/>
+      <c r="B8" s="71"/>
+      <c r="E8" s="71"/>
+    </row>
+    <row r="9" spans="1:5" s="65" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="153"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="154"/>
     </row>
     <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="B10" s="73"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="E11" s="76"/>
+      <c r="B11" s="75"/>
+      <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="E12" s="77"/>
+      <c r="B12" s="76"/>
+      <c r="E12" s="76"/>
     </row>
     <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="B13" s="75"/>
+      <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="E14" s="77"/>
+      <c r="B14" s="76"/>
+      <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="77"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="E16" s="80"/>
-    </row>
-    <row r="17" spans="1:6" s="173" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="157" t="s">
+      <c r="B16" s="79"/>
+      <c r="E16" s="79"/>
+    </row>
+    <row r="17" spans="1:6" s="172" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="156" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="172">
+      <c r="B17" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="175">
+      <c r="D17" s="173"/>
+      <c r="E17" s="174">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="165" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="167">
+      <c r="B18" s="166">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="E18" s="167">
+      <c r="E18" s="166">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="E19" s="82"/>
+      <c r="B19" s="81"/>
+      <c r="C19" t="str">
+        <f>"(" &amp;B19&amp;")"</f>
+        <v>()</v>
+      </c>
+      <c r="E19" s="81"/>
       <c r="F19" t="str">
         <f>"(" &amp;E19&amp;")"</f>
         <v>()</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="B23" s="158"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="160"/>
+      <c r="B23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="E24" s="84"/>
+      <c r="B24" s="83"/>
+      <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="E25" s="86"/>
+      <c r="B25" s="85"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="87"/>
+      <c r="E26" s="87"/>
     </row>
     <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="E27" s="88"/>
+      <c r="B27" s="87"/>
+      <c r="E27" s="87"/>
     </row>
     <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="E28" s="88"/>
+      <c r="B28" s="87"/>
+      <c r="E28" s="87"/>
     </row>
     <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="87"/>
+      <c r="E29" s="87"/>
     </row>
     <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="87"/>
+      <c r="E30" s="87"/>
     </row>
     <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="87"/>
+      <c r="E31" s="87"/>
     </row>
     <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="E32" s="88"/>
+      <c r="B32" s="87"/>
+      <c r="E32" s="87"/>
     </row>
     <row r="33" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="B33" s="87"/>
+      <c r="E33" s="87"/>
     </row>
     <row r="34" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="E34" s="95"/>
+      <c r="B34" s="87"/>
+      <c r="E34" s="94"/>
     </row>
     <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="E35" s="96"/>
+      <c r="B35" s="87"/>
+      <c r="E35" s="95"/>
     </row>
     <row r="36" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="E36" s="94"/>
+      <c r="B36" s="89"/>
+      <c r="E36" s="93"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="158"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="160"/>
+      <c r="B39" s="157"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="159"/>
     </row>
     <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="E40" s="94"/>
+      <c r="B40" s="91"/>
+      <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="E41" s="94"/>
+      <c r="B41" s="87"/>
+      <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="E42" s="94"/>
+      <c r="B42" s="87"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="E43" s="94"/>
+      <c r="B43" s="87"/>
+      <c r="E43" s="93"/>
     </row>
     <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="E44" s="94"/>
+      <c r="B44" s="87"/>
+      <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="E45" s="88"/>
+      <c r="B45" s="87"/>
+      <c r="E45" s="87"/>
     </row>
     <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="E46" s="94"/>
+      <c r="B46" s="87"/>
+      <c r="E46" s="93"/>
     </row>
     <row r="47" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="E47" s="94"/>
+      <c r="B47" s="87"/>
+      <c r="E47" s="93"/>
     </row>
     <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="87" t="s">
+      <c r="A48" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="E48" s="94"/>
+      <c r="B48" s="87"/>
+      <c r="E48" s="93"/>
     </row>
     <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="E49" s="94"/>
+      <c r="B49" s="87"/>
+      <c r="E49" s="93"/>
     </row>
     <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="88"/>
-      <c r="E50" s="94"/>
+      <c r="B50" s="87"/>
+      <c r="E50" s="93"/>
     </row>
     <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="88"/>
-      <c r="E51" s="94"/>
+      <c r="B51" s="87"/>
+      <c r="E51" s="93"/>
     </row>
     <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="88"/>
-      <c r="E52" s="94"/>
+      <c r="B52" s="87"/>
+      <c r="E52" s="93"/>
     </row>
     <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="88"/>
-      <c r="E53" s="94"/>
+      <c r="B53" s="87"/>
+      <c r="E53" s="93"/>
     </row>
     <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="88"/>
-      <c r="E54" s="94"/>
+      <c r="B54" s="87"/>
+      <c r="E54" s="93"/>
     </row>
     <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
+      <c r="A55" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="E55" s="94"/>
+      <c r="B55" s="87"/>
+      <c r="E55" s="93"/>
     </row>
     <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="88"/>
-      <c r="E56" s="94"/>
+      <c r="B56" s="87"/>
+      <c r="E56" s="93"/>
     </row>
     <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="88"/>
-      <c r="E57" s="94"/>
+      <c r="B57" s="87"/>
+      <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="90"/>
-      <c r="E58" s="94"/>
+      <c r="B58" s="89"/>
+      <c r="E58" s="93"/>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="B61" s="158"/>
-      <c r="D61" s="159"/>
-      <c r="E61" s="161"/>
+      <c r="B61" s="157"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="160"/>
     </row>
     <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="B62" s="92"/>
-      <c r="D62" s="162"/>
+      <c r="B62" s="91"/>
+      <c r="D62" s="161"/>
     </row>
     <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="88"/>
-      <c r="D63" s="162"/>
+      <c r="B63" s="87"/>
+      <c r="D63" s="161"/>
     </row>
     <row r="64" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="153">
+      <c r="B64" s="152">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="D64" s="162"/>
+      <c r="D64" s="161"/>
     </row>
     <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="87" t="s">
+      <c r="A65" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="88"/>
-      <c r="D65" s="162"/>
+      <c r="B65" s="87"/>
+      <c r="D65" s="161"/>
     </row>
     <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="D66" s="162"/>
+      <c r="B66" s="87"/>
+      <c r="D66" s="161"/>
     </row>
     <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="88"/>
-      <c r="D67" s="162"/>
+      <c r="B67" s="87"/>
+      <c r="D67" s="161"/>
     </row>
     <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="D68" s="162"/>
-      <c r="E68" s="88"/>
+      <c r="B68" s="87"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="87"/>
     </row>
     <row r="69" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="90"/>
-      <c r="D69" s="162"/>
-      <c r="E69" s="90"/>
+      <c r="B69" s="89"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="89"/>
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="157" t="s">
+      <c r="A72" s="156" t="s">
         <v>213</v>
       </c>
-      <c r="B72" s="158"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="161"/>
+      <c r="B72" s="157"/>
+      <c r="D72" s="158"/>
+      <c r="E72" s="160"/>
     </row>
     <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="91" t="s">
+      <c r="A73" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="162"/>
+      <c r="D73" s="161"/>
     </row>
     <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="D74" s="162"/>
+      <c r="D74" s="161"/>
     </row>
     <row r="75" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="87" t="s">
+      <c r="A75" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="D75" s="162"/>
+      <c r="D75" s="161"/>
     </row>
     <row r="76" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="B76" s="90" t="s">
+      <c r="B76" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="162"/>
+      <c r="D76" s="161"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -5268,64 +5272,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="237"/>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
+      <c r="A1" s="242"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="237"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
+      <c r="A2" s="242"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="242"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
+      <c r="A6" s="242"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="238" t="str">
+      <c r="A7" s="243" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="238">
+      <c r="A9" s="243">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="236">
@@ -5370,85 +5374,85 @@
       <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="241" t="str">
+      <c r="A16" s="238" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="242" t="str">
+      <c r="A18" s="239" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="243"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="A19" s="240"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="52">
+      <c r="A21" s="51">
         <v>1</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="56">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D21" s="55" t="str">
+      <c r="D21" s="54" t="str">
         <f>'PC 1'!B1</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="52">
+      <c r="A22" s="51">
         <v>2</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="52">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="56">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="54" t="str">
         <f>'PC 2'!B1</f>
         <v/>
       </c>
@@ -5456,15 +5460,15 @@
     <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="29"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="244" t="s">
+      <c r="A24" s="241" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="244"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" s="236"/>
@@ -5487,20 +5491,20 @@
       <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="235" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="235"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="240" t="s">
+      <c r="A29" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5525,6 +5529,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5537,18 +5553,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5576,64 +5580,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="237"/>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
+      <c r="A1" s="242"/>
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="237"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
+      <c r="A2" s="242"/>
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
+      <c r="A3" s="242"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="242"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
+      <c r="A6" s="242"/>
+      <c r="B6" s="242"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="238" t="str">
+      <c r="A7" s="243" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="A8" s="237"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="238">
+      <c r="A9" s="243">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="236">
@@ -5678,85 +5682,85 @@
       <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="241" t="str">
+      <c r="A16" s="238" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="242" t="str">
+      <c r="A18" s="239" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="243"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="A19" s="240"/>
+      <c r="B19" s="240"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="240"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="52">
+      <c r="A21" s="51">
         <v>1</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="52">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="56">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D21" s="55" t="str">
+      <c r="D21" s="54" t="str">
         <f>'PC 1'!B1</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A22" s="52">
+      <c r="A22" s="51">
         <v>2</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="52">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="56">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="54" t="str">
         <f>'PC 2'!B1</f>
         <v/>
       </c>
@@ -5764,15 +5768,15 @@
     <row r="23" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A23" s="29"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="51"/>
+      <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="244" t="s">
+      <c r="A24" s="241" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="244"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" s="236"/>
@@ -5795,20 +5799,20 @@
       <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="235" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="235"/>
+      <c r="D28" s="235"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="240" t="s">
+      <c r="A29" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5833,6 +5837,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5845,18 +5861,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5870,8 +5874,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5896,159 +5900,159 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="121">
         <f>DETAILS!B10</f>
         <v>0</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-    </row>
-    <row r="3" spans="1:9" s="128" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="125" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+    </row>
+    <row r="3" spans="1:9" s="127" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="126">
+      <c r="B3" s="125">
         <f>DETAILS!B11</f>
         <v>0</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-    </row>
-    <row r="4" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="121" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+    </row>
+    <row r="4" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="129">
+      <c r="B4" s="128">
         <f>D4*B2</f>
         <v>0</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="130">
+      <c r="C4" s="122"/>
+      <c r="D4" s="129">
         <f>DETAILS!B12</f>
         <v>0</v>
       </c>
-      <c r="E4" s="123"/>
-    </row>
-    <row r="5" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="121" t="s">
+      <c r="E4" s="122"/>
+    </row>
+    <row r="5" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="122">
+      <c r="B5" s="121">
         <f>DETAILS!B13</f>
         <v>0</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-    </row>
-    <row r="6" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="121" t="s">
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+    </row>
+    <row r="6" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="129">
+      <c r="B6" s="128">
         <f>B5*D6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="130">
+      <c r="C6" s="122"/>
+      <c r="D6" s="129">
         <f>DETAILS!B14</f>
         <v>0</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="I6" s="131"/>
-    </row>
-    <row r="7" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="121" t="s">
+      <c r="E6" s="122"/>
+      <c r="I6" s="130"/>
+    </row>
+    <row r="7" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="120" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="129">
+      <c r="B7" s="128">
         <f>B5-B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-    </row>
-    <row r="8" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="121" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+    </row>
+    <row r="8" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="129">
+      <c r="B8" s="128">
         <f>D8*B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="176">
+      <c r="C8" s="122"/>
+      <c r="D8" s="175">
         <f>DETAILS!B17</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E8" s="123"/>
-    </row>
-    <row r="9" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="121" t="s">
+      <c r="E8" s="122"/>
+    </row>
+    <row r="9" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="129">
+      <c r="B9" s="128">
         <f>B7+B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-    </row>
-    <row r="10" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="121" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+    </row>
+    <row r="10" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="129">
+      <c r="B10" s="128">
         <f>B4*D10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="130">
+      <c r="C10" s="122"/>
+      <c r="D10" s="129">
         <f>DETAILS!B16</f>
         <v>0</v>
       </c>
-      <c r="E10" s="123"/>
-    </row>
-    <row r="11" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="121" t="s">
+      <c r="E10" s="122"/>
+    </row>
+    <row r="11" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="132">
+      <c r="B11" s="131">
         <f>DETAILS!B15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-    </row>
-    <row r="12" spans="1:9" s="124" customFormat="1" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="133" t="s">
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+    </row>
+    <row r="12" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="134">
+      <c r="B12" s="133">
         <f>IF(B11="Nil", B9-B10-0,B9-B10-B11)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
-      <c r="B13" s="41">
+      <c r="B13" s="244" t="str">
         <f>DETAILS!C19</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="97" t="str">
+        <v>()</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="96" t="str">
         <f>"₦"&amp;TEXT(DETAILS!B18, "#,##0.00")</f>
         <v>₦0.00</v>
       </c>
@@ -6058,12 +6062,12 @@
       <c r="A14" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -6072,7 +6076,7 @@
     <row r="16" spans="1:9" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="str">
         <f>"Certification of the sum of " &amp; D13 &amp; " " &amp; B13 &amp; " only, in favour of " &amp; B22 &amp; " is recommended, please."</f>
-        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="19"/>
@@ -6082,7 +6086,7 @@
     <row r="17" spans="1:5" s="8" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="str">
         <f>SUBSTITUTE(A16, "Certification of the ", "")</f>
-        <v>sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
+        <v>sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
       <c r="B17" s="36"/>
       <c r="C17" s="19"/>
@@ -6092,7 +6096,7 @@
     <row r="18" spans="1:5" s="8" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="str">
         <f>LEFT(SUBSTITUTE(A16,"Certification of the ",""),SEARCH("only",SUBSTITUTE(A16,"Certification of the ",""))+3)</f>
-        <v>sum of ₦0.00 0 only</v>
+        <v>sum of ₦0.00 () only</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="19"/>
@@ -6110,7 +6114,7 @@
       <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <f>DETAILS!B3</f>
         <v>0</v>
       </c>
@@ -6122,7 +6126,7 @@
       <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <f>DETAILS!B4</f>
         <v>0</v>
       </c>
@@ -6134,7 +6138,7 @@
       <c r="A22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="43">
         <f>DETAILS!B5</f>
         <v>0</v>
       </c>
@@ -6149,7 +6153,7 @@
       <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="43">
         <f>DETAILS!B7</f>
         <v>0</v>
       </c>
@@ -6159,7 +6163,7 @@
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
-      <c r="B24" s="47" t="str">
+      <c r="B24" s="46" t="str">
         <f>UPPER(B23)</f>
         <v>0</v>
       </c>
@@ -6171,7 +6175,7 @@
       <c r="A25" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="43">
         <f>DETAILS!B25</f>
         <v>0</v>
       </c>
@@ -6183,7 +6187,7 @@
       <c r="A26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="43">
         <f>DETAILS!B8</f>
         <v>0</v>
       </c>
@@ -6192,17 +6196,17 @@
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="60">
         <f>DETAILS!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="58">
         <f>DETAILS!B27</f>
         <v>0</v>
       </c>
@@ -6212,7 +6216,7 @@
       <c r="A28" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <f>DETAILS!B28</f>
         <v>0</v>
       </c>
@@ -6224,7 +6228,7 @@
       <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="43">
         <f>DETAILS!B29</f>
         <v>0</v>
       </c>
@@ -6236,7 +6240,7 @@
       <c r="A30" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="43">
         <f>DETAILS!B29</f>
         <v>0</v>
       </c>
@@ -6248,7 +6252,7 @@
       <c r="A31" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="43">
         <f>DETAILS!B30</f>
         <v>0</v>
       </c>
@@ -6260,7 +6264,7 @@
       <c r="A32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="43">
         <f>DETAILS!B31</f>
         <v>0</v>
       </c>
@@ -6272,7 +6276,7 @@
       <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="43">
         <f>DETAILS!B32</f>
         <v>0</v>
       </c>
@@ -6284,7 +6288,7 @@
       <c r="A34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="43">
         <f>DETAILS!B33</f>
         <v>0</v>
       </c>
@@ -6296,7 +6300,7 @@
       <c r="A35" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="43">
         <f>DETAILS!B34</f>
         <v>0</v>
       </c>
@@ -6308,7 +6312,7 @@
       <c r="A36" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="43">
         <f>DETAILS!B35</f>
         <v>0</v>
       </c>
@@ -6320,7 +6324,7 @@
       <c r="A37" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="43">
         <f>DETAILS!B36</f>
         <v>0</v>
       </c>
@@ -6332,7 +6336,7 @@
       <c r="A38" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="47">
         <f>DETAILS!B24</f>
         <v>0</v>
       </c>
@@ -6344,7 +6348,7 @@
       <c r="A39" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="49">
+      <c r="B39" s="48">
         <f>DETAILS!B56</f>
         <v>0</v>
       </c>
@@ -6356,7 +6360,7 @@
       <c r="A40" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="43">
         <f>DETAILS!B40</f>
         <v>0</v>
       </c>
@@ -6368,7 +6372,7 @@
       <c r="A41" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="44">
+      <c r="B41" s="43">
         <f>DETAILS!B41</f>
         <v>0</v>
       </c>
@@ -6380,7 +6384,7 @@
       <c r="A42" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="43">
         <f>DETAILS!B42</f>
         <v>0</v>
       </c>
@@ -6392,7 +6396,7 @@
       <c r="A43" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <f>DETAILS!B43</f>
         <v>0</v>
       </c>
@@ -6404,7 +6408,7 @@
       <c r="A44" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="43">
         <f>DETAILS!B44</f>
         <v>0</v>
       </c>
@@ -6416,7 +6420,7 @@
       <c r="A45" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="43">
         <f>DETAILS!B46</f>
         <v>0</v>
       </c>
@@ -6428,7 +6432,7 @@
       <c r="A46" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="43">
         <f>DETAILS!B47</f>
         <v>0</v>
       </c>
@@ -6440,7 +6444,7 @@
       <c r="A47" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="43">
         <f>DETAILS!B48</f>
         <v>0</v>
       </c>
@@ -6452,7 +6456,7 @@
       <c r="A48" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="43">
         <f>DETAILS!B49</f>
         <v>0</v>
       </c>
@@ -6464,7 +6468,7 @@
       <c r="A49" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="44">
+      <c r="B49" s="43">
         <f>DETAILS!B50</f>
         <v>0</v>
       </c>
@@ -6476,7 +6480,7 @@
       <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="43">
         <f>DETAILS!B51</f>
         <v>0</v>
       </c>
@@ -6488,7 +6492,7 @@
       <c r="A51" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="44">
+      <c r="B51" s="43">
         <f>DETAILS!B52</f>
         <v>0</v>
       </c>
@@ -6500,7 +6504,7 @@
       <c r="A52" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="43">
         <f>DETAILS!B53</f>
         <v>0</v>
       </c>
@@ -6512,7 +6516,7 @@
       <c r="A53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="43">
         <f>DETAILS!B54</f>
         <v>0</v>
       </c>
@@ -6524,7 +6528,7 @@
       <c r="A54" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="43">
         <f>DETAILS!B55</f>
         <v>0</v>
       </c>
@@ -6536,7 +6540,7 @@
       <c r="A55" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="49">
         <f>DETAILS!B45</f>
         <v>0</v>
       </c>
@@ -6548,7 +6552,7 @@
       <c r="A56" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="50">
+      <c r="B56" s="49">
         <f>DETAILS!B57</f>
         <v>0</v>
       </c>
@@ -6560,7 +6564,7 @@
       <c r="A57" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="50">
+      <c r="B57" s="49">
         <f>DETAILS!B58</f>
         <v>0</v>
       </c>
@@ -6569,7 +6573,7 @@
       <c r="A58" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="44">
         <f>DETAILS!B62</f>
         <v>0</v>
       </c>
@@ -6578,7 +6582,7 @@
       <c r="A59" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="44">
+      <c r="B59" s="43">
         <f>DETAILS!B63</f>
         <v>0</v>
       </c>
@@ -6587,7 +6591,7 @@
       <c r="A60" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="43">
         <f>DETAILS!B64</f>
         <v>0</v>
       </c>
@@ -6596,7 +6600,7 @@
       <c r="A61" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="44">
+      <c r="B61" s="43">
         <f>DETAILS!B65</f>
         <v>0</v>
       </c>
@@ -6605,7 +6609,7 @@
       <c r="A62" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="43">
         <f>DETAILS!B66</f>
         <v>0</v>
       </c>
@@ -6614,7 +6618,7 @@
       <c r="A63" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="44">
+      <c r="B63" s="43">
         <f>DETAILS!B67</f>
         <v>0</v>
       </c>
@@ -6623,7 +6627,7 @@
       <c r="A64" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B64" s="44">
+      <c r="B64" s="43">
         <f>DETAILS!B68</f>
         <v>0</v>
       </c>
@@ -6632,30 +6636,30 @@
       <c r="A65" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="44">
+      <c r="B65" s="43">
         <f>DETAILS!B69</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="62"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="62"/>
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="64" t="str">
+      <c r="B68" s="63" t="str">
         <f>DETAILS!B73</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="64" t="str">
+      <c r="B69" s="63" t="str">
         <f>DETAILS!B74</f>
         <v>PPO (MED)</v>
       </c>
@@ -6664,7 +6668,7 @@
       <c r="A70" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="64" t="str">
+      <c r="B70" s="63" t="str">
         <f>DETAILS!B75</f>
         <v xml:space="preserve">Adekunle-Famuyon, F.A </v>
       </c>
@@ -6673,14 +6677,14 @@
       <c r="A71" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="64" t="str">
+      <c r="B71" s="63" t="str">
         <f>DETAILS!B76</f>
         <v>PPO (MED)</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="m+AGpPsL0XQwe9RNC47s4O1NwJ3lO91ZNEbMzGemHT46kcNCyDQH9LCg65Yuv1tLt7jeXV9YqwtdgY30ZQgc4w==" saltValue="cVnrl15wUZg8nY0GayYv6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="10pjmZA/zfCqG9YKB00Y1scxWt0lmgvcuCejo/fVUTKbBkmushOucaripat67HXfotBz3RUYETIGh/imHePIMA==" saltValue="BZFj1m101DGjVnpz/lgm4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6694,8 +6698,8 @@
   </sheetPr>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -6719,175 +6723,175 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="98" t="s">
+    <row r="2" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="99">
+      <c r="B2" s="98">
         <f>DETAILS!E10</f>
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-    </row>
-    <row r="3" spans="1:9" s="105" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="102" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+    </row>
+    <row r="3" spans="1:9" s="104" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="103">
+      <c r="B3" s="102">
         <f>DETAILS!E11</f>
         <v>0</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-    </row>
-    <row r="4" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="98" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+    </row>
+    <row r="4" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="105">
         <f>D4*B2</f>
         <v>0</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="107">
+      <c r="C4" s="99"/>
+      <c r="D4" s="106">
         <f>DETAILS!E12</f>
         <v>0</v>
       </c>
-      <c r="E4" s="100"/>
-    </row>
-    <row r="5" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="98" t="s">
+      <c r="E4" s="99"/>
+    </row>
+    <row r="5" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="98">
         <f>DETAILS!E13</f>
         <v>0</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-    </row>
-    <row r="6" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="98" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+    </row>
+    <row r="6" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="105">
         <f>B5*D6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="107">
+      <c r="C6" s="99"/>
+      <c r="D6" s="106">
         <f>DETAILS!E14</f>
         <v>0</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="I6" s="108"/>
-    </row>
-    <row r="7" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="98" t="s">
+      <c r="E6" s="99"/>
+      <c r="I6" s="107"/>
+    </row>
+    <row r="7" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="105">
         <f>B5-B6</f>
         <v>0</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-    </row>
-    <row r="8" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="98" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+    </row>
+    <row r="8" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="106">
+      <c r="B8" s="105">
         <f>D8*B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="177">
+      <c r="C8" s="99"/>
+      <c r="D8" s="176">
         <f>DETAILS!E17</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E8" s="100"/>
-    </row>
-    <row r="9" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="98" t="s">
+      <c r="E8" s="99"/>
+    </row>
+    <row r="9" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="106">
+      <c r="B9" s="105">
         <f>B7+B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-    </row>
-    <row r="10" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="98" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+    </row>
+    <row r="10" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="105">
         <f>B4*D10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="107">
+      <c r="C10" s="99"/>
+      <c r="D10" s="106">
         <f>DETAILS!E16</f>
         <v>0</v>
       </c>
-      <c r="E10" s="100"/>
-    </row>
-    <row r="11" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="98" t="s">
+      <c r="E10" s="99"/>
+    </row>
+    <row r="11" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="109">
+      <c r="B11" s="108">
         <f>DETAILS!E15</f>
         <v>0</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-    </row>
-    <row r="12" spans="1:9" s="101" customFormat="1" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="110" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+    </row>
+    <row r="12" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="110">
         <f>IF(B11="Nil", B9-B10-0,B9-B10-B11)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-    </row>
-    <row r="13" spans="1:9" s="101" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="98"/>
-      <c r="B13" s="112" t="str">
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+    </row>
+    <row r="13" spans="1:9" s="100" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="97"/>
+      <c r="B13" s="111" t="str">
         <f>DETAILS!F19</f>
         <v>()</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="114" t="str">
+      <c r="C13" s="112"/>
+      <c r="D13" s="113" t="str">
         <f>"₦"&amp;TEXT(DETAILS!E18, "#,##0.00")</f>
         <v>₦0.00</v>
       </c>
-      <c r="E13" s="100"/>
-    </row>
-    <row r="14" spans="1:9" s="101" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="98" t="s">
+      <c r="E13" s="99"/>
+    </row>
+    <row r="14" spans="1:9" s="100" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="115">
+      <c r="B14" s="114">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="100"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B15" s="35"/>
@@ -6933,7 +6937,7 @@
       <c r="A20" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <f>DETAILS!E3</f>
         <v>0</v>
       </c>
@@ -6945,7 +6949,7 @@
       <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="43">
         <f>DETAILS!E4</f>
         <v>0</v>
       </c>
@@ -6957,7 +6961,7 @@
       <c r="A22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="43">
         <f>DETAILS!E5</f>
         <v>0</v>
       </c>
@@ -6972,7 +6976,7 @@
       <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="43">
         <f>DETAILS!E7</f>
         <v>0</v>
       </c>
@@ -6982,7 +6986,7 @@
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21"/>
-      <c r="B24" s="47" t="str">
+      <c r="B24" s="46" t="str">
         <f>UPPER(B23)</f>
         <v>0</v>
       </c>
@@ -6994,7 +6998,7 @@
       <c r="A25" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="43">
         <f>DETAILS!E25</f>
         <v>0</v>
       </c>
@@ -7006,7 +7010,7 @@
       <c r="A26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="43">
         <f>DETAILS!E8</f>
         <v>0</v>
       </c>
@@ -7015,17 +7019,17 @@
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61">
+      <c r="B27" s="60">
         <f>DETAILS!E26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="58">
         <f>DETAILS!E27</f>
         <v>0</v>
       </c>
@@ -7035,7 +7039,7 @@
       <c r="A28" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <f>DETAILS!E28</f>
         <v>0</v>
       </c>
@@ -7047,7 +7051,7 @@
       <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="43">
         <f>DETAILS!E29</f>
         <v>0</v>
       </c>
@@ -7059,7 +7063,7 @@
       <c r="A30" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="43">
         <f>DETAILS!E29</f>
         <v>0</v>
       </c>
@@ -7071,7 +7075,7 @@
       <c r="A31" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="43">
         <f>DETAILS!E30</f>
         <v>0</v>
       </c>
@@ -7083,7 +7087,7 @@
       <c r="A32" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="43">
         <f>DETAILS!E31</f>
         <v>0</v>
       </c>
@@ -7095,7 +7099,7 @@
       <c r="A33" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="43">
         <f>DETAILS!E32</f>
         <v>0</v>
       </c>
@@ -7107,7 +7111,7 @@
       <c r="A34" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="43">
         <f>DETAILS!E33</f>
         <v>0</v>
       </c>
@@ -7119,7 +7123,7 @@
       <c r="A35" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="44">
+      <c r="B35" s="43">
         <f>DETAILS!E34</f>
         <v>0</v>
       </c>
@@ -7131,7 +7135,7 @@
       <c r="A36" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="116">
+      <c r="B36" s="115">
         <f>DETAILS!E35</f>
         <v>0</v>
       </c>
@@ -7143,7 +7147,7 @@
       <c r="A37" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="116">
+      <c r="B37" s="115">
         <f>DETAILS!E36</f>
         <v>0</v>
       </c>
@@ -7155,7 +7159,7 @@
       <c r="A38" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="117">
+      <c r="B38" s="116">
         <f>DETAILS!E24</f>
         <v>0</v>
       </c>
@@ -7167,7 +7171,7 @@
       <c r="A39" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B39" s="118">
+      <c r="B39" s="117">
         <f>DETAILS!E56</f>
         <v>0</v>
       </c>
@@ -7179,7 +7183,7 @@
       <c r="A40" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="116">
+      <c r="B40" s="115">
         <f>DETAILS!E40</f>
         <v>0</v>
       </c>
@@ -7191,7 +7195,7 @@
       <c r="A41" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="116">
+      <c r="B41" s="115">
         <f>DETAILS!E41</f>
         <v>0</v>
       </c>
@@ -7203,7 +7207,7 @@
       <c r="A42" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="116">
+      <c r="B42" s="115">
         <f>DETAILS!E42</f>
         <v>0</v>
       </c>
@@ -7215,7 +7219,7 @@
       <c r="A43" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <f>DETAILS!E43</f>
         <v>0</v>
       </c>
@@ -7227,7 +7231,7 @@
       <c r="A44" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="116">
+      <c r="B44" s="115">
         <f>DETAILS!E44</f>
         <v>0</v>
       </c>
@@ -7239,7 +7243,7 @@
       <c r="A45" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="116">
+      <c r="B45" s="115">
         <f>DETAILS!E46</f>
         <v>0</v>
       </c>
@@ -7251,7 +7255,7 @@
       <c r="A46" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="116">
+      <c r="B46" s="115">
         <f>DETAILS!E47</f>
         <v>0</v>
       </c>
@@ -7263,7 +7267,7 @@
       <c r="A47" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="116">
+      <c r="B47" s="115">
         <f>DETAILS!E48</f>
         <v>0</v>
       </c>
@@ -7275,7 +7279,7 @@
       <c r="A48" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <f>DETAILS!E49</f>
         <v>0</v>
       </c>
@@ -7287,7 +7291,7 @@
       <c r="A49" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="116">
+      <c r="B49" s="115">
         <f>DETAILS!E50</f>
         <v>0</v>
       </c>
@@ -7299,7 +7303,7 @@
       <c r="A50" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="116">
+      <c r="B50" s="115">
         <f>DETAILS!E51</f>
         <v>0</v>
       </c>
@@ -7311,7 +7315,7 @@
       <c r="A51" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="116">
+      <c r="B51" s="115">
         <f>DETAILS!E52</f>
         <v>0</v>
       </c>
@@ -7323,7 +7327,7 @@
       <c r="A52" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="116">
+      <c r="B52" s="115">
         <f>DETAILS!E53</f>
         <v>0</v>
       </c>
@@ -7335,7 +7339,7 @@
       <c r="A53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <f>DETAILS!E54</f>
         <v>0</v>
       </c>
@@ -7347,7 +7351,7 @@
       <c r="A54" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="116">
+      <c r="B54" s="115">
         <f>DETAILS!E55</f>
         <v>0</v>
       </c>
@@ -7359,7 +7363,7 @@
       <c r="A55" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="119">
+      <c r="B55" s="118">
         <f>DETAILS!E45</f>
         <v>0</v>
       </c>
@@ -7371,7 +7375,7 @@
       <c r="A56" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="119">
+      <c r="B56" s="118">
         <f>DETAILS!E57</f>
         <v>0</v>
       </c>
@@ -7383,7 +7387,7 @@
       <c r="A57" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="119">
+      <c r="B57" s="118">
         <f>DETAILS!E58</f>
         <v>0</v>
       </c>
@@ -7392,7 +7396,7 @@
       <c r="A58" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="120">
+      <c r="B58" s="119">
         <f>DETAILS!E62</f>
         <v>0</v>
       </c>
@@ -7401,7 +7405,7 @@
       <c r="A59" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="116">
+      <c r="B59" s="115">
         <f>DETAILS!E63</f>
         <v>0</v>
       </c>
@@ -7410,7 +7414,7 @@
       <c r="A60" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="116">
+      <c r="B60" s="115">
         <f>DETAILS!E64</f>
         <v>0</v>
       </c>
@@ -7419,7 +7423,7 @@
       <c r="A61" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="116">
+      <c r="B61" s="115">
         <f>DETAILS!E65</f>
         <v>0</v>
       </c>
@@ -7428,7 +7432,7 @@
       <c r="A62" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="116">
+      <c r="B62" s="115">
         <f>DETAILS!E66</f>
         <v>0</v>
       </c>
@@ -7437,7 +7441,7 @@
       <c r="A63" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <f>DETAILS!E67</f>
         <v>0</v>
       </c>
@@ -7446,7 +7450,7 @@
       <c r="A64" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B64" s="116">
+      <c r="B64" s="115">
         <f>DETAILS!E68</f>
         <v>0</v>
       </c>
@@ -7455,7 +7459,7 @@
       <c r="A65" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="116">
+      <c r="B65" s="115">
         <f>DETAILS!E69</f>
         <v>0</v>
       </c>
@@ -7464,23 +7468,23 @@
       <c r="B66" s="38"/>
     </row>
     <row r="67" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="62"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="62"/>
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B68" s="152">
+      <c r="B68" s="151">
         <f>DETAILS!E73</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="152">
+      <c r="B69" s="151">
         <f>DETAILS!E74</f>
         <v>0</v>
       </c>
@@ -7489,16 +7493,16 @@
       <c r="A70" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B70" s="152">
+      <c r="B70" s="151">
         <f>DETAILS!E75</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="65" t="s">
+      <c r="A71" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="152">
+      <c r="B71" s="151">
         <f>DETAILS!E76</f>
         <v>0</v>
       </c>
@@ -7507,7 +7511,7 @@
       <c r="B72" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="uBaknAghFtvxbdGfbISKG8fis1oZpqc53dCFcBVvSswSIRDC6v0D8HISRRnuN5SnyuRkhihgxUoq8JSGwlKgvw==" saltValue="B6l53YC8/BCHHi/5Lvsu3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GQ6N+swkL0CFivZ402xnZNcrs7HH/dLZ416T7S945NKDo64ayaqUajtGLoNeIUjKHq+7w9Am8tIMA1c6+1XcNQ==" saltValue="wBKVkgFcZd75WDaPq7Hxdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7544,79 +7548,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="188">
+      <c r="A2" s="179">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7625,16 +7629,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="181">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -7643,16 +7647,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="178">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -7661,16 +7665,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="178">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -7679,16 +7683,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="183">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -7697,16 +7701,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="178">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -7715,16 +7719,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="178">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -7733,16 +7737,16 @@
       <c r="B14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="193">
+      <c r="C14" s="178">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -7751,16 +7755,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="193">
+      <c r="C15" s="178">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -7769,16 +7773,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="178">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -7787,16 +7791,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="193">
+      <c r="C17" s="178">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -7805,16 +7809,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="193">
+      <c r="C18" s="178">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -7823,16 +7827,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="178">
+      <c r="C19" s="177">
         <f>'PC 1'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -7841,16 +7845,16 @@
       <c r="B20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="178">
+      <c r="C20" s="177">
         <f>'PC 1'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -7859,16 +7863,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="178">
+      <c r="C21" s="177">
         <f>'PC 1'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -7877,16 +7881,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="178">
+      <c r="C22" s="177">
         <f>'PC 1'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -7895,16 +7899,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="178">
+      <c r="C23" s="177">
         <f>'PC 1'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -7913,16 +7917,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="191">
+      <c r="C24" s="192">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -7931,16 +7935,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="193">
+      <c r="C25" s="178">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -7949,16 +7953,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="178">
+      <c r="C26" s="177">
         <f>'PC 1'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -7967,16 +7971,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="178">
+      <c r="C27" s="177">
         <f>'PC 1'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -7985,16 +7989,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="178">
+      <c r="C28" s="177">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -8003,328 +8007,328 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="189" t="s">
+      <c r="A32" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="189" t="s">
+      <c r="A37" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="195" t="str">
+      <c r="A38" s="185" t="str">
         <f>'PC 1'!A16</f>
-        <v>Certification of the sum of ₦0.00 0 only, in favour of 0 is recommended, please.</v>
-      </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
+        <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
+      </c>
+      <c r="B38" s="185"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
+      <c r="A39" s="185"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="195"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="198"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="198"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="197" t="s">
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="196" t="s">
+      <c r="A44" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="196"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="194" t="str">
+      <c r="B44" s="186"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="184" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="184"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="184"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="194" t="str">
+      <c r="B45" s="186"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="184" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="186">
+      <c r="A46" s="195"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="198">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="198"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="182" t="s">
+      <c r="A47" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="182"/>
-      <c r="B49" s="182"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="182"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="182"/>
+      <c r="A49" s="196"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="196"/>
+      <c r="E49" s="196"/>
+      <c r="F49" s="196"/>
+      <c r="G49" s="196"/>
+      <c r="H49" s="196"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="183" t="s">
+      <c r="A50" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="184"/>
-      <c r="C50" s="185" t="s">
+      <c r="B50" s="191"/>
+      <c r="C50" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="182"/>
-      <c r="E50" s="187" t="s">
+      <c r="D50" s="196"/>
+      <c r="E50" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
+      <c r="F50" s="199"/>
+      <c r="G50" s="199"/>
+      <c r="H50" s="199"/>
+      <c r="I50" s="199"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="180" t="s">
+      <c r="B51" s="193"/>
+      <c r="C51" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="188" t="s">
+      <c r="D51" s="194"/>
+      <c r="E51" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="179"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="179" t="s">
+      <c r="A52" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="179"/>
-      <c r="C52" s="180" t="s">
+      <c r="B52" s="193"/>
+      <c r="C52" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="180"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="194"/>
+      <c r="E52" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="179"/>
+      <c r="H52" s="179"/>
+      <c r="I52" s="179"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8333,46 +8337,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T45iWvNsr1hGkYSAl60cPBBGEmTqPHx7n0KlTBgAQMIMqWHejcg1l6z16ijGNlfOp0B0e97qSW8giO8aPp12sA==" saltValue="ZO+Z89g6yR6WPkMr+p99cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -8389,6 +8353,46 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8428,79 +8432,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="188">
+      <c r="A2" s="179">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8509,16 +8513,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="181">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -8527,16 +8531,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="178">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -8545,16 +8549,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="178">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -8563,16 +8567,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="183">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -8581,16 +8585,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="178">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -8599,16 +8603,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="178">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -8617,16 +8621,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="193">
+      <c r="C14" s="178">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -8635,16 +8639,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="193">
+      <c r="C15" s="178">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -8653,16 +8657,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="178">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -8671,16 +8675,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="193">
+      <c r="C17" s="178">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -8689,16 +8693,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="193">
+      <c r="C18" s="178">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -8707,16 +8711,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="178">
+      <c r="C19" s="177">
         <f>'PC 2'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -8725,16 +8729,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="178">
+      <c r="C20" s="177">
         <f>'PC 2'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -8743,16 +8747,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="178">
+      <c r="C21" s="177">
         <f>'PC 2'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -8761,16 +8765,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="178">
+      <c r="C22" s="177">
         <f>'PC 2'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -8779,16 +8783,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="178">
+      <c r="C23" s="177">
         <f>'PC 2'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -8797,16 +8801,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="191">
+      <c r="C24" s="192">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -8815,16 +8819,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="193">
+      <c r="C25" s="178">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8833,16 +8837,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="178">
+      <c r="C26" s="177">
         <f>'PC 2'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -8851,16 +8855,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="178">
+      <c r="C27" s="177">
         <f>'PC 2'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -8869,16 +8873,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="178">
+      <c r="C28" s="177">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -8887,316 +8891,316 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="178" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="189" t="s">
+      <c r="A32" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
+      <c r="C34" s="182"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="182"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="182"/>
+      <c r="I34" s="182"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="182"/>
+      <c r="I35" s="182"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="182" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="189" t="s">
+      <c r="A37" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="195" t="str">
+      <c r="A38" s="185" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
+      <c r="A39" s="185"/>
+      <c r="B39" s="185"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="195"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="198"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="198"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
+      <c r="A42" s="189"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="197" t="s">
+      <c r="B43" s="191"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="196" t="s">
+      <c r="A44" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="196"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="194" t="str">
+      <c r="B44" s="186"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="184" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="184"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="184"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="186" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="194" t="str">
+      <c r="B45" s="186"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="184" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="186">
+      <c r="A46" s="195"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="198">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="198"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
+      <c r="A47" s="196"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="196"/>
+      <c r="F48" s="196"/>
+      <c r="G48" s="196"/>
+      <c r="H48" s="196"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="184"/>
-      <c r="C49" s="185" t="s">
+      <c r="B49" s="191"/>
+      <c r="C49" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="182"/>
-      <c r="E49" s="187" t="s">
+      <c r="D49" s="196"/>
+      <c r="E49" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="179"/>
-      <c r="C50" s="180" t="s">
+      <c r="B50" s="193"/>
+      <c r="C50" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="188" t="s">
+      <c r="D50" s="194"/>
+      <c r="E50" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="179"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="179"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="180" t="s">
+      <c r="B51" s="193"/>
+      <c r="C51" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="188" t="s">
+      <c r="D51" s="194"/>
+      <c r="E51" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="179"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9205,6 +9209,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wSi01L1jKFu+/KQxITGp8tiq0szckHTaxzJLu072ahrMN6+Ye2bpNLJt+by28nnvUGN3JJff6DAJRDUOkK4L2A==" saltValue="nV0vD9TDN1ZfxYMKAhZBXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -9221,46 +9265,6 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9293,715 +9297,674 @@
     <col min="9" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="227" t="s">
+    <row r="1" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-    </row>
-    <row r="2" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="227" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+    </row>
+    <row r="2" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="203" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-    </row>
-    <row r="3" spans="1:8" s="136" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="227" t="s">
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+    </row>
+    <row r="3" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="203" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-    </row>
-    <row r="4" spans="1:8" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="228"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
-    </row>
-    <row r="5" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A5" s="138" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+    </row>
+    <row r="4" spans="1:8" s="135" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="213"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+    </row>
+    <row r="5" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A5" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="229">
+      <c r="B5" s="214">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="138" t="s">
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="168">
+      <c r="H5" s="167">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="137" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A6" s="138" t="s">
+    <row r="6" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A6" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="229">
+      <c r="B6" s="214">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="168"/>
-    </row>
-    <row r="7" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
-      <c r="A7" s="138" t="s">
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="167"/>
+    </row>
+    <row r="7" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
+      <c r="A7" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="229">
+      <c r="B7" s="214">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="139" t="s">
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="138" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="140" t="str">
+      <c r="H7" s="139" t="str">
         <f>'PC 1'!B27 &amp; "/" &amp; 'PC 2'!B27</f>
         <v>0/0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
-      <c r="A8" s="138" t="s">
+    <row r="8" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
+      <c r="A8" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="230" t="str">
+      <c r="B8" s="204" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="139" t="s">
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="138" t="s">
         <v>218</v>
       </c>
-      <c r="H8" s="140" t="str">
+      <c r="H8" s="139" t="str">
         <f>'PC 1'!B30 &amp; "/" &amp; 'PC 2'!B30</f>
         <v>0/0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
-      <c r="A9" s="138" t="s">
+    <row r="9" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
+      <c r="A9" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="231" t="str">
+      <c r="B9" s="205" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
         <v>0/0</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="139" t="s">
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="H9" s="169" t="s">
+      <c r="H9" s="168" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="137" customFormat="1" ht="96" x14ac:dyDescent="0.85">
-      <c r="A10" s="139" t="s">
+    <row r="10" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
+      <c r="A10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="230">
+      <c r="B10" s="204">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="139" t="s">
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="140" t="str">
+      <c r="H10" s="139" t="str">
         <f>'PC 1'!B1 &amp; "/" &amp; 'PC 2'!B1</f>
         <v>/</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="137" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
-      <c r="A11" s="138" t="s">
+    <row r="11" spans="1:8" s="136" customFormat="1" ht="48.6" x14ac:dyDescent="0.85">
+      <c r="A11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-    </row>
-    <row r="12" spans="1:8" s="137" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="227"/>
-      <c r="B12" s="227"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
-    </row>
-    <row r="13" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="232" t="s">
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+    </row>
+    <row r="12" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A12" s="203"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+    </row>
+    <row r="13" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A13" s="206" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="135" t="s">
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="135" t="s">
+      <c r="F13" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="201" t="s">
+      <c r="G13" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="202"/>
-    </row>
-    <row r="14" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="218" t="s">
+      <c r="H13" s="210"/>
+    </row>
+    <row r="14" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A14" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="220"/>
-      <c r="E14" s="141" t="s">
+      <c r="B14" s="201"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="142"/>
-      <c r="G14" s="212" t="str">
+      <c r="F14" s="141"/>
+      <c r="G14" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B48</f>
         <v>See 0</v>
       </c>
-      <c r="H14" s="213"/>
-    </row>
-    <row r="15" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="218" t="s">
+      <c r="H14" s="212"/>
+    </row>
+    <row r="15" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A15" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="219"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="141" t="s">
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="142"/>
-      <c r="G15" s="212" t="str">
+      <c r="F15" s="141"/>
+      <c r="G15" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B42</f>
         <v>See 0</v>
       </c>
-      <c r="H15" s="213"/>
-    </row>
-    <row r="16" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="218" t="s">
+      <c r="H15" s="212"/>
+    </row>
+    <row r="16" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A16" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="220"/>
-      <c r="E16" s="141" t="s">
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="212" t="str">
+      <c r="F16" s="141"/>
+      <c r="G16" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B43</f>
         <v>See 0</v>
       </c>
-      <c r="H16" s="213"/>
-    </row>
-    <row r="17" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="218" t="s">
+      <c r="H16" s="212"/>
+    </row>
+    <row r="17" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A17" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="141" t="s">
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="212" t="str">
+      <c r="F17" s="141"/>
+      <c r="G17" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H17" s="213"/>
-    </row>
-    <row r="18" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="218">
+      <c r="H17" s="212"/>
+    </row>
+    <row r="18" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A18" s="200">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="141" t="s">
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="142"/>
-      <c r="G18" s="212" t="str">
+      <c r="F18" s="141"/>
+      <c r="G18" s="211" t="str">
         <f>"See " &amp;'PC 1'!B45</f>
         <v>See 0</v>
       </c>
-      <c r="H18" s="213"/>
-    </row>
-    <row r="19" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="218" t="s">
+      <c r="H18" s="212"/>
+    </row>
+    <row r="19" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A19" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141" t="s">
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="212" t="str">
+      <c r="G19" s="211" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
         <v>See 0</v>
       </c>
-      <c r="H19" s="213"/>
-    </row>
-    <row r="20" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="218" t="s">
+      <c r="H19" s="212"/>
+    </row>
+    <row r="20" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A20" s="200" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141" t="s">
+      <c r="B20" s="201"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="212" t="str">
+      <c r="G20" s="211" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
         <v>See 0</v>
       </c>
-      <c r="H20" s="213"/>
-    </row>
-    <row r="21" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="218" t="s">
+      <c r="H20" s="212"/>
+    </row>
+    <row r="21" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A21" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="212" t="str">
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="211" t="str">
         <f>IF('PC 1'!B47="N/A","N/A","See " &amp; 'PC 1'!B47)</f>
         <v>See 0</v>
       </c>
-      <c r="H21" s="213"/>
-    </row>
-    <row r="22" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="218" t="s">
+      <c r="H21" s="212"/>
+    </row>
+    <row r="22" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A22" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="220"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="141" t="s">
+      <c r="B22" s="201"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="212" t="str">
+      <c r="G22" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
         <v>See 0</v>
       </c>
-      <c r="H22" s="213"/>
-    </row>
-    <row r="23" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="218" t="s">
+      <c r="H22" s="212"/>
+    </row>
+    <row r="23" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A23" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="212" t="str">
+      <c r="B23" s="221"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H23" s="213"/>
-    </row>
-    <row r="24" spans="1:8" s="137" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A24" s="143" t="s">
+      <c r="H23" s="212"/>
+    </row>
+    <row r="24" spans="1:8" s="136" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A24" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="221" t="str">
+      <c r="B24" s="216" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
         <v>0/0</v>
       </c>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="222"/>
-    </row>
-    <row r="25" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="201" t="s">
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="217"/>
+    </row>
+    <row r="25" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A25" s="209" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="225"/>
-    </row>
-    <row r="26" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="212" t="s">
+      <c r="B25" s="218"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="220"/>
+    </row>
+    <row r="26" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A26" s="211" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="214"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="212" t="s">
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="213"/>
-    </row>
-    <row r="27" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="212" t="s">
+      <c r="H26" s="212"/>
+    </row>
+    <row r="27" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A27" s="211" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="212" t="s">
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="213"/>
-    </row>
-    <row r="28" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A28" s="212" t="s">
+      <c r="H27" s="212"/>
+    </row>
+    <row r="28" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A28" s="211" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="212" t="s">
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="213"/>
-    </row>
-    <row r="29" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="212" t="s">
+      <c r="H28" s="212"/>
+    </row>
+    <row r="29" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A29" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="214"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="212" t="s">
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="211" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="213"/>
-    </row>
-    <row r="30" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="212" t="s">
+      <c r="H29" s="212"/>
+    </row>
+    <row r="30" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A30" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="214"/>
-      <c r="C30" s="214"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="213"/>
-    </row>
-    <row r="31" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="212" t="s">
+      <c r="B30" s="215"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="212"/>
+    </row>
+    <row r="31" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A31" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="212" t="str">
+      <c r="B31" s="215"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B52</f>
         <v>See 0</v>
       </c>
-      <c r="H31" s="213"/>
-    </row>
-    <row r="32" spans="1:8" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="212" t="s">
+      <c r="H31" s="212"/>
+    </row>
+    <row r="32" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A32" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="214"/>
-      <c r="C32" s="214"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="212" t="str">
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="211" t="str">
         <f>"See " &amp; 'PC 1'!B53</f>
         <v>See 0</v>
       </c>
-      <c r="H32" s="213"/>
-    </row>
-    <row r="33" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="215" t="s">
+      <c r="H32" s="212"/>
+    </row>
+    <row r="33" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A33" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="213"/>
-    </row>
-    <row r="34" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="210" t="s">
+      <c r="B33" s="223"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="212"/>
+    </row>
+    <row r="34" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A34" s="225" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="210"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="146" t="s">
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="145"/>
-      <c r="G34" s="212"/>
-      <c r="H34" s="213"/>
-    </row>
-    <row r="35" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="210" t="s">
+      <c r="F34" s="144"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="212"/>
+    </row>
+    <row r="35" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A35" s="225" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="212"/>
-      <c r="H35" s="213"/>
-    </row>
-    <row r="36" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="209" t="s">
+      <c r="B35" s="225"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="225"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="212"/>
+    </row>
+    <row r="36" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A36" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="209"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="213"/>
-    </row>
-    <row r="37" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="210" t="s">
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="212"/>
+    </row>
+    <row r="37" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A37" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="210"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="146" t="s">
+      <c r="B37" s="225"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="225"/>
+      <c r="E37" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="147"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="202"/>
-    </row>
-    <row r="38" spans="1:10" s="137" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="211" t="s">
+      <c r="F37" s="146"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="210"/>
+    </row>
+    <row r="38" spans="1:10" s="136" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A38" s="227" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="210"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
-      <c r="E38" s="146" t="s">
+      <c r="B38" s="225"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="225"/>
+      <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="145"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="213"/>
-    </row>
-    <row r="39" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="208" t="s">
+      <c r="F38" s="144"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="212"/>
+    </row>
+    <row r="39" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A39" s="232" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="208"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="206" t="str">
+      <c r="B39" s="232"/>
+      <c r="C39" s="232"/>
+      <c r="D39" s="230" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
         <v>Project 1: 0 / Project 2: 0</v>
       </c>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="207"/>
-    </row>
-    <row r="40" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="205" t="s">
+      <c r="E39" s="230"/>
+      <c r="F39" s="230"/>
+      <c r="G39" s="230"/>
+      <c r="H39" s="231"/>
+    </row>
+    <row r="40" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A40" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="206" t="str">
+      <c r="B40" s="207"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="230" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
       </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="207"/>
-    </row>
-    <row r="41" spans="1:10" s="137" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="203" t="s">
+      <c r="E40" s="230"/>
+      <c r="F40" s="230"/>
+      <c r="G40" s="230"/>
+      <c r="H40" s="231"/>
+    </row>
+    <row r="41" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A41" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="203"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="141" t="s">
+      <c r="B41" s="228"/>
+      <c r="C41" s="228"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="142"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="202"/>
-      <c r="J41" s="148"/>
-    </row>
-    <row r="42" spans="1:10" s="137" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A42" s="149" t="s">
+      <c r="F41" s="141"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="210"/>
+      <c r="J41" s="147"/>
+    </row>
+    <row r="42" spans="1:10" s="136" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A42" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="137" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A43" s="150" t="s">
+    <row r="43" spans="1:10" s="136" customFormat="1" ht="96.6" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A43" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="150" t="s">
+      <c r="D43" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-    </row>
-    <row r="44" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A44" s="149" t="str">
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+    </row>
+    <row r="44" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A44" s="148" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="D44" s="137" t="str">
+      <c r="D44" s="136" t="str">
         <f>'PC 1'!B70</f>
         <v xml:space="preserve">Adekunle-Famuyon, F.A </v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A45" s="149" t="str">
+    <row r="45" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A45" s="148" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="D45" s="149" t="str">
+      <c r="D45" s="148" t="str">
         <f>'PC 1'!B71</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-    </row>
-    <row r="46" spans="1:10" s="137" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A46" s="151">
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+    </row>
+    <row r="46" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="A46" s="150">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -10018,12 +9981,53 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10138,7 +10142,7 @@
     <row r="22" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="str">
         <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
-        <v>•    Project 1: sum of ₦0.00 0 only in favour of 0. This represents  due to the Contractor.</v>
+        <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
@@ -10241,24 +10245,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="235" t="str">
+      <c r="A2" s="234" t="str">
         <f>'PC 1'!B24 &amp; " BY " &amp; 'PC 1'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="234"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10299,24 +10303,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="235" t="str">
+      <c r="A2" s="234" t="str">
         <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
+      <c r="A3" s="233"/>
+      <c r="B3" s="233"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
+      <c r="A4" s="233"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="234"/>
-      <c r="B5" s="234"/>
+      <c r="A5" s="233"/>
+      <c r="B5" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5082EB57-07E9-4310-9010-E3196B060AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC1B5E-4796-4E75-8E9F-9C9EB4B12397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">APPROVAL!$A$1:$D$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">CHECKLIST!$A$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">MEMO!$A$1:$A$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">MEMO!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2161,204 +2161,204 @@
     <xf numFmtId="10" fontId="30" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4703,10 +4703,10 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -5142,9 +5142,9 @@
       <c r="A64" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="152">
-        <f>B3</f>
-        <v>0</v>
+      <c r="B64" s="152" t="str">
+        <f>B3&amp;","</f>
+        <v>,</v>
       </c>
       <c r="D64" s="161"/>
     </row>
@@ -5245,9 +5245,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B64" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5272,69 +5269,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="242"/>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="A1" s="237"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="242"/>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="242"/>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="242"/>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="242"/>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="242"/>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="243" t="str">
+      <c r="A7" s="238" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="237"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="243">
+      <c r="A9" s="238">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="236">
+      <c r="A10" s="236" t="str">
         <f>'PC 1'!B60</f>
-        <v>0</v>
+        <v>,</v>
       </c>
       <c r="B10" s="236"/>
       <c r="C10" s="236"/>
@@ -5374,40 +5371,40 @@
       <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="238" t="str">
+      <c r="A16" s="241" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="239" t="str">
+      <c r="A18" s="242" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="240"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
@@ -5463,12 +5460,12 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" s="236"/>
@@ -5491,20 +5488,20 @@
       <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="235" t="s">
+      <c r="A28" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5529,6 +5526,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5541,18 +5550,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5580,69 +5577,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="242"/>
-      <c r="B1" s="242"/>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
+      <c r="A1" s="237"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="242"/>
-      <c r="B2" s="242"/>
-      <c r="C2" s="242"/>
-      <c r="D2" s="242"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="242"/>
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="242"/>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="242"/>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="242"/>
-      <c r="B6" s="242"/>
-      <c r="C6" s="242"/>
-      <c r="D6" s="242"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="243" t="str">
+      <c r="A7" s="238" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="237"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="243">
+      <c r="A9" s="238">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
-      <c r="D9" s="243"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="236">
+      <c r="A10" s="236" t="str">
         <f>'PC 1'!B60</f>
-        <v>0</v>
+        <v>,</v>
       </c>
       <c r="B10" s="236"/>
       <c r="C10" s="236"/>
@@ -5682,40 +5679,40 @@
       <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="237" t="s">
+      <c r="A15" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="238" t="str">
+      <c r="A16" s="241" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="238"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="239" t="str">
+      <c r="A18" s="242" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="240"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="240"/>
-      <c r="D19" s="240"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
@@ -5771,12 +5768,12 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="241"/>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A25" s="236"/>
@@ -5799,20 +5796,20 @@
       <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="235" t="s">
+      <c r="A28" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="235"/>
-      <c r="C28" s="235"/>
-      <c r="D28" s="235"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="235"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="235"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5837,6 +5834,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5849,18 +5858,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23"/>
-      <c r="B13" s="244" t="str">
+      <c r="B13" s="177" t="str">
         <f>DETAILS!C19</f>
         <v>()</v>
       </c>
@@ -6591,9 +6588,9 @@
       <c r="A60" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="43" t="str">
         <f>DETAILS!B64</f>
-        <v>0</v>
+        <v>,</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
@@ -7548,79 +7545,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="179">
+      <c r="A2" s="188">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7629,16 +7626,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="181">
+      <c r="C8" s="192">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -7647,16 +7644,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="178">
+      <c r="C9" s="193">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -7665,16 +7662,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="178">
+      <c r="C10" s="193">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -7683,16 +7680,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="183">
+      <c r="C11" s="200">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -7701,16 +7698,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="178">
+      <c r="C12" s="193">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -7719,16 +7716,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="178">
+      <c r="C13" s="193">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -7737,16 +7734,16 @@
       <c r="B14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="178">
+      <c r="C14" s="193">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -7755,16 +7752,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="178">
+      <c r="C15" s="193">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -7773,16 +7770,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="178">
+      <c r="C16" s="193">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -7791,16 +7788,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="178">
+      <c r="C17" s="193">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -7809,16 +7806,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="178">
+      <c r="C18" s="193">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -7827,16 +7824,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="177">
+      <c r="C19" s="178">
         <f>'PC 1'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -7845,16 +7842,16 @@
       <c r="B20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="178">
         <f>'PC 1'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -7863,16 +7860,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="177">
+      <c r="C21" s="178">
         <f>'PC 1'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -7881,16 +7878,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="177">
+      <c r="C22" s="178">
         <f>'PC 1'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -7899,16 +7896,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="177">
+      <c r="C23" s="178">
         <f>'PC 1'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -7917,16 +7914,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="192">
+      <c r="C24" s="191">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -7935,16 +7932,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="178">
+      <c r="C25" s="193">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -7953,16 +7950,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="178">
         <f>'PC 1'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -7971,16 +7968,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="177">
+      <c r="C27" s="178">
         <f>'PC 1'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -7989,16 +7986,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="177">
+      <c r="C28" s="178">
         <f>'PC 1'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -8007,328 +8004,328 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="178" t="s">
+      <c r="C29" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="182"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="185" t="str">
+      <c r="A38" s="195" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="185"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="185"/>
-      <c r="B39" s="185"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="185"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="189"/>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="189"/>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="187" t="s">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="184" t="str">
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="194" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="184"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="184"/>
-      <c r="I44" s="184"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="184" t="str">
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="194" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="184"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="184"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="194"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="195"/>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="198">
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="186">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="196" t="s">
+      <c r="A47" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="196"/>
-      <c r="B48" s="196"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="196"/>
-      <c r="B49" s="196"/>
-      <c r="C49" s="196"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="196"/>
-      <c r="F49" s="196"/>
-      <c r="G49" s="196"/>
-      <c r="H49" s="196"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="182"/>
+      <c r="F49" s="182"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="182"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="190" t="s">
+      <c r="A50" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="191"/>
-      <c r="C50" s="197" t="s">
+      <c r="B50" s="184"/>
+      <c r="C50" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="196"/>
-      <c r="E50" s="199" t="s">
+      <c r="D50" s="182"/>
+      <c r="E50" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="199"/>
-      <c r="G50" s="199"/>
-      <c r="H50" s="199"/>
-      <c r="I50" s="199"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="193" t="s">
+      <c r="A51" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="194" t="s">
+      <c r="B51" s="179"/>
+      <c r="C51" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="194"/>
-      <c r="E51" s="179" t="s">
+      <c r="D51" s="180"/>
+      <c r="E51" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="179"/>
-      <c r="G51" s="179"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="179"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="193" t="s">
+      <c r="A52" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="193"/>
-      <c r="C52" s="194" t="s">
+      <c r="B52" s="179"/>
+      <c r="C52" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="194"/>
-      <c r="E52" s="179" t="s">
+      <c r="D52" s="180"/>
+      <c r="E52" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="179"/>
-      <c r="G52" s="179"/>
-      <c r="H52" s="179"/>
-      <c r="I52" s="179"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8337,6 +8334,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T45iWvNsr1hGkYSAl60cPBBGEmTqPHx7n0KlTBgAQMIMqWHejcg1l6z16ijGNlfOp0B0e97qSW8giO8aPp12sA==" saltValue="ZO+Z89g6yR6WPkMr+p99cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -8353,46 +8390,6 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8432,79 +8429,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="179">
+      <c r="A2" s="188">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8513,16 +8510,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="181">
+      <c r="C8" s="192">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -8531,16 +8528,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="178">
+      <c r="C9" s="193">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -8549,16 +8546,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="178">
+      <c r="C10" s="193">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -8567,16 +8564,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="183">
+      <c r="C11" s="200">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -8585,16 +8582,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="178">
+      <c r="C12" s="193">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -8603,16 +8600,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="178">
+      <c r="C13" s="193">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -8621,16 +8618,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="178">
+      <c r="C14" s="193">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -8639,16 +8636,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="178">
+      <c r="C15" s="193">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -8657,16 +8654,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="178">
+      <c r="C16" s="193">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -8675,16 +8672,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="178">
+      <c r="C17" s="193">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -8693,16 +8690,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="178">
+      <c r="C18" s="193">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -8711,16 +8708,16 @@
       <c r="B19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="177">
+      <c r="C19" s="178">
         <f>'PC 2'!B2</f>
         <v>0</v>
       </c>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
@@ -8729,16 +8726,16 @@
       <c r="B20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="177">
+      <c r="C20" s="178">
         <f>'PC 2'!B3</f>
         <v>0</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
@@ -8747,16 +8744,16 @@
       <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="177">
+      <c r="C21" s="178">
         <f>'PC 2'!B4</f>
         <v>0</v>
       </c>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
@@ -8765,16 +8762,16 @@
       <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="177">
+      <c r="C22" s="178">
         <f>'PC 2'!B10</f>
         <v>0</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
@@ -8783,16 +8780,16 @@
       <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="177">
+      <c r="C23" s="178">
         <f>'PC 2'!B5</f>
         <v>0</v>
       </c>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
@@ -8801,16 +8798,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="192">
+      <c r="C24" s="191">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -8819,16 +8816,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="178">
+      <c r="C25" s="193">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8837,16 +8834,16 @@
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="177">
+      <c r="C26" s="178">
         <f>'PC 2'!B11</f>
         <v>0</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
     </row>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
@@ -8855,16 +8852,16 @@
       <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="177">
+      <c r="C27" s="178">
         <f>'PC 2'!B6</f>
         <v>0</v>
       </c>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
@@ -8873,16 +8870,16 @@
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="177">
+      <c r="C28" s="178">
         <f>'PC 2'!B12</f>
         <v>0</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
@@ -8891,316 +8888,316 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="178" t="s">
+      <c r="C29" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="182"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="188"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="182"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="182" t="s">
+      <c r="B34" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="182"/>
-      <c r="E34" s="182"/>
-      <c r="F34" s="182"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="182" t="s">
+      <c r="B35" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="182"/>
-      <c r="E35" s="182"/>
-      <c r="F35" s="182"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="182"/>
-      <c r="I35" s="182"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="188"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
-      <c r="I37" s="188"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="185" t="str">
+      <c r="A38" s="195" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="185"/>
-      <c r="C38" s="185"/>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="185"/>
-      <c r="B39" s="185"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="185"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="185"/>
-      <c r="I39" s="185"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="189"/>
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="189"/>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="187" t="s">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="186" t="s">
+      <c r="A44" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="184" t="str">
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="194" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="184"/>
-      <c r="F44" s="184"/>
-      <c r="G44" s="184"/>
-      <c r="H44" s="184"/>
-      <c r="I44" s="184"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="186" t="s">
+      <c r="A45" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="184" t="str">
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="194" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="184"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="184"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="194"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="195"/>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="198">
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="186">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="196"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="196"/>
-      <c r="B48" s="196"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="190" t="s">
+      <c r="A49" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="191"/>
-      <c r="C49" s="197" t="s">
+      <c r="B49" s="184"/>
+      <c r="C49" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="196"/>
-      <c r="E49" s="199" t="s">
+      <c r="D49" s="182"/>
+      <c r="E49" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="199"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="193" t="s">
+      <c r="A50" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="193"/>
-      <c r="C50" s="194" t="s">
+      <c r="B50" s="179"/>
+      <c r="C50" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="194"/>
-      <c r="E50" s="179" t="s">
+      <c r="D50" s="180"/>
+      <c r="E50" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="179"/>
-      <c r="G50" s="179"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="179"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="193" t="s">
+      <c r="A51" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="194" t="s">
+      <c r="B51" s="179"/>
+      <c r="C51" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="194"/>
-      <c r="E51" s="179" t="s">
+      <c r="D51" s="180"/>
+      <c r="E51" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="179"/>
-      <c r="G51" s="179"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="179"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9209,46 +9206,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wSi01L1jKFu+/KQxITGp8tiq0szckHTaxzJLu072ahrMN6+Ye2bpNLJt+by28nnvUGN3JJff6DAJRDUOkK4L2A==" saltValue="nV0vD9TDN1ZfxYMKAhZBXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -9265,6 +9222,46 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9298,63 +9295,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
     </row>
     <row r="3" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="1:8" s="135" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="213"/>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
+      <c r="A4" s="228"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="214">
+      <c r="B5" s="229">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="137" t="s">
         <v>118</v>
       </c>
@@ -9367,14 +9364,14 @@
       <c r="A6" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="214">
+      <c r="B6" s="229">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="214"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
       <c r="G6" s="137"/>
       <c r="H6" s="167"/>
     </row>
@@ -9382,14 +9379,14 @@
       <c r="A7" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="214">
+      <c r="B7" s="229">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="138" t="s">
         <v>176</v>
       </c>
@@ -9402,14 +9399,14 @@
       <c r="A8" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="204" t="str">
+      <c r="B8" s="230" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="138" t="s">
         <v>218</v>
       </c>
@@ -9422,14 +9419,14 @@
       <c r="A9" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="205" t="str">
+      <c r="B9" s="231" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
         <v>0/0</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="138" t="s">
         <v>113</v>
       </c>
@@ -9441,14 +9438,14 @@
       <c r="A10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="204">
+      <c r="B10" s="230">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="138" t="s">
         <v>177</v>
       </c>
@@ -9461,457 +9458,457 @@
       <c r="A11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
       <c r="G11" s="169"/>
       <c r="H11" s="169"/>
     </row>
     <row r="12" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="203"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
+      <c r="A12" s="227"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="206" t="s">
+      <c r="A13" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="134" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="209" t="s">
+      <c r="G13" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="210"/>
+      <c r="H13" s="202"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="200" t="s">
+      <c r="A14" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="201"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="202"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="141"/>
-      <c r="G14" s="211" t="str">
+      <c r="G14" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B48</f>
         <v>See 0</v>
       </c>
-      <c r="H14" s="212"/>
+      <c r="H14" s="213"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="141"/>
-      <c r="G15" s="211" t="str">
+      <c r="G15" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B42</f>
         <v>See 0</v>
       </c>
-      <c r="H15" s="212"/>
+      <c r="H15" s="213"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="201"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="141"/>
-      <c r="G16" s="211" t="str">
+      <c r="G16" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B43</f>
         <v>See 0</v>
       </c>
-      <c r="H16" s="212"/>
+      <c r="H16" s="213"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="202"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="220"/>
       <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="141"/>
-      <c r="G17" s="211" t="str">
+      <c r="G17" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H17" s="212"/>
+      <c r="H17" s="213"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="200">
+      <c r="A18" s="218">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="202"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="141"/>
-      <c r="G18" s="211" t="str">
+      <c r="G18" s="212" t="str">
         <f>"See " &amp;'PC 1'!B45</f>
         <v>See 0</v>
       </c>
-      <c r="H18" s="212"/>
+      <c r="H18" s="213"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="218" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="202"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="220"/>
       <c r="E19" s="140"/>
       <c r="F19" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="211" t="str">
+      <c r="G19" s="212" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
         <v>See 0</v>
       </c>
-      <c r="H19" s="212"/>
+      <c r="H19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="200" t="s">
+      <c r="A20" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="201"/>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="211" t="str">
+      <c r="G20" s="212" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
         <v>See 0</v>
       </c>
-      <c r="H20" s="212"/>
+      <c r="H20" s="213"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="200" t="s">
+      <c r="A21" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="202"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140"/>
-      <c r="G21" s="211" t="str">
+      <c r="G21" s="212" t="str">
         <f>IF('PC 1'!B47="N/A","N/A","See " &amp; 'PC 1'!B47)</f>
         <v>See 0</v>
       </c>
-      <c r="H21" s="212"/>
+      <c r="H21" s="213"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="200" t="s">
+      <c r="A22" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="201"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="141"/>
       <c r="F22" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="211" t="str">
+      <c r="G22" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
         <v>See 0</v>
       </c>
-      <c r="H22" s="212"/>
+      <c r="H22" s="213"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="218" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="221"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
-      <c r="G23" s="211" t="str">
+      <c r="G23" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B44</f>
         <v>See 0</v>
       </c>
-      <c r="H23" s="212"/>
+      <c r="H23" s="213"/>
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A24" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="216" t="str">
+      <c r="B24" s="221" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
         <v>0/0</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="217"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="222"/>
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="209" t="s">
+      <c r="A25" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="218"/>
-      <c r="C25" s="218"/>
-      <c r="D25" s="218"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="146"/>
       <c r="F25" s="146"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="220"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="225"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A26" s="211" t="s">
+      <c r="A26" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="212"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="213"/>
       <c r="E26" s="144"/>
       <c r="F26" s="144"/>
-      <c r="G26" s="211" t="s">
+      <c r="G26" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="212"/>
+      <c r="H26" s="213"/>
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A27" s="211" t="s">
+      <c r="A27" s="212" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="212"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="213"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
-      <c r="G27" s="211" t="s">
+      <c r="G27" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="212"/>
+      <c r="H27" s="213"/>
     </row>
     <row r="28" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A28" s="211" t="s">
+      <c r="A28" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="215"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="212"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="213"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
-      <c r="G28" s="211" t="s">
+      <c r="G28" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="212"/>
+      <c r="H28" s="213"/>
     </row>
     <row r="29" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A29" s="211" t="s">
+      <c r="A29" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="212"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="213"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
-      <c r="G29" s="211" t="s">
+      <c r="G29" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="212"/>
+      <c r="H29" s="213"/>
     </row>
     <row r="30" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A30" s="211" t="s">
+      <c r="A30" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="215"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="212"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="214"/>
+      <c r="D30" s="213"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="212"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="213"/>
     </row>
     <row r="31" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A31" s="211" t="s">
+      <c r="A31" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="215"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="212"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="213"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
-      <c r="G31" s="211" t="str">
+      <c r="G31" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B52</f>
         <v>See 0</v>
       </c>
-      <c r="H31" s="212"/>
+      <c r="H31" s="213"/>
     </row>
     <row r="32" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="212"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="213"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
-      <c r="G32" s="211" t="str">
+      <c r="G32" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B53</f>
         <v>See 0</v>
       </c>
-      <c r="H32" s="212"/>
+      <c r="H32" s="213"/>
     </row>
     <row r="33" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="222" t="s">
+      <c r="A33" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="223"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="224"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="213"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="225" t="s">
+      <c r="A34" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
       <c r="E34" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F34" s="144"/>
-      <c r="G34" s="211"/>
-      <c r="H34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="213"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="225" t="s">
+      <c r="A35" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
       <c r="E35" s="145"/>
       <c r="F35" s="144"/>
-      <c r="G35" s="211"/>
-      <c r="H35" s="212"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="213"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="226"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="212"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="213"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="225" t="s">
+      <c r="A37" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="225"/>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
       <c r="E37" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="146"/>
-      <c r="G37" s="209"/>
-      <c r="H37" s="210"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="202"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="227" t="s">
+      <c r="A38" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="225"/>
-      <c r="C38" s="225"/>
-      <c r="D38" s="225"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F38" s="144"/>
-      <c r="G38" s="211"/>
-      <c r="H38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="213"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="232" t="s">
+      <c r="A39" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="232"/>
-      <c r="C39" s="232"/>
-      <c r="D39" s="230" t="str">
+      <c r="B39" s="208"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="206" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
         <v>Project 1: 0 / Project 2: 0</v>
       </c>
-      <c r="E39" s="230"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="231"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="207"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="207"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="230" t="str">
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="206" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
       </c>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="230"/>
-      <c r="H40" s="231"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="228" t="s">
+      <c r="A41" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="228"/>
-      <c r="C41" s="228"/>
-      <c r="D41" s="229"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="204"/>
       <c r="E41" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="141"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="210"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="202"/>
       <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
@@ -9959,12 +9956,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -9981,53 +10019,12 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10039,10 +10036,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10123,95 +10120,101 @@
         <v>•    The Projects had been 0 at the time of this inspection in line with the specification of the 0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="str">
+        <f>"•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to " &amp; DETAILS!B52 &amp;" for certificate of final completion."</f>
+        <v>•    The 6(six) months defect liability period of Projects 2 &amp; 3 had elapsed. Kindly refer to  for certificate of final completion.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="str">
         <f>"•     Please see " &amp; 'PC 1'!B54 &amp; " of file for relevant documents pages on MED Checklist."</f>
         <v>•     Please see 0 of file for relevant documents pages on MED Checklist.</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="str">
+    <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="str">
         <f>"•    Project 1: " &amp; 'PC 1'!A18 &amp; " in favour of " &amp; 'PC 1'!B22 &amp; ". This represents " &amp; 'PC 1'!B1 &amp; " due to the Contractor."</f>
         <v>•    Project 1: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="17" t="str">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="17" t="str">
         <f>"•     Project 2: " &amp; 'PC 2'!A18 &amp; " in favour of " &amp; 'PC 2'!B22 &amp; ". This represents " &amp; 'PC 2'!B1 &amp; " due to the Contractor."</f>
         <v>•     Project 2: sum of ₦0.00 () only in favour of 0. This represents  due to the Contractor.</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="str">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="str">
         <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
         <v xml:space="preserve">Alawiye, K.T (Ms)                                                                 Adekunle-Famuyon, F.A </v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="3" t="s">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="str">
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="str">
         <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
         <v>PPO (MED)                                                                                                           PPO (MED)</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <f>'PC 1'!B36</f>
-        <v>0</v>
-      </c>
       <c r="B30"/>
       <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+      <c r="D30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
+      <c r="I30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <f>'PC 1'!B36</f>
+        <v>0</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10245,24 +10248,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="str">
+      <c r="A2" s="235" t="str">
         <f>'PC 1'!B24 &amp; " BY " &amp; 'PC 1'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10303,24 +10306,24 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="234" t="str">
+      <c r="A2" s="235" t="str">
         <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
         <v>0 BY 0</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
     </row>
     <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
     </row>
     <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="233"/>
-      <c r="B4" s="233"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
     </row>
     <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="233"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC1B5E-4796-4E75-8E9F-9C9EB4B12397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62742E31-542F-4007-B5CD-8FD6EACA1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
@@ -2168,6 +2168,45 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2181,12 +2220,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2195,38 +2228,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2234,15 +2261,63 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2252,113 +2327,38 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2899,67 +2899,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842912D2-8274-582B-FEE6-B356DB5CDEBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="53340" y="0"/>
-          <a:ext cx="754380" cy="716280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
@@ -3065,266 +3004,11 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482264</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 1" descr="~AUT0000">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290BA305-51CA-B596-09D4-53FDD649DB87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:lum bright="12000" contrast="60000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8884920" y="83821"/>
-          <a:ext cx="634664" cy="624840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE7126B-62A3-445B-DEE2-ECD4C15379E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50800" y="38100"/>
-          <a:ext cx="927100" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE5B438-4277-F23C-CD31-76C2932FFD09}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9372600" y="0"/>
-          <a:ext cx="850900" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52AD5391-96ED-4A6F-81A9-8230FF40E8C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="53340" y="0"/>
-          <a:ext cx="815340" cy="716280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3431,200 +3115,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482264</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="~AUT0000">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AC2742-4542-45D8-AA3C-3DE9A3101735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:lum bright="12000" contrast="60000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9624060" y="83821"/>
-          <a:ext cx="634664" cy="624840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F188AA28-F62F-4FCE-98E1-19F3AC9F30DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50800" y="38100"/>
-          <a:ext cx="932180" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B727ED92-FBAC-47EC-8B13-3DD003CBC1C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9375140" y="0"/>
-          <a:ext cx="845820" cy="741680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4702,7 +4192,7 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5269,142 +4759,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="237"/>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="237"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="238" t="str">
+      <c r="A7" s="244" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="238">
+      <c r="A9" s="244">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="236" t="str">
+      <c r="A10" s="237" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="236">
+      <c r="A11" s="237">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="236">
+      <c r="A12" s="237">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="236"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="236">
+      <c r="A13" s="237">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="236"/>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
+      <c r="A14" s="237"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="241" t="str">
+      <c r="A16" s="239" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="242" t="str">
+      <c r="A18" s="240" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="243"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="A19" s="241"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
@@ -5460,48 +4950,48 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="244" t="s">
+      <c r="A24" s="242" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="244"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
+      <c r="B24" s="242"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="236"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="237"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="236"/>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="237"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="240" t="s">
+      <c r="A29" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5526,6 +5016,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5538,18 +5040,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5577,142 +5067,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="237"/>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="237"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="238" t="str">
+      <c r="A7" s="244" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="238">
+      <c r="A9" s="244">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="236" t="str">
+      <c r="A10" s="237" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="236">
+      <c r="A11" s="237">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="236">
+      <c r="A12" s="237">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="236"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="236">
+      <c r="A13" s="237">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="236"/>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
+      <c r="A14" s="237"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="238" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="241" t="str">
+      <c r="A16" s="239" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="242" t="str">
+      <c r="A18" s="240" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="243"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="A19" s="241"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
@@ -5768,48 +5258,48 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="244" t="s">
+      <c r="A24" s="242" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="244"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
+      <c r="B24" s="242"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="236"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="237"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="236"/>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="237"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="240" t="s">
+      <c r="A29" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5834,6 +5324,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5846,18 +5348,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -7522,7 +7012,7 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -7545,79 +7035,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="188">
+      <c r="A2" s="180">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7626,16 +7116,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="182">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -7644,16 +7134,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="179">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -7662,16 +7152,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="179">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -7680,16 +7170,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="184">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -7698,16 +7188,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="179">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -7716,16 +7206,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="179">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -7734,16 +7224,16 @@
       <c r="B14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="193">
+      <c r="C14" s="179">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -7752,16 +7242,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="193">
+      <c r="C15" s="179">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -7770,16 +7260,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="179">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -7788,16 +7278,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="193">
+      <c r="C17" s="179">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -7806,16 +7296,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="193">
+      <c r="C18" s="179">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -7914,16 +7404,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="191">
+      <c r="C24" s="193">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -7932,16 +7422,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="193">
+      <c r="C25" s="179">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8004,39 +7494,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="189" t="s">
@@ -8055,61 +7545,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="189" t="s">
@@ -8125,255 +7615,215 @@
       <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="195" t="str">
+      <c r="A38" s="186" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="195"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="198"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="198"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="197" t="s">
+      <c r="B43" s="192"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="196" t="s">
+      <c r="A44" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="196"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="194" t="str">
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="185" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="194" t="str">
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="185" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="186">
+      <c r="A46" s="196"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="199">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="182" t="s">
+      <c r="A47" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="197"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
+      <c r="A48" s="197"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="197"/>
+      <c r="G48" s="197"/>
+      <c r="H48" s="197"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="182"/>
-      <c r="B49" s="182"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="182"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="182"/>
+      <c r="A49" s="197"/>
+      <c r="B49" s="197"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="197"/>
+      <c r="G49" s="197"/>
+      <c r="H49" s="197"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="183" t="s">
+      <c r="A50" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="184"/>
-      <c r="C50" s="185" t="s">
+      <c r="B50" s="192"/>
+      <c r="C50" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="182"/>
-      <c r="E50" s="187" t="s">
+      <c r="D50" s="197"/>
+      <c r="E50" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="180" t="s">
+      <c r="B51" s="194"/>
+      <c r="C51" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="188" t="s">
+      <c r="D51" s="195"/>
+      <c r="E51" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="179" t="s">
+      <c r="A52" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="179"/>
-      <c r="C52" s="180" t="s">
+      <c r="B52" s="194"/>
+      <c r="C52" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="180"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="195"/>
+      <c r="E52" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="T45iWvNsr1hGkYSAl60cPBBGEmTqPHx7n0KlTBgAQMIMqWHejcg1l6z16ijGNlfOp0B0e97qSW8giO8aPp12sA==" saltValue="ZO+Z89g6yR6WPkMr+p99cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H9zoclxu4UsZj8+rBjW9H22erWzDUi501CBH4rrWuTPFpEO4+iRDcmY3jDBt0t9RxswI7OWiDBBTMio5T4W7Tw==" saltValue="NaHk3uBWzHvDeSenCoPVOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -8390,6 +7840,46 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8406,7 +7896,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -8429,79 +7919,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="188">
+      <c r="A2" s="180">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8510,16 +8000,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="182">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -8528,16 +8018,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="179">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -8546,16 +8036,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="179">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -8564,16 +8054,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="184">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -8582,16 +8072,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="179">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -8600,16 +8090,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="179">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -8618,16 +8108,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="193">
+      <c r="C14" s="179">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -8636,16 +8126,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="193">
+      <c r="C15" s="179">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -8654,16 +8144,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="179">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -8672,16 +8162,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="193">
+      <c r="C17" s="179">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -8690,16 +8180,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="193">
+      <c r="C18" s="179">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -8798,16 +8288,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="191">
+      <c r="C24" s="193">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -8816,16 +8306,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="193">
+      <c r="C25" s="179">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8888,39 +8378,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="189" t="s">
@@ -8939,61 +8429,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="189" t="s">
@@ -9009,203 +8499,243 @@
       <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="195" t="str">
+      <c r="A38" s="186" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="195"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="198"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="198"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="197" t="s">
+      <c r="B43" s="192"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="196" t="s">
+      <c r="A44" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="196"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="194" t="str">
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="185" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="194" t="str">
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="185" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="186">
+      <c r="A46" s="196"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="199">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="197"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
+      <c r="A48" s="197"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="197"/>
+      <c r="G48" s="197"/>
+      <c r="H48" s="197"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="184"/>
-      <c r="C49" s="185" t="s">
+      <c r="B49" s="192"/>
+      <c r="C49" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="182"/>
-      <c r="E49" s="187" t="s">
+      <c r="D49" s="197"/>
+      <c r="E49" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="179"/>
-      <c r="C50" s="180" t="s">
+      <c r="B50" s="194"/>
+      <c r="C50" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="188" t="s">
+      <c r="D50" s="195"/>
+      <c r="E50" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="180"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="180" t="s">
+      <c r="B51" s="194"/>
+      <c r="C51" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="188" t="s">
+      <c r="D51" s="195"/>
+      <c r="E51" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wSi01L1jKFu+/KQxITGp8tiq0szckHTaxzJLu072ahrMN6+Ye2bpNLJt+by28nnvUGN3JJff6DAJRDUOkK4L2A==" saltValue="nV0vD9TDN1ZfxYMKAhZBXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v6m4mPDwyXr13VqojPTYvJAvuR8Sxunwk9MVy9weiXTdN/wNrDpr6NXTcB2z3V+cirn7DWrhm/ffLGYx4An/RA==" saltValue="RPUr62RzvjQ0Ucl318luZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -9222,46 +8752,6 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -9295,63 +8785,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
     </row>
     <row r="2" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8" s="135" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="228"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="229">
+      <c r="B5" s="215">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="137" t="s">
         <v>118</v>
       </c>
@@ -9364,14 +8854,14 @@
       <c r="A6" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="229">
+      <c r="B6" s="215">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
       <c r="G6" s="137"/>
       <c r="H6" s="167"/>
     </row>
@@ -9379,14 +8869,14 @@
       <c r="A7" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="229">
+      <c r="B7" s="215">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
       <c r="G7" s="138" t="s">
         <v>176</v>
       </c>
@@ -9399,14 +8889,14 @@
       <c r="A8" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="230" t="str">
+      <c r="B8" s="205" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
       <c r="G8" s="138" t="s">
         <v>218</v>
       </c>
@@ -9419,14 +8909,14 @@
       <c r="A9" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="231" t="str">
+      <c r="B9" s="206" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
         <v>0/0</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="138" t="s">
         <v>113</v>
       </c>
@@ -9438,14 +8928,14 @@
       <c r="A10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="230">
+      <c r="B10" s="205">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
       <c r="G10" s="138" t="s">
         <v>177</v>
       </c>
@@ -9458,51 +8948,51 @@
       <c r="A11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
       <c r="G11" s="169"/>
       <c r="H11" s="169"/>
     </row>
     <row r="12" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="227"/>
-      <c r="B12" s="227"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="232" t="s">
+      <c r="A13" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="233"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="134" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="201" t="s">
+      <c r="G13" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="202"/>
+      <c r="H13" s="211"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="220"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="203"/>
       <c r="E14" s="140" t="s">
         <v>122</v>
       </c>
@@ -9514,12 +9004,12 @@
       <c r="H14" s="213"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="218" t="s">
+      <c r="A15" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="219"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="220"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
       <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
@@ -9531,12 +9021,12 @@
       <c r="H15" s="213"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="220"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
       <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
@@ -9548,12 +9038,12 @@
       <c r="H16" s="213"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="203"/>
       <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
@@ -9565,13 +9055,13 @@
       <c r="H17" s="213"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="218">
+      <c r="A18" s="201">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="220"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
       <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
@@ -9583,12 +9073,12 @@
       <c r="H18" s="213"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="218" t="s">
+      <c r="A19" s="201" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="220"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
       <c r="E19" s="140"/>
       <c r="F19" s="140" t="s">
         <v>122</v>
@@ -9600,12 +9090,12 @@
       <c r="H19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="218" t="s">
+      <c r="A20" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="203"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
         <v>122</v>
@@ -9617,12 +9107,12 @@
       <c r="H20" s="213"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140"/>
       <c r="G21" s="212" t="str">
@@ -9632,12 +9122,12 @@
       <c r="H21" s="213"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="218" t="s">
+      <c r="A22" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="220"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="141"/>
       <c r="F22" s="140" t="s">
         <v>122</v>
@@ -9649,12 +9139,12 @@
       <c r="H22" s="213"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="218" t="s">
+      <c r="A23" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="220"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
       <c r="G23" s="212" t="str">
@@ -9667,35 +9157,35 @@
       <c r="A24" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="221" t="str">
+      <c r="B24" s="217" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
         <v>0/0</v>
       </c>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="222"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="218"/>
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="201" t="s">
+      <c r="A25" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
       <c r="E25" s="146"/>
       <c r="F25" s="146"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="225"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="221"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A26" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="214"/>
-      <c r="C26" s="214"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
       <c r="D26" s="213"/>
       <c r="E26" s="144"/>
       <c r="F26" s="144"/>
@@ -9708,8 +9198,8 @@
       <c r="A27" s="212" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
       <c r="D27" s="213"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
@@ -9722,8 +9212,8 @@
       <c r="A28" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
       <c r="D28" s="213"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
@@ -9736,8 +9226,8 @@
       <c r="A29" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="214"/>
-      <c r="C29" s="214"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
       <c r="D29" s="213"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
@@ -9750,8 +9240,8 @@
       <c r="A30" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="214"/>
-      <c r="C30" s="214"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
       <c r="D30" s="213"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
@@ -9762,8 +9252,8 @@
       <c r="A31" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="216"/>
       <c r="D31" s="213"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
@@ -9777,8 +9267,8 @@
       <c r="A32" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="214"/>
-      <c r="C32" s="214"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
       <c r="D32" s="213"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -9789,24 +9279,24 @@
       <c r="H32" s="213"/>
     </row>
     <row r="33" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
       <c r="G33" s="212"/>
       <c r="H33" s="213"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="210" t="s">
+      <c r="A34" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="210"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
+      <c r="B34" s="226"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
       <c r="E34" s="145" t="s">
         <v>122</v>
       </c>
@@ -9815,50 +9305,50 @@
       <c r="H34" s="213"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="210" t="s">
+      <c r="A35" s="226" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
       <c r="E35" s="145"/>
       <c r="F35" s="144"/>
       <c r="G35" s="212"/>
       <c r="H35" s="213"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="209" t="s">
+      <c r="A36" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="209"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
       <c r="G36" s="212"/>
       <c r="H36" s="213"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="210" t="s">
+      <c r="A37" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="210"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="146"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="202"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="211" t="s">
+      <c r="A38" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="210"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
+      <c r="B38" s="226"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
       <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
@@ -9867,48 +9357,48 @@
       <c r="H38" s="213"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="208"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="206" t="str">
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="231" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
         <v>Project 1: 0 / Project 2: 0</v>
       </c>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="207"/>
+      <c r="E39" s="231"/>
+      <c r="F39" s="231"/>
+      <c r="G39" s="231"/>
+      <c r="H39" s="232"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="205" t="s">
+      <c r="A40" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="206" t="str">
+      <c r="B40" s="208"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="231" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
       </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="207"/>
+      <c r="E40" s="231"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="231"/>
+      <c r="H40" s="232"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="229" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="203"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="204"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="230"/>
       <c r="E41" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="141"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="202"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="211"/>
       <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
@@ -9956,53 +9446,12 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -10019,12 +9468,53 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -5,31 +5,32 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anaconda3\PC-Template-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/PC TEMPLATES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62742E31-542F-4007-B5CD-8FD6EACA1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{62742E31-542F-4007-B5CD-8FD6EACA1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D14E222-83B6-4335-96DA-61D322E81C74}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
-    <sheet name="PC 1" sheetId="2" r:id="rId2"/>
-    <sheet name="PC 2" sheetId="13" r:id="rId3"/>
-    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId4"/>
-    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId5"/>
-    <sheet name="CHECKLIST" sheetId="3" r:id="rId6"/>
-    <sheet name="MEMO" sheetId="4" r:id="rId7"/>
-    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId8"/>
-    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId9"/>
-    <sheet name="APPROVAL" sheetId="8" r:id="rId10"/>
-    <sheet name="APPROVAL (one reference)" sheetId="17" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="20" state="hidden" r:id="rId2"/>
+    <sheet name="PC 1" sheetId="2" r:id="rId3"/>
+    <sheet name="PC 2" sheetId="13" r:id="rId4"/>
+    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId5"/>
+    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId6"/>
+    <sheet name="CHECKLIST" sheetId="3" r:id="rId7"/>
+    <sheet name="MEMO" sheetId="4" r:id="rId8"/>
+    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId9"/>
+    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId10"/>
+    <sheet name="APPROVAL" sheetId="8" r:id="rId11"/>
+    <sheet name="APPROVAL (one reference)" sheetId="17" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">APPROVAL!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">CHECKLIST!$A$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">MEMO!$A$1:$A$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">APPROVAL!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">CHECKLIST!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">MEMO!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -894,6 +895,21 @@
   </si>
   <si>
     <t>VAT</t>
+  </si>
+  <si>
+    <t>The Director,</t>
+  </si>
+  <si>
+    <t>The Chairman,</t>
+  </si>
+  <si>
+    <t>The Permanent Secretary,</t>
+  </si>
+  <si>
+    <t>The Honourable Commissioner,</t>
+  </si>
+  <si>
+    <t>The Special Adviser,</t>
   </si>
 </sst>
 </file>
@@ -2168,65 +2184,116 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2237,9 +2304,33 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2249,99 +2340,30 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="54" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2353,12 +2375,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4192,11 +4208,11 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4735,10 +4751,80 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09D38440-0E7C-4286-9742-58DDA4384066}">
+          <x14:formula1>
+            <xm:f>Sheet1!A1:A5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B63</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="235" t="str">
+        <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
+        <v>0 BY 0</v>
+      </c>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+    </row>
+    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+    </row>
+    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
+    </row>
+    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4CD36-03FD-496B-98BB-640C315ACE5B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4759,142 +4845,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="A1" s="237"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="243"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="243"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="243"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="243"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="243"/>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="244" t="str">
+      <c r="A7" s="238" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="238"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="244">
+      <c r="A9" s="238">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="237" t="str">
+      <c r="A10" s="236" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="237">
+      <c r="A11" s="236">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="237">
+      <c r="A12" s="236">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="237">
+      <c r="A13" s="236">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="237"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="237"/>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
+      <c r="A14" s="236"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="238" t="s">
+      <c r="A15" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="239" t="str">
+      <c r="A16" s="241" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="240" t="str">
+      <c r="A18" s="242" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="240"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="241"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
@@ -4950,48 +5036,48 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="242" t="s">
+      <c r="A24" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="242"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="237"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="237"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="237"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
+      <c r="A27" s="236"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="236" t="s">
+      <c r="A28" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5016,6 +5102,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5028,25 +5126,13 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD7048-288F-4FD0-BDF8-1BCB1A591382}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5067,142 +5153,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="A1" s="237"/>
+      <c r="B1" s="237"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="243"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
+      <c r="A2" s="237"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="243"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="243"/>
-      <c r="B4" s="243"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+      <c r="A4" s="237"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="243"/>
-      <c r="B5" s="243"/>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="243"/>
-      <c r="B6" s="243"/>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="244" t="str">
+      <c r="A7" s="238" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="238"/>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="239"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="244">
+      <c r="A9" s="238">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="237" t="str">
+      <c r="A10" s="236" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="237"/>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="237">
+      <c r="A11" s="236">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="237">
+      <c r="A12" s="236">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="237"/>
-      <c r="C12" s="237"/>
-      <c r="D12" s="237"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="237">
+      <c r="A13" s="236">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="237"/>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="237"/>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
+      <c r="A14" s="236"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="238" t="s">
+      <c r="A15" s="239" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="238"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
+      <c r="B15" s="239"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="239" t="str">
+      <c r="A16" s="241" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="C16" s="239"/>
-      <c r="D16" s="239"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="240" t="str">
+      <c r="A18" s="242" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="240"/>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="241"/>
-      <c r="B19" s="241"/>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
+      <c r="A19" s="243"/>
+      <c r="B19" s="243"/>
+      <c r="C19" s="243"/>
+      <c r="D19" s="243"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
@@ -5258,48 +5344,48 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="242" t="s">
+      <c r="A24" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="242"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
+      <c r="B24" s="244"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="237"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="237"/>
+      <c r="A25" s="236"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="236"/>
+      <c r="D25" s="236"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="237"/>
-      <c r="C26" s="237"/>
-      <c r="D26" s="237"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="236"/>
+      <c r="D26" s="236"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="237"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
+      <c r="A27" s="236"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="236" t="s">
+      <c r="A28" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="240"/>
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="240" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5324,6 +5410,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5336,18 +5434,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5355,6 +5441,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900D50EE-9CC1-4882-88AB-7DF9F9594D97}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
@@ -6178,7 +6304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30E5E9-A30D-4D28-9440-81B609211034}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -7004,7 +7130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668DB09-8ADD-42DE-90D6-D5ACBFA751FC}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
@@ -7012,7 +7138,7 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:I26"/>
     </sheetView>
   </sheetViews>
@@ -7035,79 +7161,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="180">
+      <c r="A2" s="188">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7116,16 +7242,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="182">
+      <c r="C8" s="192">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -7134,16 +7260,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="179">
+      <c r="C9" s="193">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -7152,16 +7278,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="179">
+      <c r="C10" s="193">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -7170,16 +7296,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="184">
+      <c r="C11" s="200">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -7188,16 +7314,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="179">
+      <c r="C12" s="193">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -7206,16 +7332,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13" s="193">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -7224,16 +7350,16 @@
       <c r="B14" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="179">
+      <c r="C14" s="193">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -7242,16 +7368,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15" s="193">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -7260,16 +7386,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16" s="193">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -7278,16 +7404,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="193">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -7296,16 +7422,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="179">
+      <c r="C18" s="193">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -7404,16 +7530,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="193">
+      <c r="C24" s="191">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -7422,16 +7548,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="179">
+      <c r="C25" s="193">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -7494,39 +7620,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="179" t="s">
+      <c r="C29" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="183"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="189" t="s">
@@ -7545,61 +7671,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="183" t="s">
+      <c r="B33" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="183" t="s">
+      <c r="B34" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="183" t="s">
+      <c r="B35" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="189" t="s">
@@ -7615,207 +7741,207 @@
       <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="186" t="str">
+      <c r="A38" s="195" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="186"/>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="190"/>
-      <c r="B41" s="190"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="190"/>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="191" t="s">
+      <c r="A43" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="192"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="188" t="s">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="187" t="s">
+      <c r="A44" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="187"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="185" t="str">
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="194" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="187" t="s">
+      <c r="A45" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="187"/>
-      <c r="C45" s="187"/>
-      <c r="D45" s="185" t="str">
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="194" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="185"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="194"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="196"/>
-      <c r="B46" s="196"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="199">
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="186">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="197" t="s">
+      <c r="A47" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="197"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="197"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="197"/>
-      <c r="B48" s="197"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="197"/>
-      <c r="F48" s="197"/>
-      <c r="G48" s="197"/>
-      <c r="H48" s="197"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="197"/>
-      <c r="B49" s="197"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="197"/>
-      <c r="E49" s="197"/>
-      <c r="F49" s="197"/>
-      <c r="G49" s="197"/>
-      <c r="H49" s="197"/>
+      <c r="A49" s="182"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="182"/>
+      <c r="F49" s="182"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="182"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="191" t="s">
+      <c r="A50" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="192"/>
-      <c r="C50" s="198" t="s">
+      <c r="B50" s="184"/>
+      <c r="C50" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="197"/>
-      <c r="E50" s="200" t="s">
+      <c r="D50" s="182"/>
+      <c r="E50" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="200"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="194" t="s">
+      <c r="A51" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="194"/>
-      <c r="C51" s="195" t="s">
+      <c r="B51" s="179"/>
+      <c r="C51" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="195"/>
-      <c r="E51" s="180" t="s">
+      <c r="D51" s="180"/>
+      <c r="E51" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="194" t="s">
+      <c r="A52" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="194"/>
-      <c r="C52" s="195" t="s">
+      <c r="B52" s="179"/>
+      <c r="C52" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="195"/>
-      <c r="E52" s="180" t="s">
+      <c r="D52" s="180"/>
+      <c r="E52" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7824,6 +7950,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="H9zoclxu4UsZj8+rBjW9H22erWzDUi501CBH4rrWuTPFpEO4+iRDcmY3jDBt0t9RxswI7OWiDBBTMio5T4W7Tw==" saltValue="NaHk3uBWzHvDeSenCoPVOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -7840,46 +8006,6 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7888,7 +8014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05493551-3041-4A4A-B7E3-7F56097C5DC6}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7919,79 +8045,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="180">
+      <c r="A2" s="188">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="183"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -8000,16 +8126,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="182">
+      <c r="C8" s="192">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -8018,16 +8144,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="179">
+      <c r="C9" s="193">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -8036,16 +8162,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="179">
+      <c r="C10" s="193">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -8054,16 +8180,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="184">
+      <c r="C11" s="200">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="184"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -8072,16 +8198,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="179">
+      <c r="C12" s="193">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -8090,16 +8216,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13" s="193">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -8108,16 +8234,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="179">
+      <c r="C14" s="193">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -8126,16 +8252,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15" s="193">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -8144,16 +8270,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16" s="193">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -8162,16 +8288,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17" s="193">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -8180,16 +8306,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="179">
+      <c r="C18" s="193">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -8288,16 +8414,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="193">
+      <c r="C24" s="191">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -8306,16 +8432,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="179">
+      <c r="C25" s="193">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8378,39 +8504,39 @@
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="179" t="s">
+      <c r="C29" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="193"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="183"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
+      <c r="A31" s="190"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="189" t="s">
@@ -8429,61 +8555,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="183" t="s">
+      <c r="B33" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="183" t="s">
+      <c r="B34" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="183" t="s">
+      <c r="B35" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="183" t="s">
+      <c r="B36" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="189" t="s">
@@ -8499,195 +8625,195 @@
       <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="186" t="str">
+      <c r="A38" s="195" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="186"/>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
+      <c r="A39" s="195"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="195"/>
+      <c r="D39" s="195"/>
+      <c r="E39" s="195"/>
+      <c r="F39" s="195"/>
+      <c r="G39" s="195"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="195"/>
+      <c r="G40" s="195"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="190"/>
-      <c r="B41" s="190"/>
-      <c r="C41" s="190"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="198"/>
+      <c r="H41" s="198"/>
+      <c r="I41" s="198"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="190"/>
-      <c r="B42" s="190"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="198"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="191" t="s">
+      <c r="A43" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="192"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="188" t="s">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="197" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
-      <c r="I43" s="188"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="187" t="s">
+      <c r="A44" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="187"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="185" t="str">
+      <c r="B44" s="196"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="194" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="187" t="s">
+      <c r="A45" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="187"/>
-      <c r="C45" s="187"/>
-      <c r="D45" s="185" t="str">
+      <c r="B45" s="196"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="194" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="185"/>
-      <c r="F45" s="185"/>
-      <c r="G45" s="185"/>
-      <c r="H45" s="185"/>
-      <c r="I45" s="185"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="194"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="196"/>
-      <c r="B46" s="196"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="199">
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="186">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="186"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="197"/>
-      <c r="B47" s="197"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="197"/>
+      <c r="A47" s="182"/>
+      <c r="B47" s="182"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="197"/>
-      <c r="B48" s="197"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="197"/>
-      <c r="E48" s="197"/>
-      <c r="F48" s="197"/>
-      <c r="G48" s="197"/>
-      <c r="H48" s="197"/>
+      <c r="A48" s="182"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="182"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="191" t="s">
+      <c r="A49" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="192"/>
-      <c r="C49" s="198" t="s">
+      <c r="B49" s="184"/>
+      <c r="C49" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="197"/>
-      <c r="E49" s="200" t="s">
+      <c r="D49" s="182"/>
+      <c r="E49" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="200"/>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="200"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="194" t="s">
+      <c r="A50" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="194"/>
-      <c r="C50" s="195" t="s">
+      <c r="B50" s="179"/>
+      <c r="C50" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="195"/>
-      <c r="E50" s="180" t="s">
+      <c r="D50" s="180"/>
+      <c r="E50" s="188" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="180"/>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="188"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="188"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="194" t="s">
+      <c r="A51" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="194"/>
-      <c r="C51" s="195" t="s">
+      <c r="B51" s="179"/>
+      <c r="C51" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="195"/>
-      <c r="E51" s="180" t="s">
+      <c r="D51" s="180"/>
+      <c r="E51" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="180"/>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8696,46 +8822,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="v6m4mPDwyXr13VqojPTYvJAvuR8Sxunwk9MVy9weiXTdN/wNrDpr6NXTcB2z3V+cirn7DWrhm/ffLGYx4An/RA==" saltValue="RPUr62RzvjQ0Ucl318luZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -8752,6 +8838,46 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8759,7 +8885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC43EDD-15D8-4A61-A2D6-648A3D3D55FD}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
@@ -8785,63 +8911,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
     </row>
     <row r="2" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
     </row>
     <row r="3" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
     </row>
     <row r="4" spans="1:8" s="135" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="214"/>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
+      <c r="A4" s="228"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="215">
+      <c r="B5" s="229">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="137" t="s">
         <v>118</v>
       </c>
@@ -8854,14 +8980,14 @@
       <c r="A6" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="215">
+      <c r="B6" s="229">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
       <c r="G6" s="137"/>
       <c r="H6" s="167"/>
     </row>
@@ -8869,14 +8995,14 @@
       <c r="A7" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="215">
+      <c r="B7" s="229">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="138" t="s">
         <v>176</v>
       </c>
@@ -8889,14 +9015,14 @@
       <c r="A8" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="205" t="str">
+      <c r="B8" s="230" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="138" t="s">
         <v>218</v>
       </c>
@@ -8909,14 +9035,14 @@
       <c r="A9" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="B9" s="206" t="str">
+      <c r="B9" s="231" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
         <v>0/0</v>
       </c>
-      <c r="C9" s="206"/>
-      <c r="D9" s="206"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="138" t="s">
         <v>113</v>
       </c>
@@ -8928,14 +9054,14 @@
       <c r="A10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="205">
+      <c r="B10" s="230">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="138" t="s">
         <v>177</v>
       </c>
@@ -8948,51 +9074,51 @@
       <c r="A11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
       <c r="G11" s="169"/>
       <c r="H11" s="169"/>
     </row>
     <row r="12" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="204"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
+      <c r="A12" s="227"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="227"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="232" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="134" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="134" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="210" t="s">
+      <c r="G13" s="201" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="211"/>
+      <c r="H13" s="202"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="201" t="s">
+      <c r="A14" s="218" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="140" t="s">
         <v>122</v>
       </c>
@@ -9004,12 +9130,12 @@
       <c r="H14" s="213"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="220"/>
       <c r="E15" s="140" t="s">
         <v>122</v>
       </c>
@@ -9021,12 +9147,12 @@
       <c r="H15" s="213"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="201" t="s">
+      <c r="A16" s="218" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="203"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="220"/>
       <c r="E16" s="140" t="s">
         <v>122</v>
       </c>
@@ -9038,12 +9164,12 @@
       <c r="H16" s="213"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="201" t="s">
+      <c r="A17" s="218" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="203"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="220"/>
       <c r="E17" s="140" t="s">
         <v>122</v>
       </c>
@@ -9055,13 +9181,13 @@
       <c r="H17" s="213"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="201">
+      <c r="A18" s="218">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="140" t="s">
         <v>122</v>
       </c>
@@ -9073,12 +9199,12 @@
       <c r="H18" s="213"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="218" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="220"/>
       <c r="E19" s="140"/>
       <c r="F19" s="140" t="s">
         <v>122</v>
@@ -9090,12 +9216,12 @@
       <c r="H19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="201" t="s">
+      <c r="A20" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="202"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="203"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="220"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
         <v>122</v>
@@ -9107,12 +9233,12 @@
       <c r="H20" s="213"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="201" t="s">
+      <c r="A21" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="202"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="203"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140"/>
       <c r="G21" s="212" t="str">
@@ -9122,12 +9248,12 @@
       <c r="H21" s="213"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="201" t="s">
+      <c r="A22" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="220"/>
       <c r="E22" s="141"/>
       <c r="F22" s="140" t="s">
         <v>122</v>
@@ -9139,12 +9265,12 @@
       <c r="H22" s="213"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="201" t="s">
+      <c r="A23" s="218" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="222"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220"/>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
       <c r="G23" s="212" t="str">
@@ -9157,35 +9283,35 @@
       <c r="A24" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="217" t="str">
+      <c r="B24" s="221" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
         <v>0/0</v>
       </c>
-      <c r="C24" s="217"/>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="217"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="218"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="222"/>
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="210" t="s">
+      <c r="A25" s="201" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="219"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="223"/>
       <c r="E25" s="146"/>
       <c r="F25" s="146"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="221"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="225"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A26" s="212" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
       <c r="D26" s="213"/>
       <c r="E26" s="144"/>
       <c r="F26" s="144"/>
@@ -9198,8 +9324,8 @@
       <c r="A27" s="212" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="216"/>
-      <c r="C27" s="216"/>
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
       <c r="D27" s="213"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
@@ -9212,8 +9338,8 @@
       <c r="A28" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
       <c r="D28" s="213"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
@@ -9226,8 +9352,8 @@
       <c r="A29" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="214"/>
       <c r="D29" s="213"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
@@ -9240,8 +9366,8 @@
       <c r="A30" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="214"/>
       <c r="D30" s="213"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
@@ -9252,8 +9378,8 @@
       <c r="A31" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="216"/>
-      <c r="C31" s="216"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
       <c r="D31" s="213"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
@@ -9267,8 +9393,8 @@
       <c r="A32" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="214"/>
       <c r="D32" s="213"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -9279,24 +9405,24 @@
       <c r="H32" s="213"/>
     </row>
     <row r="33" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="223" t="s">
+      <c r="A33" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="224"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="225"/>
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
       <c r="G33" s="212"/>
       <c r="H33" s="213"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="226" t="s">
+      <c r="A34" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="226"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="226"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
       <c r="E34" s="145" t="s">
         <v>122</v>
       </c>
@@ -9305,50 +9431,50 @@
       <c r="H34" s="213"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="226" t="s">
+      <c r="A35" s="210" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="226"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="226"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="210"/>
+      <c r="D35" s="210"/>
       <c r="E35" s="145"/>
       <c r="F35" s="144"/>
       <c r="G35" s="212"/>
       <c r="H35" s="213"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="227" t="s">
+      <c r="A36" s="209" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
       <c r="G36" s="212"/>
       <c r="H36" s="213"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="226" t="s">
+      <c r="A37" s="210" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="226"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
       <c r="E37" s="145" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="146"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="211"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="202"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="228" t="s">
+      <c r="A38" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="226"/>
-      <c r="C38" s="226"/>
-      <c r="D38" s="226"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="210"/>
       <c r="E38" s="145" t="s">
         <v>122</v>
       </c>
@@ -9357,48 +9483,48 @@
       <c r="H38" s="213"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="233" t="s">
+      <c r="A39" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="233"/>
-      <c r="C39" s="233"/>
-      <c r="D39" s="231" t="str">
+      <c r="B39" s="208"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="206" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
         <v>Project 1: 0 / Project 2: 0</v>
       </c>
-      <c r="E39" s="231"/>
-      <c r="F39" s="231"/>
-      <c r="G39" s="231"/>
-      <c r="H39" s="232"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="207"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="208" t="s">
+      <c r="A40" s="205" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="208"/>
-      <c r="C40" s="208"/>
-      <c r="D40" s="231" t="str">
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="206" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
       </c>
-      <c r="E40" s="231"/>
-      <c r="F40" s="231"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="232"/>
+      <c r="E40" s="206"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="229" t="s">
+      <c r="A41" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="229"/>
-      <c r="C41" s="229"/>
-      <c r="D41" s="230"/>
+      <c r="B41" s="203"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="204"/>
       <c r="E41" s="140" t="s">
         <v>122</v>
       </c>
       <c r="F41" s="141"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="211"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="202"/>
       <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
@@ -9446,12 +9572,53 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -9468,60 +9635,19 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -9712,7 +9838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2A0A5-F971-4D4F-A38B-5D097CA35F05}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9768,62 +9894,4 @@
   <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="235" t="str">
-        <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
-        <v>0 BY 0</v>
-      </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-    </row>
-    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-    </row>
-    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
-    </row>
-    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="234"/>
-      <c r="B5" s="234"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -5,32 +5,31 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/PC TEMPLATES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{62742E31-542F-4007-B5CD-8FD6EACA1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D14E222-83B6-4335-96DA-61D322E81C74}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{62742E31-542F-4007-B5CD-8FD6EACA1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34396E33-D579-4ED5-80C2-14B83F1C5FCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="20" state="hidden" r:id="rId2"/>
-    <sheet name="PC 1" sheetId="2" r:id="rId3"/>
-    <sheet name="PC 2" sheetId="13" r:id="rId4"/>
-    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId5"/>
-    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId6"/>
-    <sheet name="CHECKLIST" sheetId="3" r:id="rId7"/>
-    <sheet name="MEMO" sheetId="4" r:id="rId8"/>
-    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId9"/>
-    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId10"/>
-    <sheet name="APPROVAL" sheetId="8" r:id="rId11"/>
-    <sheet name="APPROVAL (one reference)" sheetId="17" r:id="rId12"/>
+    <sheet name="PC 1" sheetId="2" r:id="rId2"/>
+    <sheet name="PC 2" sheetId="13" r:id="rId3"/>
+    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId4"/>
+    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId5"/>
+    <sheet name="CHECKLIST" sheetId="3" r:id="rId6"/>
+    <sheet name="MEMO" sheetId="4" r:id="rId7"/>
+    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId8"/>
+    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId9"/>
+    <sheet name="APPROVAL" sheetId="8" r:id="rId10"/>
+    <sheet name="APPROVAL (one reference)" sheetId="17" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">APPROVAL!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">CHECKLIST!$A$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">MEMO!$A$1:$A$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">APPROVAL!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">CHECKLIST!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">MEMO!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="224">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -452,9 +451,6 @@
   </si>
   <si>
     <t xml:space="preserve">__________________                                                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">________________   </t>
   </si>
   <si>
     <t>Ms. Alawiye, K.T</t>
@@ -817,9 +813,6 @@
     <t>Staff 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Adekunle-Famuyon, F.A </t>
-  </si>
-  <si>
     <t>PROJECT 2</t>
   </si>
   <si>
@@ -897,19 +890,7 @@
     <t>VAT</t>
   </si>
   <si>
-    <t>The Director,</t>
-  </si>
-  <si>
-    <t>The Chairman,</t>
-  </si>
-  <si>
-    <t>The Permanent Secretary,</t>
-  </si>
-  <si>
-    <t>The Honourable Commissioner,</t>
-  </si>
-  <si>
-    <t>The Special Adviser,</t>
+    <t xml:space="preserve">_________________________   </t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2375,6 +2356,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4212,7 +4199,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4230,15 +4217,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="170" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="156" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="157"/>
       <c r="D2" s="158"/>
@@ -4246,7 +4233,7 @@
     </row>
     <row r="3" spans="1:5" s="164" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="163"/>
       <c r="E3" s="163"/>
@@ -4260,14 +4247,14 @@
     </row>
     <row r="5" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="67"/>
       <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="67"/>
       <c r="E6" s="67"/>
@@ -4295,56 +4282,56 @@
     </row>
     <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="73"/>
       <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="75"/>
       <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="76"/>
       <c r="E12" s="76"/>
     </row>
     <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="75"/>
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="76"/>
       <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="77"/>
       <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="79"/>
       <c r="E16" s="79"/>
     </row>
     <row r="17" spans="1:6" s="172" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="156" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="171">
         <v>7.4999999999999997E-2</v>
@@ -4356,7 +4343,7 @@
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="165" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18" s="166">
         <f>'PC 1'!B12</f>
@@ -4369,7 +4356,7 @@
     </row>
     <row r="19" spans="1:6" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="81"/>
       <c r="C19" t="str">
@@ -4384,7 +4371,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="156" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="157"/>
       <c r="D23" s="158"/>
@@ -4392,14 +4379,14 @@
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="83"/>
       <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="85"/>
       <c r="E25" s="85"/>
@@ -4413,7 +4400,7 @@
     </row>
     <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="87"/>
       <c r="E27" s="87"/>
@@ -4427,7 +4414,7 @@
     </row>
     <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="87"/>
       <c r="E29" s="87"/>
@@ -4469,21 +4456,21 @@
     </row>
     <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" s="87"/>
       <c r="E35" s="95"/>
     </row>
     <row r="36" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="89"/>
       <c r="E36" s="93"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="156" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B39" s="157"/>
       <c r="D39" s="158"/>
@@ -4491,77 +4478,77 @@
     </row>
     <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="91"/>
       <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="87"/>
       <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="87"/>
       <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="87"/>
       <c r="E43" s="93"/>
     </row>
     <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="87"/>
       <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="87"/>
       <c r="E45" s="87"/>
     </row>
     <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46" s="87"/>
       <c r="E46" s="93"/>
     </row>
     <row r="47" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="87"/>
       <c r="E47" s="93"/>
     </row>
     <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="87"/>
       <c r="E48" s="93"/>
     </row>
     <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B49" s="87"/>
       <c r="E49" s="93"/>
     </row>
     <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B50" s="87"/>
       <c r="E50" s="93"/>
@@ -4575,14 +4562,14 @@
     </row>
     <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="87"/>
       <c r="E52" s="93"/>
     </row>
     <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="87"/>
       <c r="E53" s="93"/>
@@ -4596,35 +4583,35 @@
     </row>
     <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B55" s="87"/>
       <c r="E55" s="93"/>
     </row>
     <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" s="87"/>
       <c r="E56" s="93"/>
     </row>
     <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="87"/>
       <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" s="89"/>
       <c r="E58" s="93"/>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="156" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B61" s="157"/>
       <c r="D61" s="158"/>
@@ -4632,21 +4619,21 @@
     </row>
     <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" s="91"/>
       <c r="D62" s="161"/>
     </row>
     <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B63" s="87"/>
       <c r="D63" s="161"/>
     </row>
     <row r="64" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B64" s="152" t="str">
         <f>B3&amp;","</f>
@@ -4656,28 +4643,28 @@
     </row>
     <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="87"/>
       <c r="D65" s="161"/>
     </row>
     <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="87"/>
       <c r="D66" s="161"/>
     </row>
     <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B67" s="87"/>
       <c r="D67" s="161"/>
     </row>
     <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B68" s="87"/>
       <c r="D68" s="161"/>
@@ -4685,7 +4672,7 @@
     </row>
     <row r="69" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B69" s="89"/>
       <c r="D69" s="161"/>
@@ -4693,7 +4680,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" s="157"/>
       <c r="D72" s="158"/>
@@ -4701,38 +4688,34 @@
     </row>
     <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" s="91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="161"/>
     </row>
     <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="87" t="s">
         <v>189</v>
-      </c>
-      <c r="B74" s="87" t="s">
-        <v>190</v>
       </c>
       <c r="D74" s="161"/>
     </row>
     <row r="75" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="B75" s="87" t="s">
-        <v>216</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B75" s="87"/>
       <c r="D75" s="161"/>
     </row>
     <row r="76" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="88" t="s">
-        <v>189</v>
-      </c>
-      <c r="B76" s="89" t="s">
-        <v>190</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B76" s="89"/>
       <c r="D76" s="161"/>
     </row>
   </sheetData>
@@ -4751,80 +4734,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09D38440-0E7C-4286-9742-58DDA4384066}">
-          <x14:formula1>
-            <xm:f>Sheet1!A1:A5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B63</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="235" t="str">
-        <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
-        <v>0 BY 0</v>
-      </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-    </row>
-    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-    </row>
-    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
-    </row>
-    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="234"/>
-      <c r="B5" s="234"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4CD36-03FD-496B-98BB-640C315ACE5B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4948,7 +4861,7 @@
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" s="239" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="239"/>
       <c r="C15" s="239"/>
@@ -4984,16 +4897,16 @@
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="C20" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>184</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
@@ -5037,7 +4950,7 @@
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="244" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="244"/>
       <c r="C24" s="244"/>
@@ -5051,7 +4964,7 @@
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="236" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="236"/>
       <c r="C26" s="236"/>
@@ -5065,7 +4978,7 @@
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" s="240" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="240"/>
       <c r="C28" s="240"/>
@@ -5073,7 +4986,7 @@
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" s="240" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="240"/>
       <c r="C29" s="240"/>
@@ -5132,7 +5045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD7048-288F-4FD0-BDF8-1BCB1A591382}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5256,7 +5169,7 @@
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A15" s="239" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="239"/>
       <c r="C15" s="239"/>
@@ -5292,16 +5205,16 @@
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="C20" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>184</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
@@ -5345,7 +5258,7 @@
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="244" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="244"/>
       <c r="C24" s="244"/>
@@ -5359,7 +5272,7 @@
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="236" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" s="236"/>
       <c r="C26" s="236"/>
@@ -5373,7 +5286,7 @@
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A28" s="240" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="240"/>
       <c r="C28" s="240"/>
@@ -5381,7 +5294,7 @@
     </row>
     <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A29" s="240" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="240"/>
       <c r="C29" s="240"/>
@@ -5441,46 +5354,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900D50EE-9CC1-4882-88AB-7DF9F9594D97}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
@@ -5527,7 +5400,7 @@
     </row>
     <row r="3" spans="1:9" s="127" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="125">
         <f>DETAILS!B11</f>
@@ -5539,7 +5412,7 @@
     </row>
     <row r="4" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="128">
         <f>D4*B2</f>
@@ -5621,7 +5494,7 @@
     </row>
     <row r="10" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="128">
         <f>B4*D10</f>
@@ -5673,7 +5546,7 @@
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="42">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -5786,7 +5659,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="43">
         <f>DETAILS!B25</f>
@@ -5817,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" s="58">
         <f>DETAILS!B27</f>
@@ -5851,7 +5724,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="43">
         <f>DETAILS!B29</f>
@@ -5923,7 +5796,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="43">
         <f>DETAILS!B35</f>
@@ -5935,7 +5808,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="43">
         <f>DETAILS!B36</f>
@@ -5947,7 +5820,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="47">
         <f>DETAILS!B24</f>
@@ -5959,7 +5832,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="48">
         <f>DETAILS!B56</f>
@@ -5971,7 +5844,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="43">
         <f>DETAILS!B40</f>
@@ -5983,7 +5856,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="43">
         <f>DETAILS!B41</f>
@@ -5995,7 +5868,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="43">
         <f>DETAILS!B42</f>
@@ -6007,7 +5880,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="43">
         <f>DETAILS!B43</f>
@@ -6019,7 +5892,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="43">
         <f>DETAILS!B44</f>
@@ -6031,7 +5904,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="43">
         <f>DETAILS!B46</f>
@@ -6043,7 +5916,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" s="43">
         <f>DETAILS!B47</f>
@@ -6055,7 +5928,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="43">
         <f>DETAILS!B48</f>
@@ -6067,7 +5940,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="43">
         <f>DETAILS!B49</f>
@@ -6079,7 +5952,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="43">
         <f>DETAILS!B50</f>
@@ -6103,7 +5976,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="43">
         <f>DETAILS!B52</f>
@@ -6115,7 +5988,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="43">
         <f>DETAILS!B53</f>
@@ -6139,7 +6012,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="43">
         <f>DETAILS!B55</f>
@@ -6151,7 +6024,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" s="49">
         <f>DETAILS!B45</f>
@@ -6163,7 +6036,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="49">
         <f>DETAILS!B57</f>
@@ -6175,7 +6048,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="49">
         <f>DETAILS!B58</f>
@@ -6184,7 +6057,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="44">
         <f>DETAILS!B62</f>
@@ -6193,7 +6066,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="43">
         <f>DETAILS!B63</f>
@@ -6202,7 +6075,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" s="43" t="str">
         <f>DETAILS!B64</f>
@@ -6211,7 +6084,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="43">
         <f>DETAILS!B65</f>
@@ -6220,7 +6093,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="43">
         <f>DETAILS!B66</f>
@@ -6229,7 +6102,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="43">
         <f>DETAILS!B67</f>
@@ -6238,7 +6111,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="43">
         <f>DETAILS!B68</f>
@@ -6247,7 +6120,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="43">
         <f>DETAILS!B69</f>
@@ -6261,7 +6134,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" s="63" t="str">
         <f>DETAILS!B73</f>
@@ -6270,7 +6143,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="63" t="str">
         <f>DETAILS!B74</f>
@@ -6279,20 +6152,20 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="63" t="str">
+        <v>190</v>
+      </c>
+      <c r="B70" s="63">
         <f>DETAILS!B75</f>
-        <v xml:space="preserve">Adekunle-Famuyon, F.A </v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" s="63" t="str">
+        <v>188</v>
+      </c>
+      <c r="B71" s="63">
         <f>DETAILS!B76</f>
-        <v>PPO (MED)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" collapsed="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -6304,7 +6177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30E5E9-A30D-4D28-9440-81B609211034}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -6350,7 +6223,7 @@
     </row>
     <row r="3" spans="1:9" s="104" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="102">
         <f>DETAILS!E11</f>
@@ -6362,7 +6235,7 @@
     </row>
     <row r="4" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="105">
         <f>D4*B2</f>
@@ -6444,7 +6317,7 @@
     </row>
     <row r="10" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="105">
         <f>B4*D10</f>
@@ -6496,7 +6369,7 @@
     </row>
     <row r="14" spans="1:9" s="100" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" s="97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="114">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -6609,7 +6482,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="43">
         <f>DETAILS!E25</f>
@@ -6640,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" s="58">
         <f>DETAILS!E27</f>
@@ -6674,7 +6547,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="43">
         <f>DETAILS!E29</f>
@@ -6746,7 +6619,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" s="115">
         <f>DETAILS!E35</f>
@@ -6758,7 +6631,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="115">
         <f>DETAILS!E36</f>
@@ -6770,7 +6643,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="116">
         <f>DETAILS!E24</f>
@@ -6782,7 +6655,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="117">
         <f>DETAILS!E56</f>
@@ -6794,7 +6667,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="115">
         <f>DETAILS!E40</f>
@@ -6806,7 +6679,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="115">
         <f>DETAILS!E41</f>
@@ -6818,7 +6691,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="115">
         <f>DETAILS!E42</f>
@@ -6830,7 +6703,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="115">
         <f>DETAILS!E43</f>
@@ -6842,7 +6715,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="115">
         <f>DETAILS!E44</f>
@@ -6854,7 +6727,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="115">
         <f>DETAILS!E46</f>
@@ -6866,7 +6739,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" s="115">
         <f>DETAILS!E47</f>
@@ -6878,7 +6751,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B47" s="115">
         <f>DETAILS!E48</f>
@@ -6890,7 +6763,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="115">
         <f>DETAILS!E49</f>
@@ -6902,7 +6775,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B49" s="115">
         <f>DETAILS!E50</f>
@@ -6926,7 +6799,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" s="115">
         <f>DETAILS!E52</f>
@@ -6938,7 +6811,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="115">
         <f>DETAILS!E53</f>
@@ -6962,7 +6835,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B54" s="115">
         <f>DETAILS!E55</f>
@@ -6974,7 +6847,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B55" s="118">
         <f>DETAILS!E45</f>
@@ -6986,7 +6859,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="118">
         <f>DETAILS!E57</f>
@@ -6998,7 +6871,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" s="118">
         <f>DETAILS!E58</f>
@@ -7007,7 +6880,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B58" s="119">
         <f>DETAILS!E62</f>
@@ -7016,7 +6889,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" s="115">
         <f>DETAILS!E63</f>
@@ -7025,7 +6898,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B60" s="115">
         <f>DETAILS!E64</f>
@@ -7034,7 +6907,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B61" s="115">
         <f>DETAILS!E65</f>
@@ -7043,7 +6916,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="115">
         <f>DETAILS!E66</f>
@@ -7052,7 +6925,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="115">
         <f>DETAILS!E67</f>
@@ -7061,7 +6934,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="115">
         <f>DETAILS!E68</f>
@@ -7070,7 +6943,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="115">
         <f>DETAILS!E69</f>
@@ -7086,7 +6959,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" s="151">
         <f>DETAILS!E73</f>
@@ -7095,7 +6968,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="151">
         <f>DETAILS!E74</f>
@@ -7104,7 +6977,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" s="151">
         <f>DETAILS!E75</f>
@@ -7113,7 +6986,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B71" s="151">
         <f>DETAILS!E76</f>
@@ -7130,7 +7003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668DB09-8ADD-42DE-90D6-D5ACBFA751FC}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
@@ -7348,7 +7221,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="193">
         <f>'PC 1'!D27</f>
@@ -7456,7 +7329,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="178">
         <f>'PC 1'!B3</f>
@@ -7597,7 +7470,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -7615,7 +7488,7 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8014,7 +7887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05493551-3041-4A4A-B7E3-7F56097C5DC6}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -8340,7 +8213,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="178">
         <f>'PC 2'!B3</f>
@@ -8481,7 +8354,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -8499,7 +8372,7 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
@@ -8885,7 +8758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC43EDD-15D8-4A61-A2D6-648A3D3D55FD}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
@@ -8893,8 +8766,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A32" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="39" x14ac:dyDescent="0.75"/>
@@ -8958,7 +8831,7 @@
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="137" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="229">
         <f>'PC 1'!B23</f>
@@ -8978,7 +8851,7 @@
     </row>
     <row r="6" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" s="137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="229">
         <f>'PC 2'!B23</f>
@@ -8993,7 +8866,7 @@
     </row>
     <row r="7" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A7" s="137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="229">
         <f>'PC 1'!B20</f>
@@ -9004,7 +8877,7 @@
       <c r="E7" s="229"/>
       <c r="F7" s="229"/>
       <c r="G7" s="138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="139" t="str">
         <f>'PC 1'!B27 &amp; "/" &amp; 'PC 2'!B27</f>
@@ -9024,7 +8897,7 @@
       <c r="E8" s="230"/>
       <c r="F8" s="230"/>
       <c r="G8" s="138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H8" s="139" t="str">
         <f>'PC 1'!B30 &amp; "/" &amp; 'PC 2'!B30</f>
@@ -9033,7 +8906,7 @@
     </row>
     <row r="9" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A9" s="137" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="231" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
@@ -9047,7 +8920,7 @@
         <v>113</v>
       </c>
       <c r="H9" s="168" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
@@ -9063,7 +8936,7 @@
       <c r="E10" s="230"/>
       <c r="F10" s="230"/>
       <c r="G10" s="138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="139" t="str">
         <f>'PC 1'!B1 &amp; "/" &amp; 'PC 2'!B1</f>
@@ -9075,7 +8948,7 @@
         <v>115</v>
       </c>
       <c r="B11" s="230" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="230"/>
       <c r="D11" s="230"/>
@@ -9105,7 +8978,7 @@
         <v>59</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="201" t="s">
         <v>60</v>
@@ -9120,7 +8993,7 @@
       <c r="C14" s="219"/>
       <c r="D14" s="220"/>
       <c r="E14" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="141"/>
       <c r="G14" s="212" t="str">
@@ -9137,7 +9010,7 @@
       <c r="C15" s="219"/>
       <c r="D15" s="220"/>
       <c r="E15" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" s="141"/>
       <c r="G15" s="212" t="str">
@@ -9154,7 +9027,7 @@
       <c r="C16" s="219"/>
       <c r="D16" s="220"/>
       <c r="E16" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="141"/>
       <c r="G16" s="212" t="str">
@@ -9171,7 +9044,7 @@
       <c r="C17" s="219"/>
       <c r="D17" s="220"/>
       <c r="E17" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="141"/>
       <c r="G17" s="212" t="str">
@@ -9189,7 +9062,7 @@
       <c r="C18" s="219"/>
       <c r="D18" s="220"/>
       <c r="E18" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" s="141"/>
       <c r="G18" s="212" t="str">
@@ -9200,14 +9073,14 @@
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A19" s="218" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="219"/>
       <c r="C19" s="219"/>
       <c r="D19" s="220"/>
       <c r="E19" s="140"/>
       <c r="F19" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="212" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
@@ -9224,7 +9097,7 @@
       <c r="D20" s="220"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="212" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
@@ -9234,7 +9107,7 @@
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A21" s="218" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="219"/>
       <c r="C21" s="219"/>
@@ -9256,7 +9129,7 @@
       <c r="D22" s="220"/>
       <c r="E22" s="141"/>
       <c r="F22" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
@@ -9281,7 +9154,7 @@
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A24" s="142" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="221" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
@@ -9308,7 +9181,7 @@
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A26" s="212" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="214"/>
       <c r="C26" s="214"/>
@@ -9322,7 +9195,7 @@
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="212" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="214"/>
       <c r="C27" s="214"/>
@@ -9424,7 +9297,7 @@
       <c r="C34" s="210"/>
       <c r="D34" s="210"/>
       <c r="E34" s="145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="144"/>
       <c r="G34" s="212"/>
@@ -9462,7 +9335,7 @@
       <c r="C37" s="210"/>
       <c r="D37" s="210"/>
       <c r="E37" s="145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="146"/>
       <c r="G37" s="201"/>
@@ -9476,7 +9349,7 @@
       <c r="C38" s="210"/>
       <c r="D38" s="210"/>
       <c r="E38" s="145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" s="144"/>
       <c r="G38" s="212"/>
@@ -9520,7 +9393,7 @@
       <c r="C41" s="203"/>
       <c r="D41" s="204"/>
       <c r="E41" s="140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="141"/>
       <c r="G41" s="201"/>
@@ -9536,33 +9409,38 @@
       <c r="A43" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="149" t="s">
-        <v>120</v>
-      </c>
+      <c r="D43" s="149"/>
       <c r="E43" s="148"/>
       <c r="F43" s="148"/>
+      <c r="G43" s="245" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="245"/>
     </row>
     <row r="44" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A44" s="148" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="D44" s="136" t="str">
+      <c r="G44" s="246">
         <f>'PC 1'!B70</f>
-        <v xml:space="preserve">Adekunle-Famuyon, F.A </v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" s="246"/>
     </row>
     <row r="45" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A45" s="148" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="D45" s="148" t="str">
-        <f>'PC 1'!B71</f>
-        <v>PPO (MED)</v>
-      </c>
+      <c r="D45" s="148"/>
       <c r="E45" s="148"/>
       <c r="F45" s="148"/>
+      <c r="G45" s="245">
+        <f>'PC 1'!B71</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="245"/>
     </row>
     <row r="46" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A46" s="150">
@@ -9571,7 +9449,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="72">
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
@@ -9647,7 +9528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -9719,7 +9600,7 @@
     </row>
     <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
@@ -9750,12 +9631,12 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -9772,19 +9653,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="str">
         <f>'PC 1'!B68 &amp; "                                                                 " &amp; 'PC 1'!B70</f>
-        <v xml:space="preserve">Alawiye, K.T (Ms)                                                                 Adekunle-Famuyon, F.A </v>
+        <v>Alawiye, K.T (Ms)                                                                 0</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -9795,7 +9676,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="str">
         <f>'PC 1'!B69 &amp; "                                                                                                           " &amp; 'PC 1'!B71</f>
-        <v>PPO (MED)                                                                                                           PPO (MED)</v>
+        <v>PPO (MED)                                                                                                           0</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -9803,7 +9684,7 @@
         <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>52</v>
@@ -9838,7 +9719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2A0A5-F971-4D4F-A38B-5D097CA35F05}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9860,7 +9741,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9894,4 +9775,62 @@
   <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="235" t="str">
+        <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
+        <v>0 BY 0</v>
+      </c>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+    </row>
+    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+    </row>
+    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
+    </row>
+    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PC Template 2.xlsx
+++ b/PC Template 2.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8f758458f7441ec/Documents/KENNY PREPAYMENT CERT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{62742E31-542F-4007-B5CD-8FD6EACA1FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34396E33-D579-4ED5-80C2-14B83F1C5FCE}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{B710A75C-CC11-4993-BBC3-8EFCCB5A3957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE55400C-549F-44A7-8A39-CAAD5F17689F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3105D93-4F2D-4261-B669-05F183F1BD78}"/>
   </bookViews>
   <sheets>
     <sheet name="DETAILS" sheetId="18" r:id="rId1"/>
-    <sheet name="PC 1" sheetId="2" r:id="rId2"/>
-    <sheet name="PC 2" sheetId="13" r:id="rId3"/>
-    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId4"/>
-    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId5"/>
-    <sheet name="CHECKLIST" sheetId="3" r:id="rId6"/>
-    <sheet name="MEMO" sheetId="4" r:id="rId7"/>
-    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId8"/>
-    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId9"/>
-    <sheet name="APPROVAL" sheetId="8" r:id="rId10"/>
-    <sheet name="APPROVAL (one reference)" sheetId="17" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="20" state="hidden" r:id="rId2"/>
+    <sheet name="PC 1" sheetId="2" r:id="rId3"/>
+    <sheet name="PC 2" sheetId="13" r:id="rId4"/>
+    <sheet name="INSPECTION REPORT" sheetId="1" r:id="rId5"/>
+    <sheet name="INSPECTION REPORT 2" sheetId="14" r:id="rId6"/>
+    <sheet name="CHECKLIST" sheetId="3" r:id="rId7"/>
+    <sheet name="MEMO" sheetId="4" r:id="rId8"/>
+    <sheet name="MED PICTURES (A)" sheetId="11" r:id="rId9"/>
+    <sheet name="MED PICTURES (B)" sheetId="19" r:id="rId10"/>
+    <sheet name="APPROVAL" sheetId="8" r:id="rId11"/>
+    <sheet name="APPROVAL (one reference)" sheetId="17" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">APPROVAL!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">CHECKLIST!$A$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">MEMO!$A$1:$A$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">APPROVAL!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'APPROVAL (one reference)'!$A$1:$D$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">CHECKLIST!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">MEMO!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="230">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -451,6 +452,9 @@
   </si>
   <si>
     <t xml:space="preserve">__________________                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">________________   </t>
   </si>
   <si>
     <t>Ms. Alawiye, K.T</t>
@@ -890,7 +894,22 @@
     <t>VAT</t>
   </si>
   <si>
-    <t xml:space="preserve">_________________________   </t>
+    <t>The Director,</t>
+  </si>
+  <si>
+    <t>The Chairman,</t>
+  </si>
+  <si>
+    <t>The Permanent Secretary,</t>
+  </si>
+  <si>
+    <t>The Honourable Commissioner,</t>
+  </si>
+  <si>
+    <t>The Special Adviser,</t>
+  </si>
+  <si>
+    <t>The General Manager,</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2165,6 +2184,45 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2178,12 +2236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2192,38 +2244,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2231,15 +2277,63 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2249,119 +2343,45 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4217,15 +4237,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="170" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="156" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="157"/>
       <c r="D2" s="158"/>
@@ -4233,7 +4253,7 @@
     </row>
     <row r="3" spans="1:5" s="164" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="162" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="163"/>
       <c r="E3" s="163"/>
@@ -4247,14 +4267,14 @@
     </row>
     <row r="5" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B5" s="67"/>
       <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" s="67"/>
       <c r="E6" s="67"/>
@@ -4282,56 +4302,56 @@
     </row>
     <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" s="73"/>
       <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B11" s="75"/>
       <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B12" s="76"/>
       <c r="E12" s="76"/>
     </row>
     <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B13" s="75"/>
       <c r="E13" s="75"/>
     </row>
     <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B14" s="76"/>
       <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B15" s="77"/>
       <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" s="79"/>
       <c r="E16" s="79"/>
     </row>
     <row r="17" spans="1:6" s="172" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="156" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B17" s="171">
         <v>7.4999999999999997E-2</v>
@@ -4343,7 +4363,7 @@
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="165" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B18" s="166">
         <f>'PC 1'!B12</f>
@@ -4356,7 +4376,7 @@
     </row>
     <row r="19" spans="1:6" ht="18.600000000000001" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" s="81"/>
       <c r="C19" t="str">
@@ -4371,7 +4391,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="156" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" s="157"/>
       <c r="D23" s="158"/>
@@ -4379,14 +4399,14 @@
     </row>
     <row r="24" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A24" s="82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" s="83"/>
       <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A25" s="84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="85"/>
       <c r="E25" s="85"/>
@@ -4400,7 +4420,7 @@
     </row>
     <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B27" s="87"/>
       <c r="E27" s="87"/>
@@ -4414,7 +4434,7 @@
     </row>
     <row r="29" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" s="87"/>
       <c r="E29" s="87"/>
@@ -4456,21 +4476,21 @@
     </row>
     <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A35" s="86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B35" s="87"/>
       <c r="E35" s="95"/>
     </row>
     <row r="36" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B36" s="89"/>
       <c r="E36" s="93"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="156" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" s="157"/>
       <c r="D39" s="158"/>
@@ -4478,77 +4498,77 @@
     </row>
     <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="91"/>
       <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="87"/>
       <c r="E41" s="93"/>
     </row>
     <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A42" s="86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B42" s="87"/>
       <c r="E42" s="93"/>
     </row>
     <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A43" s="86" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="87"/>
       <c r="E43" s="93"/>
     </row>
     <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A44" s="86" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="87"/>
       <c r="E44" s="93"/>
     </row>
     <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" s="87"/>
       <c r="E45" s="87"/>
     </row>
     <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" s="87"/>
       <c r="E46" s="93"/>
     </row>
     <row r="47" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A47" s="86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" s="87"/>
       <c r="E47" s="93"/>
     </row>
     <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A48" s="86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B48" s="87"/>
       <c r="E48" s="93"/>
     </row>
     <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" s="87"/>
       <c r="E49" s="93"/>
     </row>
     <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" s="87"/>
       <c r="E50" s="93"/>
@@ -4562,14 +4582,14 @@
     </row>
     <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A52" s="86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" s="87"/>
       <c r="E52" s="93"/>
     </row>
     <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A53" s="86" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" s="87"/>
       <c r="E53" s="93"/>
@@ -4583,35 +4603,35 @@
     </row>
     <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" s="87"/>
       <c r="E55" s="93"/>
     </row>
     <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A56" s="86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B56" s="87"/>
       <c r="E56" s="93"/>
     </row>
     <row r="57" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B57" s="87"/>
       <c r="E57" s="93"/>
     </row>
     <row r="58" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="88" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B58" s="89"/>
       <c r="E58" s="93"/>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B61" s="157"/>
       <c r="D61" s="158"/>
@@ -4619,21 +4639,21 @@
     </row>
     <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A62" s="90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B62" s="91"/>
       <c r="D62" s="161"/>
     </row>
     <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A63" s="86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B63" s="87"/>
       <c r="D63" s="161"/>
     </row>
     <row r="64" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A64" s="86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B64" s="152" t="str">
         <f>B3&amp;","</f>
@@ -4643,28 +4663,28 @@
     </row>
     <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A65" s="86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B65" s="87"/>
       <c r="D65" s="161"/>
     </row>
     <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A66" s="86" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" s="87"/>
       <c r="D66" s="161"/>
     </row>
     <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A67" s="86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B67" s="87"/>
       <c r="D67" s="161"/>
     </row>
     <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A68" s="86" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B68" s="87"/>
       <c r="D68" s="161"/>
@@ -4672,7 +4692,7 @@
     </row>
     <row r="69" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="88" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" s="89"/>
       <c r="D69" s="161"/>
@@ -4680,7 +4700,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B72" s="157"/>
       <c r="D72" s="158"/>
@@ -4688,32 +4708,32 @@
     </row>
     <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B73" s="91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D73" s="161"/>
     </row>
     <row r="74" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A74" s="86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B74" s="87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D74" s="161"/>
     </row>
     <row r="75" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A75" s="86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B75" s="87"/>
       <c r="D75" s="161"/>
     </row>
     <row r="76" spans="1:5" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B76" s="89"/>
       <c r="D76" s="161"/>
@@ -4734,10 +4754,80 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09D38440-0E7C-4286-9742-58DDA4384066}">
+          <x14:formula1>
+            <xm:f>Sheet1!A1:A6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B63</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="235" t="str">
+        <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
+        <v>0 BY 0</v>
+      </c>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+    </row>
+    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+    </row>
+    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
+    </row>
+    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="234"/>
+      <c r="B5" s="234"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD4CD36-03FD-496B-98BB-640C315ACE5B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4758,155 +4848,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="237"/>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="237"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="238" t="str">
+      <c r="A7" s="244" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="238">
+      <c r="A9" s="244">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="236" t="str">
+      <c r="A10" s="237" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="236">
+      <c r="A11" s="237">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="236">
+      <c r="A12" s="237">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="236"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="236">
+      <c r="A13" s="237">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="236"/>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
+      <c r="A14" s="237"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="239" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
+      <c r="A15" s="238" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="241" t="str">
+      <c r="A16" s="239" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="242" t="str">
+      <c r="A18" s="240" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64&amp;" &amp; "&amp;'PC 2'!B64&amp;" dated "&amp;'PC 1'!B65&amp;" &amp; "&amp;'PC 2'!B65&amp;" respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 &amp; 0 dated 0 &amp; 0 respectively, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="243"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="A19" s="241"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
@@ -4949,48 +5039,48 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="244" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="244"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
+      <c r="A24" s="242" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="242"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="236"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="237"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="236" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
+      <c r="A26" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="237"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="236"/>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="237"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="236" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="240" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5015,6 +5105,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5027,25 +5129,13 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFD7048-288F-4FD0-BDF8-1BCB1A591382}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5066,155 +5156,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="237"/>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="237"/>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
+      <c r="A2" s="243"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
     </row>
     <row r="3" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
+      <c r="A3" s="243"/>
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="243"/>
     </row>
     <row r="4" spans="1:4" s="28" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="237"/>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
     </row>
     <row r="5" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="237"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
     </row>
     <row r="6" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A6" s="237"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="237"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="243"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="238" t="str">
+      <c r="A7" s="244" t="str">
         <f>'PC 1'!B57 &amp; "                                                                             " &amp; 'PC 1'!B58</f>
         <v>0                                                                             0</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
     </row>
     <row r="8" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A8" s="239"/>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
+      <c r="A8" s="238"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
     </row>
     <row r="9" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="238">
+      <c r="A9" s="244">
         <f>'PC 1'!B59</f>
         <v>0</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
     </row>
     <row r="10" spans="1:4" s="28" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="236" t="str">
+      <c r="A10" s="237" t="str">
         <f>'PC 1'!B60</f>
         <v>,</v>
       </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A11" s="236">
+      <c r="A11" s="237">
         <f>'PC 1'!B61</f>
         <v>0</v>
       </c>
-      <c r="B11" s="236"/>
-      <c r="C11" s="236"/>
-      <c r="D11" s="236"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
     </row>
     <row r="12" spans="1:4" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="236">
+      <c r="A12" s="237">
         <f>'PC 1'!B62</f>
         <v>0</v>
       </c>
-      <c r="B12" s="236"/>
-      <c r="C12" s="236"/>
-      <c r="D12" s="236"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
     </row>
     <row r="13" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A13" s="236">
+      <c r="A13" s="237">
         <f>'PC 1'!B63</f>
         <v>0</v>
       </c>
-      <c r="B13" s="236"/>
-      <c r="C13" s="236"/>
-      <c r="D13" s="236"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
     </row>
     <row r="14" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A14" s="236"/>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
+      <c r="A14" s="237"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
     </row>
     <row r="15" spans="1:4" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A15" s="239" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="239"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
+      <c r="A15" s="238" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="238"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
     </row>
     <row r="16" spans="1:4" s="28" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="241" t="str">
+      <c r="A16" s="239" t="str">
         <f>'PC 1'!B24 &amp; " " &amp; "&amp;" &amp; " " &amp;'PC 2'!B24 &amp; "."</f>
         <v>0 &amp; 0.</v>
       </c>
-      <c r="B16" s="241"/>
-      <c r="C16" s="241"/>
-      <c r="D16" s="241"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="239"/>
     </row>
     <row r="17" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A17" s="30"/>
       <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:10" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="242" t="str">
+      <c r="A18" s="240" t="str">
         <f>"         I am directed to refer to your letter Ref. No. "&amp;'PC 1'!B64 &amp;" dated "&amp;'PC 1'!B65&amp;", on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:"</f>
         <v xml:space="preserve">         I am directed to refer to your letter Ref. No. 0 dated 0, on the above subject and inform you that approval for the Pre-payment Certificates has been granted in the following sums:</v>
       </c>
-      <c r="B18" s="242"/>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
+      <c r="B18" s="240"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
     </row>
     <row r="19" spans="1:10" s="28" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="243"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243"/>
-      <c r="D19" s="243"/>
+      <c r="A19" s="241"/>
+      <c r="B19" s="241"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="241"/>
     </row>
     <row r="20" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="28" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.6">
@@ -5257,48 +5347,48 @@
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="244" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="244"/>
-      <c r="C24" s="244"/>
-      <c r="D24" s="244"/>
+      <c r="A24" s="242" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="242"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
     </row>
     <row r="25" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A25" s="236"/>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
+      <c r="A25" s="237"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="237"/>
     </row>
     <row r="26" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="236" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
+      <c r="A26" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="237"/>
+      <c r="C26" s="237"/>
+      <c r="D26" s="237"/>
     </row>
     <row r="27" spans="1:10" s="28" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="236"/>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
+      <c r="A27" s="237"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="237"/>
+      <c r="D27" s="237"/>
     </row>
     <row r="28" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="236" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+    </row>
+    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
+      <c r="A29" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="240"/>
-    </row>
-    <row r="29" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
-      <c r="A29" s="240" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
     </row>
     <row r="30" spans="1:10" s="28" customFormat="1" ht="23.4" x14ac:dyDescent="0.6">
       <c r="A30" s="31"/>
@@ -5323,6 +5413,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
@@ -5335,18 +5437,6 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
@@ -5354,6 +5444,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900D50EE-9CC1-4882-88AB-7DF9F9594D97}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B953A53-A27B-45D9-B81F-254AD8663A08}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF0070C0"/>
@@ -5400,7 +5535,7 @@
     </row>
     <row r="3" spans="1:9" s="127" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="124" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="125">
         <f>DETAILS!B11</f>
@@ -5412,7 +5547,7 @@
     </row>
     <row r="4" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="120" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="128">
         <f>D4*B2</f>
@@ -5494,7 +5629,7 @@
     </row>
     <row r="10" spans="1:9" s="123" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="128">
         <f>B4*D10</f>
@@ -5546,7 +5681,7 @@
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="42">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -5659,7 +5794,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="43">
         <f>DETAILS!B25</f>
@@ -5690,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="58">
         <f>DETAILS!B27</f>
@@ -5724,7 +5859,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="43">
         <f>DETAILS!B29</f>
@@ -5796,7 +5931,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" s="43">
         <f>DETAILS!B35</f>
@@ -5808,7 +5943,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="43">
         <f>DETAILS!B36</f>
@@ -5820,7 +5955,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="47">
         <f>DETAILS!B24</f>
@@ -5832,7 +5967,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="48">
         <f>DETAILS!B56</f>
@@ -5844,7 +5979,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="43">
         <f>DETAILS!B40</f>
@@ -5856,7 +5991,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="43">
         <f>DETAILS!B41</f>
@@ -5868,7 +6003,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="43">
         <f>DETAILS!B42</f>
@@ -5880,7 +6015,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="43">
         <f>DETAILS!B43</f>
@@ -5892,7 +6027,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="43">
         <f>DETAILS!B44</f>
@@ -5904,7 +6039,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="43">
         <f>DETAILS!B46</f>
@@ -5916,7 +6051,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" s="43">
         <f>DETAILS!B47</f>
@@ -5928,7 +6063,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47" s="43">
         <f>DETAILS!B48</f>
@@ -5940,7 +6075,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="43">
         <f>DETAILS!B49</f>
@@ -5952,7 +6087,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="43">
         <f>DETAILS!B50</f>
@@ -5976,7 +6111,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="43">
         <f>DETAILS!B52</f>
@@ -5988,7 +6123,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="43">
         <f>DETAILS!B53</f>
@@ -6012,7 +6147,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="43">
         <f>DETAILS!B55</f>
@@ -6024,7 +6159,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="49">
         <f>DETAILS!B45</f>
@@ -6036,7 +6171,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" s="49">
         <f>DETAILS!B57</f>
@@ -6048,7 +6183,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B57" s="49">
         <f>DETAILS!B58</f>
@@ -6057,7 +6192,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="44">
         <f>DETAILS!B62</f>
@@ -6066,7 +6201,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="43">
         <f>DETAILS!B63</f>
@@ -6075,7 +6210,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="43" t="str">
         <f>DETAILS!B64</f>
@@ -6084,7 +6219,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="43">
         <f>DETAILS!B65</f>
@@ -6093,7 +6228,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="43">
         <f>DETAILS!B66</f>
@@ -6102,7 +6237,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="43">
         <f>DETAILS!B67</f>
@@ -6111,7 +6246,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="43">
         <f>DETAILS!B68</f>
@@ -6120,7 +6255,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" s="43">
         <f>DETAILS!B69</f>
@@ -6134,7 +6269,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" s="63" t="str">
         <f>DETAILS!B73</f>
@@ -6143,7 +6278,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B69" s="63" t="str">
         <f>DETAILS!B74</f>
@@ -6152,7 +6287,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B70" s="63">
         <f>DETAILS!B75</f>
@@ -6161,7 +6296,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B71" s="63">
         <f>DETAILS!B76</f>
@@ -6177,7 +6312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A30E5E9-A30D-4D28-9440-81B609211034}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -6223,7 +6358,7 @@
     </row>
     <row r="3" spans="1:9" s="104" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="101" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="102">
         <f>DETAILS!E11</f>
@@ -6235,7 +6370,7 @@
     </row>
     <row r="4" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="105">
         <f>D4*B2</f>
@@ -6317,7 +6452,7 @@
     </row>
     <row r="10" spans="1:9" s="100" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="97" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="105">
         <f>B4*D10</f>
@@ -6369,7 +6504,7 @@
     </row>
     <row r="14" spans="1:9" s="100" customFormat="1" ht="46.95" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.45">
       <c r="A14" s="97" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="114">
         <f>IF(B11&lt;&gt;"Nil",B10+B11+B12,B10+B12)</f>
@@ -6482,7 +6617,7 @@
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="43">
         <f>DETAILS!E25</f>
@@ -6513,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27" s="58">
         <f>DETAILS!E27</f>
@@ -6547,7 +6682,7 @@
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" s="43">
         <f>DETAILS!E29</f>
@@ -6619,7 +6754,7 @@
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B36" s="115">
         <f>DETAILS!E35</f>
@@ -6631,7 +6766,7 @@
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A37" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="115">
         <f>DETAILS!E36</f>
@@ -6643,7 +6778,7 @@
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="72" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="116">
         <f>DETAILS!E24</f>
@@ -6655,7 +6790,7 @@
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A39" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" s="117">
         <f>DETAILS!E56</f>
@@ -6667,7 +6802,7 @@
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="115">
         <f>DETAILS!E40</f>
@@ -6679,7 +6814,7 @@
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" s="115">
         <f>DETAILS!E41</f>
@@ -6691,7 +6826,7 @@
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B42" s="115">
         <f>DETAILS!E42</f>
@@ -6703,7 +6838,7 @@
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B43" s="115">
         <f>DETAILS!E43</f>
@@ -6715,7 +6850,7 @@
     </row>
     <row r="44" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B44" s="115">
         <f>DETAILS!E44</f>
@@ -6727,7 +6862,7 @@
     </row>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="115">
         <f>DETAILS!E46</f>
@@ -6739,7 +6874,7 @@
     </row>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" s="115">
         <f>DETAILS!E47</f>
@@ -6751,7 +6886,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47" s="115">
         <f>DETAILS!E48</f>
@@ -6763,7 +6898,7 @@
     </row>
     <row r="48" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" s="115">
         <f>DETAILS!E49</f>
@@ -6775,7 +6910,7 @@
     </row>
     <row r="49" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="115">
         <f>DETAILS!E50</f>
@@ -6799,7 +6934,7 @@
     </row>
     <row r="51" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="115">
         <f>DETAILS!E52</f>
@@ -6811,7 +6946,7 @@
     </row>
     <row r="52" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B52" s="115">
         <f>DETAILS!E53</f>
@@ -6835,7 +6970,7 @@
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B54" s="115">
         <f>DETAILS!E55</f>
@@ -6847,7 +6982,7 @@
     </row>
     <row r="55" spans="1:5" s="8" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" s="118">
         <f>DETAILS!E45</f>
@@ -6859,7 +6994,7 @@
     </row>
     <row r="56" spans="1:5" s="7" customFormat="1" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A56" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" s="118">
         <f>DETAILS!E57</f>
@@ -6871,7 +7006,7 @@
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B57" s="118">
         <f>DETAILS!E58</f>
@@ -6880,7 +7015,7 @@
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B58" s="119">
         <f>DETAILS!E62</f>
@@ -6889,7 +7024,7 @@
     </row>
     <row r="59" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B59" s="115">
         <f>DETAILS!E63</f>
@@ -6898,7 +7033,7 @@
     </row>
     <row r="60" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="115">
         <f>DETAILS!E64</f>
@@ -6907,7 +7042,7 @@
     </row>
     <row r="61" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="115">
         <f>DETAILS!E65</f>
@@ -6916,7 +7051,7 @@
     </row>
     <row r="62" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="115">
         <f>DETAILS!E66</f>
@@ -6925,7 +7060,7 @@
     </row>
     <row r="63" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B63" s="115">
         <f>DETAILS!E67</f>
@@ -6934,7 +7069,7 @@
     </row>
     <row r="64" spans="1:5" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B64" s="115">
         <f>DETAILS!E68</f>
@@ -6943,7 +7078,7 @@
     </row>
     <row r="65" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B65" s="115">
         <f>DETAILS!E69</f>
@@ -6959,7 +7094,7 @@
     </row>
     <row r="68" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" s="151">
         <f>DETAILS!E73</f>
@@ -6968,7 +7103,7 @@
     </row>
     <row r="69" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A69" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B69" s="151">
         <f>DETAILS!E74</f>
@@ -6977,7 +7112,7 @@
     </row>
     <row r="70" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B70" s="151">
         <f>DETAILS!E75</f>
@@ -6986,7 +7121,7 @@
     </row>
     <row r="71" spans="1:2" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A71" s="64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B71" s="151">
         <f>DETAILS!E76</f>
@@ -7003,7 +7138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E668DB09-8ADD-42DE-90D6-D5ACBFA751FC}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
@@ -7034,79 +7169,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="188">
+      <c r="A2" s="180">
         <f>'PC 1'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 1'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7115,16 +7250,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="182">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -7133,16 +7268,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="179">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -7151,16 +7286,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="179">
         <f>'PC 1'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -7169,16 +7304,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="184">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -7187,16 +7322,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="179">
         <f>'PC 1'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -7205,34 +7340,34 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="179">
         <f>'PC 1'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="193">
+        <v>192</v>
+      </c>
+      <c r="C14" s="179">
         <f>'PC 1'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -7241,16 +7376,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="193">
+      <c r="C15" s="179">
         <f>'PC 1'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -7259,16 +7394,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="179">
         <f>'PC 1'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -7277,16 +7412,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="193">
+      <c r="C17" s="179">
         <f>'PC 1'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -7295,16 +7430,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="193">
+      <c r="C18" s="179">
         <f>'PC 1'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -7329,7 +7464,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="178">
         <f>'PC 1'!B3</f>
@@ -7403,16 +7538,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="191">
+      <c r="C24" s="193">
         <f>'PC 1'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -7421,16 +7556,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="193">
+      <c r="C25" s="179">
         <f>'PC 1'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -7470,7 +7605,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -7488,44 +7623,44 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="189" t="s">
@@ -7544,61 +7679,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="189" t="s">
@@ -7614,207 +7749,207 @@
       <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="195" t="str">
+      <c r="A38" s="186" t="str">
         <f>'PC 1'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="195"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="198"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="198"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="197" t="s">
+      <c r="B43" s="192"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="196" t="s">
+      <c r="A44" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="196"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="194" t="str">
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="185" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="194" t="str">
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="185" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="186">
+      <c r="A46" s="196"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="199">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="182" t="s">
+      <c r="A47" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="197"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
+      <c r="A48" s="197"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="197"/>
+      <c r="G48" s="197"/>
+      <c r="H48" s="197"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="182"/>
-      <c r="B49" s="182"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="182"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="182"/>
+      <c r="A49" s="197"/>
+      <c r="B49" s="197"/>
+      <c r="C49" s="197"/>
+      <c r="D49" s="197"/>
+      <c r="E49" s="197"/>
+      <c r="F49" s="197"/>
+      <c r="G49" s="197"/>
+      <c r="H49" s="197"/>
     </row>
     <row r="50" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="183" t="s">
+      <c r="A50" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="184"/>
-      <c r="C50" s="185" t="s">
+      <c r="B50" s="192"/>
+      <c r="C50" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="182"/>
-      <c r="E50" s="187" t="s">
+      <c r="D50" s="197"/>
+      <c r="E50" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="180" t="s">
+      <c r="B51" s="194"/>
+      <c r="C51" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="188" t="s">
+      <c r="D51" s="195"/>
+      <c r="E51" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="179" t="s">
+      <c r="A52" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="179"/>
-      <c r="C52" s="180" t="s">
+      <c r="B52" s="194"/>
+      <c r="C52" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="180"/>
-      <c r="E52" s="188" t="s">
+      <c r="D52" s="195"/>
+      <c r="E52" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7823,46 +7958,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="H9zoclxu4UsZj8+rBjW9H22erWzDUi501CBH4rrWuTPFpEO4+iRDcmY3jDBt0t9RxswI7OWiDBBTMio5T4W7Tw==" saltValue="NaHk3uBWzHvDeSenCoPVOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A41:I42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="A52:B52"/>
@@ -7879,6 +7974,46 @@
     <mergeCell ref="E52:I52"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="B33:I33"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7887,7 +8022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05493551-3041-4A4A-B7E3-7F56097C5DC6}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -7918,79 +8053,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="188">
+      <c r="A2" s="180">
         <f>'PC 2'!B55</f>
         <v>0</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="199"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="str">
         <f>'PC 2'!A1</f>
         <v xml:space="preserve">Particulars of Contract: </v>
       </c>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
@@ -7999,16 +8134,16 @@
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="192">
+      <c r="C8" s="182">
         <f>'PC 2'!B20</f>
         <v>0</v>
       </c>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
     </row>
     <row r="9" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
@@ -8017,16 +8152,16 @@
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="193">
+      <c r="C9" s="179">
         <f>'PC 2'!B21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
     </row>
     <row r="10" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
@@ -8035,16 +8170,16 @@
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="179">
         <f>'PC 2'!B22</f>
         <v>0</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:9" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
@@ -8053,16 +8188,16 @@
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="184">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
     </row>
     <row r="12" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
@@ -8071,16 +8206,16 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="193">
+      <c r="C12" s="179">
         <f>'PC 2'!B26</f>
         <v>0</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
@@ -8089,16 +8224,16 @@
       <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="193">
+      <c r="C13" s="179">
         <f>'PC 2'!B27</f>
         <v>0</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
@@ -8107,16 +8242,16 @@
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="193">
+      <c r="C14" s="179">
         <f>'PC 2'!D27</f>
         <v>0</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
@@ -8125,16 +8260,16 @@
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="193">
+      <c r="C15" s="179">
         <f>'PC 2'!B29</f>
         <v>0</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
@@ -8143,16 +8278,16 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="193">
+      <c r="C16" s="179">
         <f>'PC 2'!B31</f>
         <v>0</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
@@ -8161,16 +8296,16 @@
       <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="193">
+      <c r="C17" s="179">
         <f>'PC 2'!B32</f>
         <v>0</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
@@ -8179,16 +8314,16 @@
       <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="193">
+      <c r="C18" s="179">
         <f>'PC 2'!B33</f>
         <v>0</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
@@ -8213,7 +8348,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="178">
         <f>'PC 2'!B3</f>
@@ -8287,16 +8422,16 @@
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="191">
+      <c r="C24" s="193">
         <f>'PC 2'!B34</f>
         <v>0</v>
       </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
@@ -8305,16 +8440,16 @@
       <c r="B25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="193">
+      <c r="C25" s="179">
         <f>'PC 2'!B35</f>
         <v>0</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
@@ -8354,7 +8489,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -8372,44 +8507,44 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="179" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="190"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A32" s="189" t="s">
@@ -8428,61 +8563,61 @@
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="183"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="183"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="183"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="183"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="189" t="s">
@@ -8498,195 +8633,195 @@
       <c r="I37" s="189"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="195" t="str">
+      <c r="A38" s="186" t="str">
         <f>'PC 2'!A16</f>
         <v>Certification of the sum of ₦0.00 () only, in favour of 0 is recommended, please.</v>
       </c>
-      <c r="B38" s="195"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="195"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="195"/>
-      <c r="H38" s="195"/>
-      <c r="I38" s="195"/>
+      <c r="B38" s="186"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A39" s="195"/>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A40" s="195"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="195"/>
-      <c r="G40" s="195"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="198"/>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198"/>
-      <c r="F41" s="198"/>
-      <c r="G41" s="198"/>
-      <c r="H41" s="198"/>
-      <c r="I41" s="198"/>
+      <c r="A41" s="190"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="190"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="198"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="198"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="197" t="s">
+      <c r="B43" s="192"/>
+      <c r="C43" s="192"/>
+      <c r="D43" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="188"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="196" t="s">
+      <c r="A44" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="196"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="194" t="str">
+      <c r="B44" s="187"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="185" t="str">
         <f>'PC 1'!B68</f>
         <v>Alawiye, K.T (Ms)</v>
       </c>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
+      <c r="E44" s="185"/>
+      <c r="F44" s="185"/>
+      <c r="G44" s="185"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="196" t="s">
+      <c r="A45" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="196"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="194" t="str">
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="185" t="str">
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="185"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="185"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
-      <c r="D46" s="186">
+      <c r="A46" s="196"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="199">
         <f>'PC 1'!B36</f>
         <v>0</v>
       </c>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="197"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="182"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="182"/>
+      <c r="A48" s="197"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="197"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="197"/>
+      <c r="G48" s="197"/>
+      <c r="H48" s="197"/>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="191" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="184"/>
-      <c r="C49" s="185" t="s">
+      <c r="B49" s="192"/>
+      <c r="C49" s="198" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="182"/>
-      <c r="E49" s="187" t="s">
+      <c r="D49" s="197"/>
+      <c r="E49" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
+      <c r="F49" s="200"/>
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="179" t="s">
+      <c r="A50" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="179"/>
-      <c r="C50" s="180" t="s">
+      <c r="B50" s="194"/>
+      <c r="C50" s="195" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="188" t="s">
+      <c r="D50" s="195"/>
+      <c r="E50" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="188"/>
-      <c r="G50" s="188"/>
-      <c r="H50" s="188"/>
-      <c r="I50" s="188"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="180"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="180" t="s">
+      <c r="B51" s="194"/>
+      <c r="C51" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="188" t="s">
+      <c r="D51" s="195"/>
+      <c r="E51" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:9" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8695,6 +8830,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="v6m4mPDwyXr13VqojPTYvJAvuR8Sxunwk9MVy9weiXTdN/wNrDpr6NXTcB2z3V+cirn7DWrhm/ffLGYx4An/RA==" saltValue="RPUr62RzvjQ0Ucl318luZw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="56">
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="A47:H48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:I49"/>
     <mergeCell ref="C20:I20"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="C50:D50"/>
@@ -8711,46 +8886,6 @@
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="A47:H48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8758,7 +8893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC43EDD-15D8-4A61-A2D6-648A3D3D55FD}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
@@ -8766,8 +8901,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A32" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:D46"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A38" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="39" x14ac:dyDescent="0.75"/>
@@ -8784,63 +8919,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
     </row>
     <row r="2" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
     </row>
     <row r="3" spans="1:8" s="135" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="204" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8" s="135" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="228"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="228"/>
-      <c r="F4" s="228"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="228"/>
+      <c r="A4" s="214"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="214"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="214"/>
+      <c r="H4" s="214"/>
     </row>
     <row r="5" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A5" s="137" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="229">
+        <v>173</v>
+      </c>
+      <c r="B5" s="215">
         <f>'PC 1'!B23</f>
         <v>0</v>
       </c>
-      <c r="C5" s="229"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="137" t="s">
         <v>118</v>
       </c>
@@ -8851,33 +8986,33 @@
     </row>
     <row r="6" spans="1:8" s="136" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A6" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="229">
+        <v>175</v>
+      </c>
+      <c r="B6" s="215">
         <f>'PC 2'!B23</f>
         <v>0</v>
       </c>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="215"/>
       <c r="G6" s="137"/>
       <c r="H6" s="167"/>
     </row>
     <row r="7" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A7" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="229">
+        <v>174</v>
+      </c>
+      <c r="B7" s="215">
         <f>'PC 1'!B20</f>
         <v>0</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
       <c r="G7" s="138" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H7" s="139" t="str">
         <f>'PC 1'!B27 &amp; "/" &amp; 'PC 2'!B27</f>
@@ -8888,16 +9023,16 @@
       <c r="A8" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="230" t="str">
+      <c r="B8" s="205" t="str">
         <f>'PC 1'!B28&amp;" "&amp;"/"&amp;'PC 2'!B28</f>
         <v>0 /0</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
       <c r="G8" s="138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H8" s="139" t="str">
         <f>'PC 1'!B30 &amp; "/" &amp; 'PC 2'!B30</f>
@@ -8906,37 +9041,37 @@
     </row>
     <row r="9" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A9" s="137" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="231" t="str">
+        <v>220</v>
+      </c>
+      <c r="B9" s="206" t="str">
         <f>'PC 1'!B22 &amp; "/" &amp; 'PC 2'!B22</f>
         <v>0/0</v>
       </c>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
+      <c r="C9" s="206"/>
+      <c r="D9" s="206"/>
+      <c r="E9" s="206"/>
+      <c r="F9" s="206"/>
       <c r="G9" s="138" t="s">
         <v>113</v>
       </c>
       <c r="H9" s="168" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="136" customFormat="1" ht="96" x14ac:dyDescent="0.85">
       <c r="A10" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="230">
+      <c r="B10" s="205">
         <f>'PC 1'!B21</f>
         <v>0</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
       <c r="G10" s="138" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H10" s="139" t="str">
         <f>'PC 1'!B1 &amp; "/" &amp; 'PC 2'!B1</f>
@@ -8947,53 +9082,53 @@
       <c r="A11" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="230" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
+      <c r="B11" s="205" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
       <c r="G11" s="169"/>
       <c r="H11" s="169"/>
     </row>
     <row r="12" spans="1:8" s="136" customFormat="1" ht="49.2" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="227"/>
-      <c r="B12" s="227"/>
-      <c r="C12" s="227"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
     </row>
     <row r="13" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A13" s="232" t="s">
+      <c r="A13" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="233"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
       <c r="E13" s="134" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="201" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="202"/>
+      <c r="H13" s="211"/>
     </row>
     <row r="14" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="220"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="203"/>
       <c r="E14" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="141"/>
       <c r="G14" s="212" t="str">
@@ -9003,14 +9138,14 @@
       <c r="H14" s="213"/>
     </row>
     <row r="15" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A15" s="218" t="s">
+      <c r="A15" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="219"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="220"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
       <c r="E15" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="141"/>
       <c r="G15" s="212" t="str">
@@ -9020,14 +9155,14 @@
       <c r="H15" s="213"/>
     </row>
     <row r="16" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="220"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
       <c r="E16" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="141"/>
       <c r="G16" s="212" t="str">
@@ -9037,14 +9172,14 @@
       <c r="H16" s="213"/>
     </row>
     <row r="17" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="220"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="203"/>
       <c r="E17" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="141"/>
       <c r="G17" s="212" t="str">
@@ -9054,15 +9189,15 @@
       <c r="H17" s="213"/>
     </row>
     <row r="18" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A18" s="218">
+      <c r="A18" s="201">
         <f>'PC 1'!B37</f>
         <v>0</v>
       </c>
-      <c r="B18" s="219"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="220"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
       <c r="E18" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="141"/>
       <c r="G18" s="212" t="str">
@@ -9072,15 +9207,15 @@
       <c r="H18" s="213"/>
     </row>
     <row r="19" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A19" s="218" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="220"/>
+      <c r="A19" s="201" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="202"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
       <c r="E19" s="140"/>
       <c r="F19" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" s="212" t="str">
         <f>IF('PC 1'!B49="N/A","N/A","See " &amp; 'PC 1'!B49)</f>
@@ -9089,15 +9224,15 @@
       <c r="H19" s="213"/>
     </row>
     <row r="20" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A20" s="218" t="s">
+      <c r="A20" s="201" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="219"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="220"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="203"/>
       <c r="E20" s="140"/>
       <c r="F20" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="212" t="str">
         <f>IF('PC 1'!B50="N/A","N/A","See " &amp; 'PC 1'!B50)</f>
@@ -9106,12 +9241,12 @@
       <c r="H20" s="213"/>
     </row>
     <row r="21" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A21" s="218" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="220"/>
+      <c r="A21" s="201" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="202"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
       <c r="E21" s="140"/>
       <c r="F21" s="140"/>
       <c r="G21" s="212" t="str">
@@ -9121,15 +9256,15 @@
       <c r="H21" s="213"/>
     </row>
     <row r="22" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A22" s="218" t="s">
+      <c r="A22" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="219"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="220"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="141"/>
       <c r="F22" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="212" t="str">
         <f>"See " &amp; 'PC 1'!B46</f>
@@ -9138,12 +9273,12 @@
       <c r="H22" s="213"/>
     </row>
     <row r="23" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A23" s="218" t="s">
+      <c r="A23" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="220"/>
+      <c r="B23" s="222"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
       <c r="E23" s="143"/>
       <c r="F23" s="143"/>
       <c r="G23" s="212" t="str">
@@ -9154,37 +9289,37 @@
     </row>
     <row r="24" spans="1:8" s="136" customFormat="1" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A24" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="221" t="str">
+        <v>128</v>
+      </c>
+      <c r="B24" s="217" t="str">
         <f>'PC 1'!B25 &amp; "/" &amp; 'PC 2'!B25</f>
         <v>0/0</v>
       </c>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="222"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="217"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="218"/>
     </row>
     <row r="25" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A25" s="201" t="s">
+      <c r="A25" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
       <c r="E25" s="146"/>
       <c r="F25" s="146"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="225"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="221"/>
     </row>
     <row r="26" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A26" s="212" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="214"/>
-      <c r="C26" s="214"/>
+        <v>124</v>
+      </c>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
       <c r="D26" s="213"/>
       <c r="E26" s="144"/>
       <c r="F26" s="144"/>
@@ -9195,10 +9330,10 @@
     </row>
     <row r="27" spans="1:8" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A27" s="212" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="214"/>
-      <c r="C27" s="214"/>
+        <v>123</v>
+      </c>
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
       <c r="D27" s="213"/>
       <c r="E27" s="144"/>
       <c r="F27" s="144"/>
@@ -9211,8 +9346,8 @@
       <c r="A28" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
       <c r="D28" s="213"/>
       <c r="E28" s="144"/>
       <c r="F28" s="144"/>
@@ -9225,8 +9360,8 @@
       <c r="A29" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="214"/>
-      <c r="C29" s="214"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
       <c r="D29" s="213"/>
       <c r="E29" s="144"/>
       <c r="F29" s="144"/>
@@ -9239,8 +9374,8 @@
       <c r="A30" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="214"/>
-      <c r="C30" s="214"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
       <c r="D30" s="213"/>
       <c r="E30" s="144"/>
       <c r="F30" s="144"/>
@@ -9251,8 +9386,8 @@
       <c r="A31" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
+      <c r="B31" s="216"/>
+      <c r="C31" s="216"/>
       <c r="D31" s="213"/>
       <c r="E31" s="144"/>
       <c r="F31" s="144"/>
@@ -9266,8 +9401,8 @@
       <c r="A32" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="214"/>
-      <c r="C32" s="214"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
       <c r="D32" s="213"/>
       <c r="E32" s="144"/>
       <c r="F32" s="144"/>
@@ -9278,126 +9413,126 @@
       <c r="H32" s="213"/>
     </row>
     <row r="33" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="144"/>
       <c r="F33" s="144"/>
       <c r="G33" s="212"/>
       <c r="H33" s="213"/>
     </row>
     <row r="34" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A34" s="210" t="s">
+      <c r="A34" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="210"/>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
+      <c r="B34" s="226"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
       <c r="E34" s="145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F34" s="144"/>
       <c r="G34" s="212"/>
       <c r="H34" s="213"/>
     </row>
     <row r="35" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A35" s="210" t="s">
+      <c r="A35" s="226" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210"/>
-      <c r="D35" s="210"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
       <c r="E35" s="145"/>
       <c r="F35" s="144"/>
       <c r="G35" s="212"/>
       <c r="H35" s="213"/>
     </row>
     <row r="36" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A36" s="209" t="s">
+      <c r="A36" s="227" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="209"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
       <c r="E36" s="145"/>
       <c r="F36" s="144"/>
       <c r="G36" s="212"/>
       <c r="H36" s="213"/>
     </row>
     <row r="37" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A37" s="210" t="s">
+      <c r="A37" s="226" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="210"/>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="226"/>
       <c r="E37" s="145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37" s="146"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="202"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
     </row>
     <row r="38" spans="1:10" s="136" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A38" s="211" t="s">
+      <c r="A38" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="210"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="210"/>
+      <c r="B38" s="226"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="226"/>
       <c r="E38" s="145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F38" s="144"/>
       <c r="G38" s="212"/>
       <c r="H38" s="213"/>
     </row>
     <row r="39" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="233" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="208"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="206" t="str">
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="231" t="str">
         <f>"Project 1: " &amp;'PC 1'!B33  &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B33</f>
         <v>Project 1: 0 / Project 2: 0</v>
       </c>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-      <c r="H39" s="207"/>
+      <c r="E39" s="231"/>
+      <c r="F39" s="231"/>
+      <c r="G39" s="231"/>
+      <c r="H39" s="232"/>
     </row>
     <row r="40" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A40" s="205" t="s">
+      <c r="A40" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="205"/>
-      <c r="C40" s="205"/>
-      <c r="D40" s="206" t="str">
+      <c r="B40" s="208"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="231" t="str">
         <f>"Project 1: " &amp;'PC 1'!B34 &amp; " (satisfactory)" &amp; " / " &amp;"Project 2: " &amp; 'PC 2'!B34 &amp; " (satisfactory)"</f>
         <v>Project 1: 0 (satisfactory) / Project 2: 0 (satisfactory)</v>
       </c>
-      <c r="E40" s="206"/>
-      <c r="F40" s="206"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="207"/>
+      <c r="E40" s="231"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="231"/>
+      <c r="H40" s="232"/>
     </row>
     <row r="41" spans="1:10" s="136" customFormat="1" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="229" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="203"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="204"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="230"/>
       <c r="E41" s="140" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="141"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="202"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="211"/>
       <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" s="136" customFormat="1" ht="2.4" customHeight="1" x14ac:dyDescent="0.85">
@@ -9409,11 +9544,10 @@
       <c r="A43" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="149"/>
       <c r="E43" s="148"/>
       <c r="F43" s="148"/>
       <c r="G43" s="245" t="s">
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="H43" s="245"/>
     </row>
@@ -9433,14 +9567,13 @@
         <f>'PC 1'!B69</f>
         <v>PPO (MED)</v>
       </c>
-      <c r="D45" s="148"/>
       <c r="E45" s="148"/>
       <c r="F45" s="148"/>
-      <c r="G45" s="245">
+      <c r="G45" s="247">
         <f>'PC 1'!B71</f>
         <v>0</v>
       </c>
-      <c r="H45" s="245"/>
+      <c r="H45" s="247"/>
     </row>
     <row r="46" spans="1:10" s="136" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A46" s="150">
@@ -9449,57 +9582,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="71">
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:H39"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A38:D38"/>
@@ -9516,19 +9607,60 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58B0C37-7DD2-4BD0-A8E0-A793ADF7C5E9}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="2" tint="-0.499984740745262"/>
@@ -9600,7 +9732,7 @@
     </row>
     <row r="14" spans="1:1" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.45">
@@ -9631,12 +9763,12 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -9653,7 +9785,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
@@ -9665,7 +9797,7 @@
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -9684,7 +9816,7 @@
         <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>52</v>
@@ -9719,7 +9851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2A0A5-F971-4D4F-A38B-5D097CA35F05}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9741,7 +9873,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -9775,62 +9907,4 @@
   <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76427F04-EB42-4E2D-854D-C41572DC3D20}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="33" customFormat="1" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="235" t="str">
-        <f>'PC 2'!B24 &amp; " BY " &amp; 'PC 2'!C22</f>
-        <v>0 BY 0</v>
-      </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-    </row>
-    <row r="3" spans="1:3" ht="1.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-    </row>
-    <row r="4" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
-    </row>
-    <row r="5" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="234"/>
-      <c r="B5" s="234"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>